--- a/项目管理/进度计划/Demo-里程碑7/里程碑7-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑7/里程碑7-周版本.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\项目管理\进度计划\Demo-里程碑7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1740" windowWidth="38265" windowHeight="18480" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20151202" sheetId="1" r:id="rId1"/>
@@ -39,7 +34,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +42,8 @@
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="微软雅黑"/>
-            <charset val="136"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Kathy:</t>
         </r>
@@ -56,7 +52,8 @@
             <sz val="11"/>
             <color indexed="81"/>
             <rFont val="微软雅黑"/>
-            <charset val="136"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 必须 本周必须完成的任务
@@ -70,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="315">
   <si>
     <t>类别</t>
   </si>
@@ -248,9 +245,6 @@
     <t>提交文档</t>
   </si>
   <si>
-    <t>审核剧情故事</t>
-  </si>
-  <si>
     <t>第一二章美术需求审核</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
   <si>
     <t>MT</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局调整测试内容设计</t>
   </si>
   <si>
     <t>大招镜头调整</t>
@@ -378,13 +369,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>对局修改 - 数值配合</t>
-  </si>
-  <si>
     <t>收费点/VIP替代方案</t>
-  </si>
-  <si>
-    <t>怪物 - 投放规划（碎片，整只）</t>
   </si>
   <si>
     <t>玩家前两天新手学习时间规划</t>
@@ -447,10 +432,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>弱点配置结果修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>照妖镜其他修改</t>
     <rPh sb="0" eb="1">
       <t>zhao'yao'jing</t>
@@ -465,28 +446,16 @@
   </si>
   <si>
     <t>师叔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MG-1685</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MG-1686</t>
   </si>
   <si>
     <t>客户端新功能</t>
-  </si>
-  <si>
-    <t>对局调整 - 大招表现</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
@@ -731,20 +700,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>物攻走五行修改，打断走技能修改 文档分析，跟进回归</t>
-    <rPh sb="16" eb="17">
-      <t>wen'dang</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>fen'xi</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面调整 - IM+邮箱 文档分析，跟进回归</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ts</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -770,10 +725,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MG-1722</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>测试用例</t>
   </si>
   <si>
@@ -1406,10 +1357,6 @@
     <t>MG-1248</t>
   </si>
   <si>
-    <t>怪物死亡后对面怪物仍被打死后换怪（待确认解决方案）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>MT，zz</t>
   </si>
   <si>
@@ -1549,9 +1496,6 @@
     <t>D5</t>
   </si>
   <si>
-    <t>第二章，第五章Boss美术需求</t>
-  </si>
-  <si>
     <t>小星</t>
   </si>
   <si>
@@ -1564,22 +1508,7 @@
     <t>界面调整 - IM+邮箱 -封文档 （Day6早上三方）</t>
   </si>
   <si>
-    <t>宠物界面调整-封文档（Day4or5三方）</t>
-  </si>
-  <si>
-    <t>第一，二章副本设计-封文档 （小怪+小怪Boss）（Day4)</t>
-  </si>
-  <si>
     <t>对局修改-大招表现（包括打断改动后部分）(Day4)</t>
-  </si>
-  <si>
-    <t>对局镜头切换验收(展示弱点镜头，配置）</t>
-  </si>
-  <si>
-    <t>对局调整配置集体测试内容（1/2)</t>
-  </si>
-  <si>
-    <t>物攻走五行修改，打断走技能修改  - 封文档 (Day4）</t>
   </si>
   <si>
     <t>v0.6功能集体测试（背包）</t>
@@ -1598,16 +1527,539 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>回归技能玩法，和团队玩法</t>
+  </si>
+  <si>
+    <t>副本结算调整+（星级评价？）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1751</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面调整-封文档（Day4or5三方）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1752</t>
+  </si>
+  <si>
+    <t>MG-1753</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面-技能性格调整</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing'neng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1754</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1755</t>
+  </si>
+  <si>
+    <t>MG-1756</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻走五行修改，打断走技能修改  - 封文档 (Day4）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1757</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一，二章副本设计-（包小怪boss，美术）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一，二章副本设计-封文档 （小怪+小怪Boss）（Day4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1758</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1693</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻走五行修改，打断走技能修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1759</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1760</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1761</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>第二章Boss设计</t>
-  </si>
-  <si>
-    <t>第一，二章副本设计-（包小怪boss，美术）</t>
-  </si>
-  <si>
-    <t>回归技能玩法，和团队玩法</t>
-  </si>
-  <si>
-    <t>副本结算调整+（星级评价？）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1762</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1763</t>
+  </si>
+  <si>
+    <t>MG-1764</t>
+  </si>
+  <si>
+    <t>对局修改 - 数值配合</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1765</t>
+  </si>
+  <si>
+    <t>MG-1766</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1767</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1768</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核剧情故事</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点玩法增加+弱点提示图标</t>
+    <rPh sb="0" eb="1">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wan'fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zeng'jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tu'biao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1704</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局调整测试内容设计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1769</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局镜头切换验收(展示弱点镜头，配置）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1771</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1770</t>
+  </si>
+  <si>
+    <t>MG-1772</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1773</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章，第五章Boss美术需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1774</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1709</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1775</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1776</t>
+  </si>
+  <si>
+    <t>MG-1777
+MG-1778</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1779</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1780</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局调整 - 大招表现</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1781</t>
+  </si>
+  <si>
+    <t>MG-1782</t>
+  </si>
+  <si>
+    <t>MG-1747</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1748</t>
+  </si>
+  <si>
+    <t>MG-1749</t>
+  </si>
+  <si>
+    <t>MG-1750</t>
+  </si>
+  <si>
+    <t>MG-1578</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1728</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1783</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1784</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1785</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1786</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1787</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面调整 - IM+邮箱 文档分析，跟进回归</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1788</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻走五行修改，打断走技能修改 三方，跟进回归</t>
+    <rPh sb="16" eb="17">
+      <t>san'fang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1789</t>
+  </si>
+  <si>
+    <t>MG-1790</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1791</t>
+  </si>
+  <si>
+    <t>MG-1792</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1793</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1794</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1663</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1542</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面-树和宠物站位</t>
+  </si>
+  <si>
+    <t>角色原画-冰霜巨龙</t>
+    <rPh sb="0" eb="1">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bing'shuang'ju'long</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色原画-熔岩巨人</t>
+    <rPh sb="0" eb="1">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rong'yan'ju'ren</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1476</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1661</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss-冰龙、熔岩巨人动作需求，特效需求</t>
+  </si>
+  <si>
+    <t>MG-1736</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-对局调整（除照妖镜）</t>
+  </si>
+  <si>
+    <t>MG-1735</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1795</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1796</t>
+  </si>
+  <si>
+    <t>MG-1797</t>
+  </si>
+  <si>
+    <t>MG-1798</t>
+  </si>
+  <si>
+    <t>MG-1738</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1801</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1800</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1802</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1737</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1741
+MG-1803</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1804</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4orD5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源优化流程确认</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>que'ren</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术制作UI过程中涉及修改内容及时通知各部门，减少开发浪费</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guo'cheng'zhong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji'shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>tong'zhi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ge'bu'men</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>jian'shao</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>lang'fei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物死亡后对面怪物仍被打死后换怪（待确认解决方案）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子,MT</t>
+    <rPh sb="0" eb="1">
+      <t>pang'zi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局调整配置集体测试内容（1/2)，去掉偷懒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物 - 投放规划（碎片，整只）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送集成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM需求-设置副本星级，是否打过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1664</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化服务器数据库解析</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1615,7 +2067,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,14 +2100,16 @@
       <sz val="11"/>
       <color indexed="81"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="81"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1715,6 +2169,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1748,7 +2218,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1762,8 +2232,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1807,13 +2283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1861,17 +2331,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="11">
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="3"/>
     <cellStyle name="常规_2-4周版本输出" xfId="4"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="34">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -2028,17 +2511,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2246,7 +2718,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -2259,57 +2731,33 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="201501028"/>
-      <sheetName val="20151104"/>
-      <sheetName val="20151111"/>
-      <sheetName val="20151118"/>
-      <sheetName val="20151125"/>
-      <sheetName val="模板"/>
       <sheetName val="附录"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="201501028"/>
-      <sheetName val="20151104"/>
-      <sheetName val="20151111"/>
-      <sheetName val="20151118"/>
-      <sheetName val="20151125"/>
-      <sheetName val="模板"/>
       <sheetName val="附录"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -2576,7 +3024,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2584,25 +3032,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P277"/>
+  <dimension ref="A1:P283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="47.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -2621,7 +3069,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2652,12 +3100,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>36</v>
@@ -2666,95 +3114,104 @@
         <v>37</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G3" s="31">
+        <v>193</v>
+      </c>
+      <c r="G3" s="29">
         <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="3"/>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" s="31">
+        <v>199</v>
+      </c>
+      <c r="G4" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="3"/>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" s="31">
+        <v>199</v>
+      </c>
+      <c r="G5" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>220</v>
+      <c r="D6" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="31">
+      <c r="F6" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="7" customFormat="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G7" s="32">
+        <v>197</v>
+      </c>
+      <c r="G7" s="30">
         <v>0.5</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
@@ -2765,1410 +3222,1701 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="3"/>
       <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>216</v>
+      <c r="D8" s="18" t="s">
+        <v>217</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="31">
+        <v>197</v>
+      </c>
+      <c r="G8" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="7" customFormat="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="31">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1.5</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="3"/>
       <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>48</v>
+      <c r="D12" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="31">
-        <v>1.5</v>
+        <v>195</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>223</v>
+      <c r="D13" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D14" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="3"/>
       <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>205</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="31">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="31">
+      <c r="H17" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="G18" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3"/>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>42</v>
+      <c r="D20" t="s">
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G20" s="31">
+        <v>196</v>
+      </c>
+      <c r="G20" s="29">
         <v>0.5</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3"/>
       <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="31">
+        <v>43</v>
+      </c>
+      <c r="G21" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3"/>
       <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3"/>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="31">
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3"/>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="29">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3"/>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>50</v>
+      <c r="D29" s="17" t="s">
+        <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="H29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3"/>
       <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
-      </c>
-      <c r="G30" s="31">
+        <v>196</v>
+      </c>
+      <c r="G30" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="3"/>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
-      </c>
-      <c r="G31" s="31">
+        <v>196</v>
+      </c>
+      <c r="G31" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="3"/>
       <c r="C32" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>210</v>
+      <c r="D32" s="34" t="s">
+        <v>244</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>207</v>
-      </c>
-      <c r="G32" s="31">
+        <v>196</v>
+      </c>
+      <c r="G32" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" t="s">
         <v>57</v>
       </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
       <c r="F33" t="s">
-        <v>206</v>
-      </c>
-      <c r="G33" s="31">
+        <v>194</v>
+      </c>
+      <c r="G33" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3"/>
       <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>219</v>
+        <v>69</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>306</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
-      </c>
-      <c r="G34" s="31">
+        <v>199</v>
+      </c>
+      <c r="G34" s="29">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="3"/>
       <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>218</v>
+      <c r="D35" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>208</v>
-      </c>
-      <c r="G35" s="31">
+        <v>196</v>
+      </c>
+      <c r="G35" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="31">
+        <v>196</v>
+      </c>
+      <c r="G36" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>222</v>
+      <c r="D37" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="E37" t="s">
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="31">
+        <v>196</v>
+      </c>
+      <c r="G37" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>224</v>
+        <v>69</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
-      </c>
-      <c r="G38" s="31">
+        <v>199</v>
+      </c>
+      <c r="G38" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3"/>
       <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>221</v>
+        <v>69</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>203</v>
       </c>
       <c r="E39" t="s">
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>212</v>
-      </c>
-      <c r="G39" s="31">
+        <v>199</v>
+      </c>
+      <c r="G39" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="3"/>
       <c r="C40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
-      </c>
-      <c r="G40" s="31">
+        <v>199</v>
+      </c>
+      <c r="G40" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>69</v>
+      <c r="D41" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
-      </c>
-      <c r="G41" s="31">
+        <v>193</v>
+      </c>
+      <c r="G41" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>70</v>
+      <c r="D42" s="17" t="s">
+        <v>307</v>
       </c>
       <c r="E42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
-      </c>
-      <c r="G42" s="31">
+        <v>194</v>
+      </c>
+      <c r="G42" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>212</v>
-      </c>
-      <c r="G43" s="31">
+        <v>199</v>
+      </c>
+      <c r="G43" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="32">
       <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="29">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" t="s">
+        <v>195</v>
+      </c>
+      <c r="H48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" t="s">
+        <v>194</v>
+      </c>
+      <c r="H49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" t="s">
+        <v>308</v>
+      </c>
+      <c r="H50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" t="s">
+        <v>199</v>
+      </c>
+      <c r="H51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" t="s">
+        <v>195</v>
+      </c>
+      <c r="G52" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" s="29">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="29">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
+        <v>197</v>
+      </c>
+      <c r="G55" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
         <v>85</v>
       </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="9" t="s">
+    </row>
+    <row r="57" spans="1:8">
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="4"/>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5"/>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="5"/>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="5"/>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="5"/>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="5"/>
+      <c r="C66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>310</v>
+      </c>
+      <c r="E66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="5"/>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" t="s">
+        <v>312</v>
+      </c>
+      <c r="E67" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E69" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="C46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="31">
+      <c r="F69" t="s">
+        <v>193</v>
+      </c>
+      <c r="G69" s="29">
         <v>1</v>
       </c>
-      <c r="H46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="31">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="9" t="s">
+      <c r="H69" t="s">
         <v>102</v>
       </c>
-      <c r="E51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="31">
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="4"/>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" t="s">
+        <v>197</v>
+      </c>
+      <c r="G70" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G54" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" t="s">
-        <v>89</v>
-      </c>
-      <c r="G56" s="31">
+      <c r="H70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="5"/>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" t="s">
+        <v>193</v>
+      </c>
+      <c r="G71" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="C59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="C64" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="H71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E72" t="s">
         <v>104</v>
       </c>
-      <c r="E64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" t="s">
-        <v>205</v>
-      </c>
-      <c r="G68" s="31">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
-      <c r="C69" t="s">
-        <v>37</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F69" t="s">
-        <v>209</v>
-      </c>
-      <c r="G69" s="31">
+      <c r="F72" t="s">
+        <v>199</v>
+      </c>
+      <c r="G72" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="C70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" t="s">
-        <v>117</v>
-      </c>
-      <c r="F70" t="s">
-        <v>205</v>
-      </c>
-      <c r="G70" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="H70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" t="s">
-        <v>112</v>
-      </c>
-      <c r="F71" t="s">
-        <v>212</v>
-      </c>
-      <c r="G71" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="C72" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" t="s">
-        <v>208</v>
-      </c>
-      <c r="G72" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="5"/>
       <c r="C73" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="20" t="s">
-        <v>114</v>
+      <c r="D73" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="E73" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F73" t="s">
-        <v>209</v>
-      </c>
-      <c r="G73" s="31">
+        <v>196</v>
+      </c>
+      <c r="G73" s="29">
         <v>0.5</v>
       </c>
       <c r="H73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="5"/>
       <c r="C74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>128</v>
+        <v>37</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F74" t="s">
-        <v>212</v>
-      </c>
-      <c r="G74" s="31">
+        <v>197</v>
+      </c>
+      <c r="G74" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="5"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" t="s">
+        <v>199</v>
+      </c>
+      <c r="G75" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="5"/>
-      <c r="B76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="F76" t="s">
-        <v>212</v>
-      </c>
-      <c r="G76" s="31">
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="5"/>
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F77" t="s">
+        <v>199</v>
+      </c>
+      <c r="G77" s="29">
         <v>1</v>
       </c>
-      <c r="H76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="C77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F77" t="s">
-        <v>208</v>
-      </c>
-      <c r="G77" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="5"/>
       <c r="C78" t="s">
         <v>37</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="F78" t="s">
-        <v>209</v>
-      </c>
-      <c r="G78" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="G78" s="29">
+        <v>3</v>
+      </c>
+      <c r="H78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="5"/>
       <c r="C79" t="s">
         <v>37</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="F79" t="s">
-        <v>212</v>
-      </c>
-      <c r="G79" s="31">
+        <v>197</v>
+      </c>
+      <c r="G79" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="5"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="23"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" s="29">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="5"/>
-      <c r="B81" t="s">
-        <v>119</v>
-      </c>
-      <c r="C81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" t="s">
-        <v>112</v>
-      </c>
-      <c r="F81" t="s">
-        <v>205</v>
-      </c>
-      <c r="G81" s="31">
+      <c r="D81" s="9"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="5"/>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" t="s">
+        <v>196</v>
+      </c>
+      <c r="G82" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="C82" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" t="s">
-        <v>138</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F82" t="s">
-        <v>208</v>
-      </c>
-      <c r="G82" s="31">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="5"/>
       <c r="C83" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E83" t="s">
-        <v>125</v>
-      </c>
-      <c r="G83" s="31">
+      <c r="D83" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="H83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="5"/>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="C84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="9" t="s">
+      <c r="H84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="4"/>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H85" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="4"/>
+      <c r="B87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" t="s">
+        <v>195</v>
+      </c>
+      <c r="G87" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="4"/>
+      <c r="C88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88" t="s">
+        <v>197</v>
+      </c>
+      <c r="G88" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91" t="s">
         <v>137</v>
       </c>
-      <c r="E84" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="G84" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" t="s">
-        <v>41</v>
-      </c>
-      <c r="C86" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F86" t="s">
-        <v>207</v>
-      </c>
-      <c r="G86" s="31">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="C87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E87" t="s">
-        <v>109</v>
-      </c>
-      <c r="F87" t="s">
-        <v>209</v>
-      </c>
-      <c r="G87" s="31">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B90" t="s">
-        <v>142</v>
-      </c>
-      <c r="C90" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" t="s">
-        <v>143</v>
-      </c>
-      <c r="E90" t="s">
-        <v>148</v>
-      </c>
-      <c r="G90" s="31">
+      <c r="F91" t="s">
+        <v>193</v>
+      </c>
+      <c r="G91" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="C91" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" t="s">
-        <v>144</v>
-      </c>
-      <c r="E91" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="4"/>
       <c r="C92" t="s">
         <v>37</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="E92" t="s">
-        <v>149</v>
-      </c>
-      <c r="G92" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="H92" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="4"/>
       <c r="C93" t="s">
         <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E93" t="s">
-        <v>149</v>
-      </c>
-      <c r="G93" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="F93" t="s">
+        <v>197</v>
+      </c>
+      <c r="H93" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="4"/>
       <c r="C94" t="s">
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E94" t="s">
-        <v>149</v>
-      </c>
-      <c r="G94" s="31">
+        <v>138</v>
+      </c>
+      <c r="F94" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" s="29">
+        <v>2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="4"/>
+      <c r="C95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95" t="s">
+        <v>197</v>
+      </c>
+      <c r="G95" s="29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="4"/>
-      <c r="B96" t="s">
-        <v>151</v>
-      </c>
       <c r="C96" t="s">
         <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E96" t="s">
-        <v>153</v>
-      </c>
-      <c r="G96" s="31">
+        <v>138</v>
+      </c>
+      <c r="F96" t="s">
+        <v>199</v>
+      </c>
+      <c r="G96" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="4"/>
+      <c r="B98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" t="s">
+        <v>193</v>
+      </c>
+      <c r="G98" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="C97" t="s">
-        <v>37</v>
-      </c>
-      <c r="D97" t="s">
-        <v>154</v>
-      </c>
-      <c r="E97" t="s">
-        <v>153</v>
-      </c>
-      <c r="G97" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="C98" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" t="s">
-        <v>155</v>
-      </c>
-      <c r="E98" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="4"/>
       <c r="C99" t="s">
         <v>37</v>
       </c>
       <c r="D99" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E99" t="s">
-        <v>153</v>
-      </c>
-      <c r="G99" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="F99" t="s">
+        <v>194</v>
+      </c>
+      <c r="G99" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H99" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="4"/>
       <c r="C100" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D100" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E100" t="s">
-        <v>153</v>
-      </c>
-      <c r="G100" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="F100" t="s">
+        <v>196</v>
+      </c>
+      <c r="G100" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="4"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>282</v>
+      </c>
+      <c r="D101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" t="s">
+        <v>142</v>
+      </c>
+      <c r="F101" t="s">
+        <v>197</v>
+      </c>
+      <c r="G101" s="29">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="4"/>
-      <c r="B102" t="s">
-        <v>162</v>
-      </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D102" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="F102" t="s">
+        <v>199</v>
+      </c>
+      <c r="G102" s="29">
+        <v>2</v>
+      </c>
+      <c r="H102" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8">
       <c r="A104" s="4"/>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C104" t="s">
         <v>37</v>
       </c>
       <c r="D104" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E104" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="F104" t="s">
+        <v>197</v>
+      </c>
+      <c r="G104" s="29">
+        <v>3</v>
+      </c>
+      <c r="H104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" t="s">
+        <v>277</v>
+      </c>
+      <c r="E105" t="s">
+        <v>137</v>
+      </c>
+      <c r="F105" t="s">
+        <v>197</v>
+      </c>
+      <c r="H105" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="4"/>
-      <c r="B106" t="s">
-        <v>160</v>
-      </c>
-      <c r="C106" t="s">
-        <v>37</v>
-      </c>
-      <c r="D106" t="s">
-        <v>161</v>
-      </c>
-      <c r="E106" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" t="s">
+        <v>137</v>
+      </c>
+      <c r="F107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="4"/>
-      <c r="B108" t="s">
-        <v>41</v>
-      </c>
-      <c r="C108" t="s">
-        <v>37</v>
-      </c>
-      <c r="D108" t="s">
-        <v>157</v>
-      </c>
-      <c r="E108" t="s">
+    </row>
+    <row r="109" spans="1:8" ht="32">
+      <c r="A109" s="4"/>
+      <c r="B109" t="s">
         <v>149</v>
       </c>
-      <c r="G108" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
       <c r="C109" t="s">
         <v>37</v>
       </c>
@@ -4176,1126 +4924,1231 @@
         <v>150</v>
       </c>
       <c r="E109" t="s">
-        <v>149</v>
-      </c>
-      <c r="G109" s="31">
+        <v>137</v>
+      </c>
+      <c r="F109" t="s">
+        <v>197</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="4"/>
+      <c r="B111" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" t="s">
+        <v>196</v>
+      </c>
+      <c r="G111" s="29">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="4"/>
+      <c r="C112" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" t="s">
+        <v>139</v>
+      </c>
+      <c r="E112" t="s">
+        <v>138</v>
+      </c>
+      <c r="F112" t="s">
+        <v>195</v>
+      </c>
+      <c r="G112" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="C110" t="s">
-        <v>37</v>
-      </c>
-      <c r="D110" t="s">
-        <v>166</v>
-      </c>
-      <c r="E110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
-        <v>37</v>
-      </c>
-      <c r="D111" t="s">
-        <v>167</v>
-      </c>
-      <c r="E111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
-        <v>37</v>
-      </c>
-      <c r="D112" t="s">
-        <v>168</v>
-      </c>
-      <c r="E112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+      <c r="H112" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="4"/>
+      <c r="C113" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" t="s">
+        <v>137</v>
+      </c>
+      <c r="F113" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="C114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" t="s">
+        <v>156</v>
+      </c>
+      <c r="E114" t="s">
+        <v>137</v>
+      </c>
+      <c r="F114" t="s">
+        <v>199</v>
+      </c>
+      <c r="G114" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="C115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" t="s">
+        <v>157</v>
+      </c>
+      <c r="E115" t="s">
+        <v>137</v>
+      </c>
+      <c r="F115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="7" customFormat="1">
+      <c r="A117" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-    </row>
-    <row r="114" spans="1:16" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A114" s="3"/>
-      <c r="B114" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" spans="1:16" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="8"/>
-    </row>
-    <row r="116" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
-      <c r="B116" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="8"/>
-    </row>
-    <row r="117" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
-      <c r="B117" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-      <c r="G117" s="32"/>
+      <c r="G117" s="30"/>
       <c r="H117" s="8"/>
       <c r="I117" s="9"/>
       <c r="J117" s="8"/>
-    </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+    </row>
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="32">
+      <c r="A118" s="3"/>
       <c r="B118" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>170</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
-      <c r="G118" s="32"/>
+      <c r="G118" s="30"/>
       <c r="H118" s="8"/>
       <c r="I118" s="9"/>
       <c r="J118" s="8"/>
     </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" s="7" customFormat="1">
       <c r="A119" s="2"/>
+      <c r="B119" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C119" s="2"/>
-      <c r="D119" s="9" t="s">
-        <v>172</v>
-      </c>
+      <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
-      <c r="G119" s="32"/>
+      <c r="G119" s="30"/>
       <c r="H119" s="8"/>
       <c r="I119" s="9"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+    <row r="120" spans="1:16" s="7" customFormat="1">
+      <c r="A120" s="3"/>
+      <c r="B120" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="C120" s="2"/>
-      <c r="D120" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="32"/>
+      <c r="G120" s="30"/>
       <c r="H120" s="8"/>
       <c r="I120" s="9"/>
       <c r="J120" s="8"/>
     </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" s="7" customFormat="1">
       <c r="A121" s="2"/>
+      <c r="B121" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C121" s="2"/>
-      <c r="D121" s="18" t="s">
-        <v>173</v>
-      </c>
+      <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="32"/>
+      <c r="G121" s="30"/>
       <c r="H121" s="8"/>
       <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-    </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" spans="1:16" s="7" customFormat="1">
       <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="B122" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="F122" s="2"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="2"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="8"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-    </row>
-    <row r="123" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" spans="1:16" s="7" customFormat="1">
       <c r="A123" s="2"/>
-      <c r="B123" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C123" s="2"/>
-      <c r="D123" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E123" s="2"/>
+      <c r="D123" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="F123" s="2"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="2"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="8"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
     </row>
-    <row r="124" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" s="7" customFormat="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="D124" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="F124" s="2"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="2"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="8"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-    </row>
-    <row r="125" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="1:16" s="7" customFormat="1">
       <c r="A125" s="2"/>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2"/>
+      <c r="D125" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" spans="1:16" s="7" customFormat="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:16" s="7" customFormat="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:16" s="7" customFormat="1">
+      <c r="A128" s="2"/>
+      <c r="D128" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+    </row>
+    <row r="129" spans="1:16" s="7" customFormat="1">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+    </row>
+    <row r="130" spans="1:16" s="7" customFormat="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+    </row>
+    <row r="131" spans="1:16" s="7" customFormat="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-    </row>
-    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2"/>
-      <c r="B126" s="11" t="s">
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+    </row>
+    <row r="132" spans="1:16" s="7" customFormat="1">
+      <c r="A132" s="2"/>
+      <c r="B132" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C132" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D132" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E126" s="12" t="s">
+      <c r="E132" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F126" s="12" t="s">
+      <c r="F132" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G126" s="34" t="s">
+      <c r="G132" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H126" s="11" t="s">
+      <c r="H132" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I126" s="11" t="s">
+      <c r="I132" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J126" s="13"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-    </row>
-    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25" t="s">
+      <c r="J132" s="13"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+    </row>
+    <row r="133" spans="1:16" s="7" customFormat="1">
+      <c r="A133" s="2"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G133" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H133" s="25"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="1:16" s="7" customFormat="1">
+      <c r="A134" s="2"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G134" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="H134" s="25"/>
+      <c r="I134" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J134" s="13"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="1:16" s="7" customFormat="1">
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G135" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H135" s="25"/>
+      <c r="I135" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J135" s="13"/>
+    </row>
+    <row r="136" spans="1:16" s="7" customFormat="1">
+      <c r="B136" s="24"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="13"/>
+    </row>
+    <row r="137" spans="1:16" s="7" customFormat="1">
+      <c r="B137" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G127" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="H127" s="27"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-    </row>
-    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G128" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="H128" s="27"/>
-      <c r="I128" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J128" s="13"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-    </row>
-    <row r="129" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="E129" s="26"/>
-      <c r="F129" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G129" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H129" s="27"/>
-      <c r="I129" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="J129" s="13"/>
-    </row>
-    <row r="130" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
-      <c r="J130" s="13"/>
-    </row>
-    <row r="131" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11"/>
-      <c r="J131" s="13"/>
-    </row>
-    <row r="132" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="J132" s="13"/>
-    </row>
-    <row r="133" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="E133" s="26"/>
-      <c r="F133" s="28">
-        <v>42333</v>
-      </c>
-      <c r="G133" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="J133" s="13"/>
-    </row>
-    <row r="134" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E134" s="26"/>
-      <c r="F134" s="28">
-        <v>42326</v>
-      </c>
-      <c r="G134" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="J134" s="13"/>
-    </row>
-    <row r="135" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E135" s="26"/>
-      <c r="F135" s="28">
-        <v>42326</v>
-      </c>
-      <c r="G135" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="J135" s="13"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="E136" s="26"/>
-      <c r="F136" s="28">
-        <v>42333</v>
-      </c>
-      <c r="G136" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="H136" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="I136" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="E137" s="11"/>
-      <c r="F137" s="29">
+      <c r="F137" s="11"/>
+      <c r="G137" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="1:16" s="7" customFormat="1">
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="1:16" s="7" customFormat="1">
+      <c r="B139" s="24"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E139" s="24"/>
+      <c r="F139" s="26">
+        <v>42333</v>
+      </c>
+      <c r="G139" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:16" s="7" customFormat="1">
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E140" s="24"/>
+      <c r="F140" s="26">
+        <v>42326</v>
+      </c>
+      <c r="G140" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J140" s="13"/>
+    </row>
+    <row r="141" spans="1:16" s="7" customFormat="1">
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E141" s="24"/>
+      <c r="F141" s="26">
+        <v>42326</v>
+      </c>
+      <c r="G141" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J141" s="13"/>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E142" s="24"/>
+      <c r="F142" s="26">
+        <v>42333</v>
+      </c>
+      <c r="G142" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="H142" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="I142" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" s="7" customFormat="1">
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E143" s="11"/>
+      <c r="F143" s="27">
         <v>42347</v>
       </c>
-      <c r="G137" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J137" s="13"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="7"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="7"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="35"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="35"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="26"/>
-      <c r="I142" s="26"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="7"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="7"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="7"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="7"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="7"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="7"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G143" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J143" s="13"/>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="7"/>
+      <c r="B144" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C144" s="24"/>
+      <c r="D144" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="7"/>
+      <c r="B145" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C145" s="24"/>
+      <c r="D145" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="E145" s="24"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="B146" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C146" s="24"/>
+      <c r="D146" t="s">
+        <v>283</v>
+      </c>
+      <c r="E146" s="24"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="24"/>
+      <c r="I147" s="24"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="24"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="7"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" s="7"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1">
       <c r="A161" s="7"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1">
       <c r="A162" s="7"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1">
       <c r="A163" s="7"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1">
       <c r="A164" s="7"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1">
       <c r="A165" s="7"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1">
       <c r="A166" s="7"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1">
       <c r="A167" s="7"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1">
       <c r="A168" s="7"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1">
       <c r="A169" s="7"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1">
       <c r="A170" s="7"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1">
       <c r="A171" s="7"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1">
       <c r="A172" s="7"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1">
       <c r="A173" s="7"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1">
       <c r="A174" s="7"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1">
       <c r="A175" s="7"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1">
       <c r="A176" s="7"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1">
       <c r="A177" s="7"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1">
       <c r="A178" s="7"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1">
       <c r="A179" s="7"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1">
       <c r="A180" s="7"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1">
       <c r="A181" s="7"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1">
       <c r="A182" s="7"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1">
       <c r="A183" s="7"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1">
       <c r="A184" s="7"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1">
       <c r="A185" s="7"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1">
       <c r="A186" s="7"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1">
       <c r="A187" s="7"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1">
       <c r="A188" s="7"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1">
       <c r="A189" s="7"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1">
       <c r="A190" s="7"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1">
       <c r="A191" s="7"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1">
       <c r="A192" s="7"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1">
       <c r="A193" s="7"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1">
       <c r="A194" s="7"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1">
       <c r="A195" s="7"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1">
       <c r="A196" s="7"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1">
       <c r="A197" s="7"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1">
       <c r="A198" s="7"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1">
       <c r="A199" s="7"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1">
       <c r="A200" s="7"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1">
       <c r="A201" s="7"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1">
       <c r="A202" s="7"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1">
       <c r="A203" s="7"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1">
       <c r="A204" s="7"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1">
       <c r="A205" s="7"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1">
       <c r="A206" s="7"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1">
       <c r="A207" s="7"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1">
       <c r="A208" s="7"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1">
       <c r="A209" s="7"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1">
       <c r="A210" s="7"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1">
       <c r="A211" s="7"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1">
       <c r="A212" s="7"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1">
       <c r="A213" s="7"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1">
       <c r="A214" s="7"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1">
       <c r="A215" s="7"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1">
       <c r="A216" s="7"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1">
       <c r="A217" s="7"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1">
       <c r="A218" s="7"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1">
       <c r="A219" s="7"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1">
       <c r="A220" s="7"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1">
       <c r="A221" s="7"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1">
       <c r="A222" s="7"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1">
       <c r="A223" s="7"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1">
       <c r="A224" s="7"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1">
       <c r="A225" s="7"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1">
       <c r="A226" s="7"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1">
       <c r="A227" s="7"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1">
       <c r="A228" s="7"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1">
       <c r="A229" s="7"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1">
       <c r="A230" s="7"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1">
       <c r="A231" s="7"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1">
       <c r="A232" s="7"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1">
       <c r="A233" s="7"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1">
       <c r="A234" s="7"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1">
       <c r="A235" s="7"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1">
       <c r="A236" s="7"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1">
       <c r="A237" s="7"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1">
       <c r="A238" s="7"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1">
       <c r="A239" s="7"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1">
       <c r="A240" s="7"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1">
       <c r="A241" s="7"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1">
       <c r="A242" s="7"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1">
       <c r="A243" s="7"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1">
       <c r="A244" s="7"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1">
       <c r="A245" s="7"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1">
       <c r="A246" s="7"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1">
       <c r="A247" s="7"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1">
       <c r="A248" s="7"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1">
       <c r="A249" s="7"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1">
       <c r="A250" s="7"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1">
       <c r="A251" s="7"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1">
       <c r="A252" s="7"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1">
       <c r="A253" s="7"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1">
       <c r="A254" s="7"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1">
       <c r="A255" s="7"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1">
       <c r="A256" s="7"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1">
       <c r="A257" s="7"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1">
       <c r="A258" s="7"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1">
       <c r="A259" s="7"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1">
       <c r="A260" s="7"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1">
       <c r="A261" s="7"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1">
       <c r="A262" s="7"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1">
       <c r="A263" s="7"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1">
       <c r="A264" s="7"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1">
       <c r="A265" s="7"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1">
       <c r="A266" s="7"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1">
       <c r="A267" s="7"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1">
       <c r="A268" s="7"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1">
       <c r="A269" s="7"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1">
       <c r="A270" s="7"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1">
       <c r="A271" s="7"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1">
       <c r="A272" s="7"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1">
       <c r="A273" s="7"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1">
       <c r="A274" s="7"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1">
       <c r="A275" s="7"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1">
       <c r="A276" s="7"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1">
       <c r="A277" s="7"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="7"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I145:I1048576 I1:I6 I11:I14 I8 I16:I112">
-    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I151:I1048576 I1:I6 I10:I13 I8 I15:I116">
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="40" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B117 C117:F118 G113:XFD126 E18 D12:E12 E82 E84 E86 A1:A6 E119:F121 A117:A121 C119:C121 A122:F126 D127:G128 A127:C129 H127:XFD129 J133:XFD135 A133:I136 A138:A1048576 B138:I144 A137:C137 A130:XFD132 F137:XFD137 A11:A14 A8 A10:E10 A7:E7 G10 G7 I10:XFD10 I7:XFD7 D76:E80 A16:A112">
-    <cfRule type="cellIs" dxfId="32" priority="38" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B121 C121:F122 E17 D11:E11 E83 E85 E87 A1:A6 D133:G134 A133:C135 H133:XFD135 J139:XFD141 A139:I142 A144:A1048576 B147:I150 A143:C143 A136:XFD138 F143:XFD143 A10:A13 A8 A9:E9 A7:E7 G9 G7 I9:XFD9 I7:XFD7 D77:E81 A129:F132 A128 E128:F128 A126:F127 E123:F125 C123:C125 A121:A125 G117:XFD132 C144:C145 B146:C146 E144:I146 A15:A116">
+    <cfRule type="cellIs" dxfId="31" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B118 A113:F116">
-    <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B122 A117:F120">
+    <cfRule type="cellIs" dxfId="30" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E3 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="30" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="29" priority="34" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="28" priority="34" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:E11">
-    <cfRule type="cellIs" dxfId="28" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="cellIs" dxfId="27" priority="33" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="26" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="cellIs" dxfId="22" priority="27" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E12:E13">
+    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D14">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+  <conditionalFormatting sqref="D12:D13">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45 D47:D48">
-    <cfRule type="cellIs" dxfId="19" priority="24" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D45:D47">
+    <cfRule type="cellIs" dxfId="18" priority="24" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:D52">
-    <cfRule type="cellIs" dxfId="18" priority="23" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D49:D51">
+    <cfRule type="cellIs" dxfId="17" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="cellIs" dxfId="17" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" dxfId="16" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+  <conditionalFormatting sqref="D70">
     <cfRule type="cellIs" dxfId="15" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D74">
+  <conditionalFormatting sqref="D74:D75">
     <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
+  <conditionalFormatting sqref="D71">
     <cfRule type="cellIs" dxfId="13" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
+  <conditionalFormatting sqref="D84">
     <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
+  <conditionalFormatting sqref="D85">
     <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
+  <conditionalFormatting sqref="D87">
     <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
+  <conditionalFormatting sqref="D88">
     <cfRule type="cellIs" dxfId="9" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D120">
+  <conditionalFormatting sqref="D124">
     <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D119">
+  <conditionalFormatting sqref="D125">
     <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G129 D137:E137">
+  <conditionalFormatting sqref="G135 D143:E143">
     <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D129:E129">
+  <conditionalFormatting sqref="D135:E135">
     <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F129">
+  <conditionalFormatting sqref="F135">
     <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F9">
     <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="I14">
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("阻碍",I14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未完成",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15 E15:E16">
+  <conditionalFormatting sqref="A14 E14:E15">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C145:C1048576 C1:C6 C8 C11:C79 C80:C112">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C151:C1048576 C1:C6 C8 C10:C116">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F145:F1048576 F1:F8 F11:F112">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F151:F1048576 F1:F8 F10:F116">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I145:I1048576 I1:I6 I8 I11:I112">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I151:I1048576 I1:I6 I8 I10:I116">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B145:B1048576 B122:B126 B1:B6 B8 B11:B120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151:B1048576 B129:B132 B1:B6 B8 B124:B127 B10:B122">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5304,25 +6157,25 @@
           <x14:formula1>
             <xm:f>[1]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C130</xm:sqref>
+          <xm:sqref>C136</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[2]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C133:C136 C138:C144</xm:sqref>
+          <xm:sqref>C139:C142 C144:C150</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[3]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F10 I10 I7</xm:sqref>
+          <xm:sqref>F9 I9 I7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[4]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B10:C10 B7:C7</xm:sqref>
+          <xm:sqref>B9:C9 B7:C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5339,7 +6192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5357,7 +6210,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5375,7 +6228,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5395,7 +6248,7 @@
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目管理/进度计划/Demo-里程碑7/里程碑7-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑7/里程碑7-周版本.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\计划\进度计划\Demo-里程碑7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38580" yWindow="465" windowWidth="28680" windowHeight="16995" tabRatio="500"/>
+    <workbookView xWindow="-220" yWindow="280" windowWidth="38040" windowHeight="19420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20151202" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +34,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +72,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +110,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +148,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +186,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="482">
   <si>
     <t>类别</t>
   </si>
@@ -290,7 +285,7 @@
     <rPh sb="0" eb="1">
       <t>b'men</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>上周Day3后移入上周版本任务</t>
@@ -348,11 +343,11 @@
     <rPh sb="0" eb="1">
       <t>xue'ji</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>MG-1631</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>策划验收</t>
@@ -368,29 +363,29 @@
     <rPh sb="3" eb="4">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>小星</t>
     <rPh sb="0" eb="1">
       <t>xiao'xing</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1702</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">登录，选服，公告，创建角色 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>界面调整 - IM+邮箱</t>
@@ -412,15 +407,15 @@
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>大招镜头调整</t>
@@ -430,7 +425,7 @@
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>道具掉落指引验收</t>
@@ -446,7 +441,7 @@
     <rPh sb="6" eb="7">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴掉落指引验收</t>
@@ -465,14 +460,14 @@
     <rPh sb="8" eb="9">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>雪姬</t>
     <rPh sb="0" eb="1">
       <t>xue'ji</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面调整</t>
@@ -485,7 +480,7 @@
     <rPh sb="4" eb="5">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>评审</t>
@@ -513,7 +508,7 @@
     <rPh sb="14" eb="15">
       <t>ping'shen</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>debug</t>
@@ -523,7 +518,7 @@
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>收费点/VIP替代方案</t>
@@ -536,18 +531,18 @@
     <rPh sb="0" eb="1">
       <t>lao'li</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>超额</t>
   </si>
   <si>
     <t>MG-1694</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1696</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局调整-照妖镜,大招等</t>
@@ -566,7 +561,7 @@
     <rPh sb="11" eb="12">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局-照妖镜，大招等</t>
@@ -582,11 +577,11 @@
     <rPh sb="9" eb="10">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物攻走五行修改，打断走技能修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜其他修改</t>
@@ -599,14 +594,14 @@
     <rPh sb="5" eb="6">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1686</t>
@@ -616,25 +611,25 @@
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>小龙</t>
     <rPh sb="0" eb="1">
       <t>xiao'long</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜修改-Debug</t>
@@ -644,7 +639,7 @@
     <rPh sb="3" eb="4">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局修改-Debug</t>
@@ -654,7 +649,7 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>客户端自主任务</t>
@@ -667,14 +662,14 @@
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>小飞，zz</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局调整 - 取消画阵</t>
@@ -684,11 +679,11 @@
     <rPh sb="9" eb="10">
       <t>hua'zhen</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面修改</t>
@@ -701,21 +696,21 @@
     <rPh sb="4" eb="5">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
     <rPh sb="0" eb="1">
       <t>xiao'zhen</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>帅帅</t>
     <rPh sb="0" eb="1">
       <t>shuai'shuai</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>服务器自主任务</t>
@@ -734,11 +729,11 @@
     <rPh sb="7" eb="8">
       <t>hui'gui</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1717</t>
@@ -751,7 +746,7 @@
     <rPh sb="0" eb="1">
       <t>lei'shen</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面调整三方，跟进回归</t>
@@ -773,7 +768,7 @@
     <rPh sb="11" eb="12">
       <t>hui'gui</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>第一，二章副本设计文档分析，跟进回归</t>
@@ -789,11 +784,11 @@
     <rPh sb="11" eb="12">
       <t>fen'xi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>登录，选服，公告，创建角色 文档分析</t>
@@ -803,18 +798,18 @@
     <rPh sb="16" eb="17">
       <t>fen'xi</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>功能测试</t>
   </si>
   <si>
     <t>MG-1719</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1720</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>测试用例</t>
@@ -845,11 +840,11 @@
     <rPh sb="20" eb="21">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面调整用例设计</t>
@@ -868,11 +863,11 @@
     <rPh sb="8" eb="9">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-性格、技能文档分析</t>
@@ -894,7 +889,7 @@
     <rPh sb="12" eb="13">
       <t>fen'xi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会-基础 用例设计</t>
@@ -910,11 +905,11 @@
     <rPh sb="8" eb="9">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通天塔测试，复查bug</t>
@@ -927,7 +922,7 @@
     <rPh sb="6" eb="7">
       <t>fu'cha</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>掉落指引-宠物与物品掉落配置表解析</t>
@@ -937,19 +932,19 @@
     <rPh sb="2" eb="3">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">掉落指引-道具tips与宠物合成界面tips </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">掉落指引-途径的事件管理 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>掉落指引-修改界面接入的方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物攻走五行修改，打断走技能修改用例设计</t>
@@ -959,14 +954,14 @@
     <rPh sb="17" eb="18">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物攻走五行修改，打断走技能修改测试</t>
     <rPh sb="15" eb="16">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局修改-照妖镜，取消画阵，大招调整测试，复查bug</t>
@@ -997,7 +992,7 @@
     <rPh sb="21" eb="22">
       <t>fu'cha</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IM，邮箱调整用例设计</t>
@@ -1013,7 +1008,7 @@
     <rPh sb="9" eb="10">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>道具tips-掉落指引,宠物图鉴掉落指引用例走读</t>
@@ -1044,7 +1039,7 @@
     <rPh sb="22" eb="23">
       <t>zou'du</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>物攻走五行修改，打断走技能修改用例走读</t>
@@ -1054,7 +1049,7 @@
     <rPh sb="17" eb="18">
       <t>zou'du</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
@@ -1067,14 +1062,14 @@
     <rPh sb="5" eb="6">
       <t>zhao'yao'jing</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局UI-Debug</t>
     <rPh sb="0" eb="1">
       <t>dui'ju</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI-宠物界面调整</t>
@@ -1087,14 +1082,14 @@
     <rPh sb="7" eb="8">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI-IM调整</t>
     <rPh sb="5" eb="6">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI-邮箱调整</t>
@@ -1104,21 +1099,21 @@
     <rPh sb="5" eb="6">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'fan</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>罗阳</t>
     <rPh sb="0" eb="1">
       <t>luo'yang</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪物大招需求</t>
@@ -1131,7 +1126,7 @@
     <rPh sb="4" eb="5">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色原画</t>
@@ -1153,14 +1148,14 @@
     <rPh sb="7" eb="8">
       <t>ke'zi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>豆豆</t>
     <rPh sb="0" eb="1">
       <t>dou'dou</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪物换色-河童，小丑，凯瑞斯</t>
@@ -1179,7 +1174,7 @@
     <rPh sb="11" eb="12">
       <t>kai'rui'si</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪物换色-蜥蜴人，狼人，舞狮</t>
@@ -1195,7 +1190,7 @@
     <rPh sb="9" eb="10">
       <t>lang'ren</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色原画-第2章Boss</t>
@@ -1211,7 +1206,7 @@
     <rPh sb="7" eb="8">
       <t>zhang</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物模型标准回归（角色打光、调缩放后）</t>
@@ -1242,7 +1237,7 @@
     <rPh sb="17" eb="18">
       <t>hou</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI-宠物头像（第1，2章所需宠物及其他已完成宠物）</t>
@@ -1279,7 +1274,7 @@
     <rPh sb="23" eb="24">
       <t>chong'wu</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落物件美术需求</t>
@@ -1298,7 +1293,7 @@
     <rPh sb="8" eb="9">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>特效</t>
@@ -1320,7 +1315,7 @@
     <rPh sb="4" eb="5">
       <t>yuan'hua</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色3D</t>
@@ -1333,7 +1328,7 @@
     <rPh sb="5" eb="6">
       <t>huo'niao</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪物换色发包</t>
@@ -1346,7 +1341,7 @@
     <rPh sb="4" eb="5">
       <t>fa'bao</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>村落发包</t>
@@ -1356,7 +1351,7 @@
     <rPh sb="2" eb="3">
       <t>fa'bao</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局掉落3D发包</t>
@@ -1369,21 +1364,21 @@
     <rPh sb="6" eb="7">
       <t>fa'bao</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三方</t>
     <rPh sb="0" eb="1">
       <t>san'fang</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
     <rPh sb="0" eb="1">
       <t>gong'hui</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>收集里程碑6问题</t>
@@ -1396,15 +1391,15 @@
     <rPh sb="6" eb="7">
       <t>wen'ti</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">界面调整 - IM+邮箱 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物攻走五行修改，打断走技能修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>策划设计文档中，文字限制按英文字符出，中英文以及其他语言换算策划了解其他游戏做法</t>
@@ -1414,7 +1409,7 @@
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>对局待确认功能-弱点加入是否可打断</t>
@@ -1433,7 +1428,7 @@
   </si>
   <si>
     <t>下次配置前讲解</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>小怪美术需求-特效</t>
@@ -1443,7 +1438,7 @@
   </si>
   <si>
     <t>等大招</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>MG-1248</t>
@@ -1459,15 +1454,15 @@
   </si>
   <si>
     <t>字体方法确认-倾向系统字</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>sf，zz，MT</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>查找字体，确认中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>森林、冥河场景安排测试</t>
@@ -1486,15 +1481,15 @@
     <rPh sb="9" eb="10">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>bug修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>特效安排回归测试</t>
@@ -1510,7 +1505,7 @@
     <rPh sb="6" eb="7">
       <t>ce'shi</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>通用弹出界面新增一种，程序、测试排期</t>
@@ -1538,36 +1533,36 @@
     <rPh sb="16" eb="17">
       <t>p'qi</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>zz，ts</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>关闭</t>
     <rPh sb="0" eb="1">
       <t>guan'bi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
     <rPh sb="0" eb="1">
       <t>wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>副本配置同学总结分享</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>胖子</t>
     <rPh sb="0" eb="1">
       <t>pang'iz</t>
     </rPh>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MG-1687</t>
@@ -1616,29 +1611,29 @@
     <rPh sb="11" eb="12">
       <t>bei'bao</t>
     </rPh>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>回归技能玩法，和团队玩法</t>
   </si>
   <si>
     <t>副本结算调整+（星级评价？）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1751</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面调整-封文档（Day4or5三方）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1752</t>
   </si>
   <si>
     <t>MG-1753</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-技能性格调整</t>
@@ -1660,66 +1655,66 @@
     <rPh sb="9" eb="10">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1754</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1755</t>
   </si>
   <si>
     <t>MG-1756</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物攻走五行修改，打断走技能修改  - 封文档 (Day4）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1757</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>第一，二章副本设计-（包小怪boss，美术）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>第一，二章副本设计-封文档 （小怪+小怪Boss）（Day4)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1758</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1693</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物攻走五行修改，打断走技能修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1759</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1760</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1761</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>第二章Boss设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1762</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1763</t>
@@ -1729,26 +1724,26 @@
   </si>
   <si>
     <t>对局修改 - 数值配合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1765</t>
   </si>
   <si>
     <t>MG-1766</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1767</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1768</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>审核剧情故事</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>弱点玩法增加+弱点提示图标</t>
@@ -1770,58 +1765,58 @@
     <rPh sb="11" eb="12">
       <t>tu'biao</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1704</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局调整测试内容设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1769</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局镜头切换验收(展示弱点镜头，配置）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1771</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1770</t>
   </si>
   <si>
     <t>MG-1772</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1773</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>第二章，第五章Boss美术需求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1774</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1709</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1775</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1776</t>
@@ -1829,19 +1824,19 @@
   <si>
     <t>MG-1777
 MG-1778</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1779</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1780</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局调整 - 大招表现</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>MG-1781</t>
@@ -1851,7 +1846,7 @@
   </si>
   <si>
     <t>MG-1747</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1748</t>
@@ -1864,76 +1859,76 @@
   </si>
   <si>
     <t>MG-1578</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1728</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1783</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1784</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1785</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1786</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1787</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>界面调整 - IM+邮箱 文档分析，跟进回归</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1788</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物攻走五行修改，打断走技能修改 三方，跟进回归</t>
     <rPh sb="16" eb="17">
       <t>san'fang</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1789</t>
   </si>
   <si>
     <t>MG-1790</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1791</t>
   </si>
   <si>
     <t>MG-1792</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1793</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1794</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1663</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1542</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主界面-树和宠物站位</t>
@@ -1949,7 +1944,7 @@
     <rPh sb="5" eb="6">
       <t>bing'shuang'ju'long</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色原画-熔岩巨人</t>
@@ -1962,37 +1957,37 @@
     <rPh sb="5" eb="6">
       <t>rong'yan'ju'ren</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1476</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1661</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>必须</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>boss-冰龙、熔岩巨人动作需求，特效需求</t>
   </si>
   <si>
     <t>MG-1736</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI-对局调整（除照妖镜）</t>
   </si>
   <si>
     <t>MG-1735</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1795</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1796</t>
@@ -2005,44 +2000,44 @@
   </si>
   <si>
     <t>MG-1738</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1801</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1800</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1802</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1737</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1741
 MG-1803</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1804</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D4orD5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>美术资源优化流程确认</t>
@@ -2061,7 +2056,7 @@
     <rPh sb="8" eb="9">
       <t>que'ren</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>美术制作UI过程中涉及修改内容及时通知各部门，减少开发浪费</t>
@@ -2101,72 +2096,72 @@
     <rPh sb="27" eb="28">
       <t>lang'fei</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪物死亡后对面怪物仍被打死后换怪（待确认解决方案）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>D1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>胖子,MT</t>
     <rPh sb="0" eb="1">
       <t>pang'zi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局调整配置集体测试内容（1/2)，去掉偷懒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>推送集成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>小珍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GM需求-设置副本星级，是否打过</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1664</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>优化服务器数据库解析</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>今晚</t>
     <rPh sb="0" eb="1">
       <t>jin'wan</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>金币、材料坑设计</t>
   </si>
   <si>
     <t>MG-1805</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>怪物 - 投放规划（碎片，整只），抽奖设计</t>
@@ -2176,25 +2171,25 @@
     <rPh sb="19" eb="20">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>阻碍</t>
     <rPh sb="0" eb="1">
       <t>zu'ai</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>未完成</t>
     <rPh sb="0" eb="1">
       <t>wei'wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>提交，等审核</t>
@@ -2207,7 +2202,7 @@
     <rPh sb="4" eb="5">
       <t>shen'he</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>抽奖完成，副本没完成</t>
@@ -2226,15 +2221,15 @@
     <rPh sb="8" eb="9">
       <t>wan'cheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三方后</t>
@@ -2244,78 +2239,70 @@
     <rPh sb="2" eb="3">
       <t>hou</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>D5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>延期</t>
     <rPh sb="0" eb="1">
       <t>yan'qi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
     <rPh sb="0" eb="1">
       <t>dai'ding</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>创建公会</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>公会列表，搜索，申请公会</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>公会成员列表，成员管理 ，赠送体力</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IM 世界频道支持公会招募 及跳转 </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>IM 公会频道支持 公会任务发布 及跳转</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>公会祈福UI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>公会祈福联调</t>
     <rPh sb="4" eb="5">
       <t>lian'tiao</t>
     </rPh>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>师叔</t>
     <rPh sb="0" eb="1">
       <t>shi'shu</t>
     </rPh>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>小飞</t>
     <rPh sb="0" eb="1">
       <t>xiao'fei</t>
     </rPh>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MG-1813</t>
@@ -2325,24 +2312,21 @@
   </si>
   <si>
     <t>MG-1815</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MG-1816</t>
   </si>
   <si>
     <t>MG-1808</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MG-1809</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MG-1810</t>
   </si>
   <si>
     <t>MG-1817</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MG-1818</t>
@@ -2354,35 +2338,16 @@
     <t>MG-1820</t>
   </si>
   <si>
-    <t>宠物界面调整（待拆分）</t>
-    <rPh sb="0" eb="1">
-      <t>chong'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tiao'zheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>chai'fen</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>客户端UI资源待修改内容-20151130</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>zz</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1821</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局修改审核</t>
@@ -2395,11 +2360,11 @@
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>账号登录，创建角色，服务器选择，公告 - 封文档</t>
@@ -2412,7 +2377,7 @@
     <rPh sb="2" eb="3">
       <t>xi't</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>提交QA</t>
@@ -2446,7 +2411,7 @@
     <rPh sb="20" eb="21">
       <t>tu'jian</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>三方前</t>
@@ -2468,7 +2433,7 @@
     <rPh sb="7" eb="8">
       <t>gong'neng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>v0.6功能集体测试（背包）</t>
@@ -2484,7 +2449,7 @@
     <rPh sb="11" eb="12">
       <t>bei'bao</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>集体测试，收集反馈意见</t>
@@ -2503,14 +2468,14 @@
     <rPh sb="9" eb="10">
       <t>yi'jian</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AI修改</t>
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>回归技能玩法， 和团队玩法</t>
@@ -2538,7 +2503,7 @@
     <rPh sb="2" eb="3">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局修改debug</t>
@@ -2548,11 +2513,11 @@
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局调整配置集体测试内容，去掉偷懒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局新增特效配置</t>
@@ -2571,14 +2536,14 @@
     <rPh sb="6" eb="7">
       <t>pei'zhi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会-静态数据结构</t>
   </si>
   <si>
     <t>MG-1806</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1807</t>
@@ -2621,14 +2586,14 @@
     <rPh sb="24" eb="25">
       <t>jie'mian</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>必须</t>
     <rPh sb="0" eb="1">
       <t>bi'xu</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会-创建公会</t>
@@ -2641,18 +2606,18 @@
     <rPh sb="5" eb="6">
       <t>gong'hui</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>超额</t>
     <rPh sb="0" eb="1">
       <t>chao'e</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1813</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会-IM 世界频道支持公会招募及跳转</t>
@@ -2680,19 +2645,19 @@
     <rPh sb="17" eb="18">
       <t>tiao'zhuan</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1808</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1812</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MG-1746</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会-任务</t>
@@ -2702,18 +2667,18 @@
     <rPh sb="3" eb="4">
       <t>ren'wu</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会副本入口和结算</t>
     <rPh sb="0" eb="1">
       <t>gong</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>副本结算调整+星级评价</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-技能性格调整 - 封文档</t>
@@ -2738,7 +2703,7 @@
     <rPh sb="14" eb="15">
       <t>feng'wen'dang</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>邮箱调整</t>
@@ -2748,14 +2713,14 @@
     <rPh sb="2" eb="3">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IM调整</t>
     <rPh sb="2" eb="3">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物攻走五行，打断技能debug</t>
@@ -2774,7 +2739,7 @@
     <rPh sb="8" eb="9">
       <t>ji'neng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会-服务器-联调</t>
@@ -2787,7 +2752,7 @@
     <rPh sb="7" eb="8">
       <t>lian'tiao</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GM需求-刷新，副本相关</t>
@@ -2803,7 +2768,7 @@
     <rPh sb="10" eb="11">
       <t>xiang'g</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GM需求-公会</t>
@@ -2813,7 +2778,7 @@
     <rPh sb="5" eb="6">
       <t>gong'hui</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>登录流程三方，跟进回归</t>
@@ -2832,11 +2797,11 @@
     <rPh sb="9" eb="10">
       <t>hui'gui</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-技能性格调整 - 文档分析，三方，跟进回归</t>
@@ -2873,14 +2838,14 @@
     <rPh sb="24" eb="25">
       <t>hui'gui</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AI修改- 文档分析，三方，跟进回归</t>
     <rPh sb="2" eb="3">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>副本结算调整+星级评价文档分析</t>
@@ -2890,7 +2855,7 @@
     <rPh sb="13" eb="14">
       <t>fen'ix</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>商店调整+新增功能 文档分析</t>
@@ -2915,7 +2880,7 @@
     <rPh sb="12" eb="13">
       <t>fen'xi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会-其他内容用例设计</t>
@@ -2934,7 +2899,7 @@
     <rPh sb="9" eb="10">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>道具tips-掉落指引,宠物图鉴掉落指引测试，复查bug</t>
@@ -2965,7 +2930,7 @@
     <rPh sb="23" eb="24">
       <t>fu'cha</t>
     </rPh>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-性格、技能用例设计</t>
@@ -2987,11 +2952,11 @@
     <rPh sb="12" eb="13">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物攻走五行，打断技能 复查bug</t>
@@ -3013,7 +2978,7 @@
     <rPh sb="11" eb="12">
       <t>fu'cha</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局其他修改-新增特效测试，UI替换测试，复查bug</t>
@@ -3038,7 +3003,7 @@
     <rPh sb="21" eb="22">
       <t>fu'cha</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>第1、2章副本 用例设计</t>
@@ -3057,7 +3022,7 @@
     <rPh sb="10" eb="11">
       <t>she'ji</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面调整用例走读</t>
@@ -3076,7 +3041,7 @@
     <rPh sb="8" eb="9">
       <t>zou'du</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会-基础用例走读</t>
@@ -3092,7 +3057,7 @@
     <rPh sb="7" eb="8">
       <t>zou'du</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>副本配置分享</t>
@@ -3105,15 +3070,15 @@
     <rPh sb="4" eb="5">
       <t>fen'xiang</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>邮箱调整 - 验收</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IM调整 - 验收</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>道具掉落指引 debug</t>
@@ -3126,7 +3091,7 @@
     <rPh sb="4" eb="5">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对局-照妖镜，大招等 debug</t>
@@ -3142,7 +3107,7 @@
     <rPh sb="9" eb="10">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物图鉴掉落指引验收 debug</t>
@@ -3161,7 +3126,7 @@
     <rPh sb="8" eb="9">
       <t>yan'shou</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>宠物界面-技能性格调整 三方</t>
@@ -3186,23 +3151,23 @@
     <rPh sb="12" eb="13">
       <t>san'fang</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>账号登录，创建角色，服务器选择，公告 三方</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>sf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI-公会-科技，祈福，任务</t>
@@ -3215,7 +3180,7 @@
     <rPh sb="12" eb="13">
       <t>ren'wu</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI-公会-补图</t>
@@ -3225,14 +3190,14 @@
     <rPh sb="6" eb="7">
       <t>bu'tu</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>sun'f</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI-公会-基础</t>
@@ -3242,7 +3207,7 @@
     <rPh sb="6" eb="7">
       <t>ji'chu</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色原画-第2章Boss动作、特效需求</t>
@@ -3267,7 +3232,7 @@
     <rPh sb="17" eb="18">
       <t>xu'qiu</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI-道具Icon（装备*6）</t>
@@ -3277,7 +3242,7 @@
     <rPh sb="10" eb="11">
       <t>zhuang'bei</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>角色3D-火刺壳</t>
@@ -3287,7 +3252,7 @@
     <rPh sb="5" eb="6">
       <t>huo</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>未完成</t>
@@ -3297,7 +3262,7 @@
   </si>
   <si>
     <t xml:space="preserve">界面调整 - IM+邮箱 -封文档 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IM、邮箱调整 三方</t>
@@ -3307,7 +3272,7 @@
     <rPh sb="5" eb="6">
       <t>tiao'zheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>v0.6功能集体测试（活力值）</t>
@@ -3323,14 +3288,14 @@
     <rPh sb="11" eb="12">
       <t>huo'li'zhi</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>v0.6功能集体测试（副本选择、阵容选择）</t>
     <rPh sb="13" eb="14">
       <t>xuan'ze</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>v0.6集体测试指引</t>
@@ -3343,7 +3308,7 @@
     <rPh sb="8" eb="9">
       <t>zhi'yin</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>推送功能集成</t>
@@ -3356,7 +3321,7 @@
     <rPh sb="4" eb="5">
       <t>ji'cheng</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>邮件修改-服务器</t>
@@ -3369,7 +3334,7 @@
     <rPh sb="5" eb="6">
       <t>fu'w'q</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UI-宠物界面-技能、性格</t>
@@ -3385,19 +3350,19 @@
     <rPh sb="11" eb="12">
       <t>xing'ge</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会科技ui</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>公会科技升级消耗联调</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>公会科技影响到结算</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>UI制作流程问题：</t>
@@ -3410,7 +3375,7 @@
     <rPh sb="6" eb="7">
       <t>wen'ti</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如果UI制作修改内容对于三方确认内容来说较多，如何处理？这种情况，三方前和UI评审后美术就要先出效果图么？</t>
@@ -3495,7 +3460,7 @@
     <rPh sb="51" eb="52">
       <t>me</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>如果程序按三方内容制作，之后UI调整较大，成本会比较高。若UI和程序同步进行需要及时沟通，若UI比程序制作晚如何处理才能降低成本？</t>
@@ -3598,17 +3563,14 @@
     <rPh sb="63" eb="64">
       <t>ben</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>公会信息（基础信息，领奖，修改公告）</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>收费模式审核</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
   <si>
     <t>胖子, 雪姬</t>
@@ -3639,64 +3601,201 @@
     <rPh sb="10" eb="11">
       <t>shang'dian</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落指引接口-副本、商店</t>
-    <rPh sb="0" eb="1">
-      <t>diao'luo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'yin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>f'b</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>shang'dian</t>
-    </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>通天塔debug</t>
     <rPh sb="0" eb="1">
       <t>tong'tian'ta</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>阻碍</t>
   </si>
   <si>
     <t>三方延期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">要调整模型已经发动作 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>孙帆</t>
     <rPh sb="0" eb="1">
       <t>luo'yang</t>
     </rPh>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模型可以发动作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案未定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔 debug</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器协议变更debug</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>师叔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物列表界面排版，配置</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物详情左侧右侧界面控制逻辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM超链接功能</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录拆分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力计算</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本结算星级评价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决：美术安排时间三方前确认需求，确认后才开三方。问题在三方中解决，确认三方后可以开工。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔商店</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落指引接口-副本、商店，通天塔</t>
+    <rPh sb="0" eb="1">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'yin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'kou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shang'dian</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>师叔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，zz</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>shi'shu</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI修改测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -3871,122 +3970,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4001,16 +4106,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="25">
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="3"/>
@@ -4022,15 +4127,44 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="157">
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4137,6 +4271,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color indexed="60"/>
       </font>
       <fill>
@@ -4154,6 +4308,693 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="60"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4589,17 +5430,6 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4921,366 +5751,6 @@
     </dxf>
     <dxf>
       <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -5313,7 +5783,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -5326,7 +5796,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -5339,7 +5809,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -5352,7 +5822,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -5619,7 +6089,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5629,23 +6099,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J107" sqref="J107:J108"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="47.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -5724,7 +6194,7 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5748,7 +6218,7 @@
         <v>201</v>
       </c>
       <c r="I4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5772,7 +6242,7 @@
         <v>203</v>
       </c>
       <c r="I5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5796,7 +6266,7 @@
         <v>210</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1">
@@ -5821,7 +6291,7 @@
         <v>187</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J7"/>
       <c r="K7" s="8"/>
@@ -5852,7 +6322,7 @@
         <v>213</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="7" customFormat="1">
@@ -5897,7 +6367,7 @@
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K10" t="s">
         <v>184</v>
@@ -5924,7 +6394,7 @@
         <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N11" t="s">
         <v>184</v>
@@ -5951,7 +6421,7 @@
         <v>214</v>
       </c>
       <c r="I12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K12" t="s">
         <v>184</v>
@@ -5978,7 +6448,7 @@
         <v>225</v>
       </c>
       <c r="I13" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L13" t="s">
         <v>184</v>
@@ -6005,7 +6475,7 @@
         <v>206</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -6053,7 +6523,7 @@
         <v>204</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -6083,7 +6553,7 @@
         <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L19" t="s">
         <v>309</v>
@@ -6110,7 +6580,7 @@
         <v>226</v>
       </c>
       <c r="I20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N20" t="s">
         <v>314</v>
@@ -6134,7 +6604,7 @@
         <v>216</v>
       </c>
       <c r="I21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -6155,7 +6625,7 @@
         <v>217</v>
       </c>
       <c r="I22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -6176,7 +6646,7 @@
         <v>207</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -6224,7 +6694,7 @@
         <v>227</v>
       </c>
       <c r="I26" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6254,7 +6724,7 @@
         <v>238</v>
       </c>
       <c r="I28" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N28" t="s">
         <v>184</v>
@@ -6275,7 +6745,7 @@
         <v>231</v>
       </c>
       <c r="I29" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N29" t="s">
         <v>184</v>
@@ -6299,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N30" t="s">
         <v>184</v>
@@ -6347,10 +6817,10 @@
         <v>240</v>
       </c>
       <c r="I32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N32" t="s">
         <v>309</v>
@@ -6377,7 +6847,7 @@
         <v>233</v>
       </c>
       <c r="I33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N33" t="s">
         <v>184</v>
@@ -6404,7 +6874,7 @@
         <v>237</v>
       </c>
       <c r="I34" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -6428,7 +6898,7 @@
         <v>236</v>
       </c>
       <c r="I35" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N35" t="s">
         <v>316</v>
@@ -6455,7 +6925,7 @@
         <v>235</v>
       </c>
       <c r="I36" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="N36" t="s">
         <v>184</v>
@@ -6482,7 +6952,7 @@
         <v>220</v>
       </c>
       <c r="I37" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -6569,7 +7039,7 @@
         <v>241</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N41" t="s">
         <v>317</v>
@@ -6596,7 +7066,7 @@
         <v>242</v>
       </c>
       <c r="I42" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="N42" t="s">
         <v>318</v>
@@ -6623,7 +7093,7 @@
         <v>243</v>
       </c>
       <c r="I43" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -6637,17 +7107,23 @@
       <c r="E44" t="s">
         <v>68</v>
       </c>
+      <c r="F44" t="s">
+        <v>194</v>
+      </c>
       <c r="G44" s="29">
         <v>3</v>
       </c>
       <c r="H44" t="s">
         <v>312</v>
       </c>
+      <c r="I44" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="33">
+    <row r="46" spans="1:14" ht="32">
       <c r="A46" s="4" t="s">
         <v>16</v>
       </c>
@@ -6669,6 +7145,9 @@
       <c r="H46" s="20" t="s">
         <v>244</v>
       </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="C47" t="s">
@@ -6689,6 +7168,9 @@
       <c r="H47" t="s">
         <v>77</v>
       </c>
+      <c r="I47" t="s">
+        <v>367</v>
+      </c>
       <c r="L47" t="s">
         <v>184</v>
       </c>
@@ -6709,6 +7191,9 @@
       <c r="H48" t="s">
         <v>245</v>
       </c>
+      <c r="I48" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="C49" t="s">
@@ -6726,6 +7211,9 @@
       <c r="H49" t="s">
         <v>246</v>
       </c>
+      <c r="I49" t="s">
+        <v>367</v>
+      </c>
       <c r="K49" t="s">
         <v>309</v>
       </c>
@@ -6746,6 +7234,12 @@
       <c r="H50" t="s">
         <v>248</v>
       </c>
+      <c r="I50" t="s">
+        <v>427</v>
+      </c>
+      <c r="J50" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="C51" t="s">
@@ -6763,6 +7257,9 @@
       <c r="H51" t="s">
         <v>248</v>
       </c>
+      <c r="I51" t="s">
+        <v>367</v>
+      </c>
       <c r="K51" t="s">
         <v>309</v>
       </c>
@@ -6783,6 +7280,9 @@
       <c r="H52" t="s">
         <v>249</v>
       </c>
+      <c r="I52" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="C53" t="s">
@@ -6803,6 +7303,9 @@
       <c r="H53" t="s">
         <v>250</v>
       </c>
+      <c r="I53" t="s">
+        <v>367</v>
+      </c>
       <c r="K53" t="s">
         <v>184</v>
       </c>
@@ -6826,6 +7329,9 @@
       <c r="H54" t="s">
         <v>251</v>
       </c>
+      <c r="I54" t="s">
+        <v>367</v>
+      </c>
       <c r="L54" t="s">
         <v>184</v>
       </c>
@@ -6849,6 +7355,9 @@
       <c r="H55" t="s">
         <v>252</v>
       </c>
+      <c r="I55" t="s">
+        <v>367</v>
+      </c>
       <c r="N55" t="s">
         <v>309</v>
       </c>
@@ -6871,6 +7380,9 @@
       </c>
       <c r="H56" t="s">
         <v>253</v>
+      </c>
+      <c r="I56" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -6879,7 +7391,7 @@
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s">
         <v>76</v>
@@ -6888,16 +7400,19 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>377</v>
+        <v>373</v>
+      </c>
+      <c r="I57" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="4"/>
       <c r="C58" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D58" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E58" t="s">
         <v>76</v>
@@ -6906,16 +7421,19 @@
         <v>1.5</v>
       </c>
       <c r="H58" t="s">
-        <v>378</v>
+        <v>374</v>
+      </c>
+      <c r="I58" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="4"/>
       <c r="C59" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D59" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E59" t="s">
         <v>76</v>
@@ -6924,7 +7442,10 @@
         <v>0.5</v>
       </c>
       <c r="H59" t="s">
-        <v>383</v>
+        <v>379</v>
+      </c>
+      <c r="I59" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -6933,7 +7454,7 @@
         <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E60" t="s">
         <v>82</v>
@@ -6942,7 +7463,10 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>385</v>
+        <v>381</v>
+      </c>
+      <c r="I60" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -6969,7 +7493,7 @@
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E64" t="s">
         <v>93</v>
@@ -6978,7 +7502,10 @@
         <v>194</v>
       </c>
       <c r="H64" t="s">
-        <v>387</v>
+        <v>383</v>
+      </c>
+      <c r="I64" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -6995,6 +7522,9 @@
       <c r="F65" t="s">
         <v>194</v>
       </c>
+      <c r="I65" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="5"/>
@@ -7002,7 +7532,7 @@
         <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E66" t="s">
         <v>92</v>
@@ -7014,7 +7544,10 @@
         <v>0.5</v>
       </c>
       <c r="H66" t="s">
-        <v>386</v>
+        <v>382</v>
+      </c>
+      <c r="I66" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -7034,6 +7567,9 @@
       <c r="E68" t="s">
         <v>303</v>
       </c>
+      <c r="I68" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="5"/>
@@ -7046,6 +7582,12 @@
       <c r="E69" t="s">
         <v>305</v>
       </c>
+      <c r="I69" t="s">
+        <v>427</v>
+      </c>
+      <c r="J69" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="5"/>
@@ -7058,6 +7600,12 @@
       <c r="E70" t="s">
         <v>305</v>
       </c>
+      <c r="I70" t="s">
+        <v>427</v>
+      </c>
+      <c r="J70" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="5"/>
@@ -7088,7 +7636,7 @@
         <v>97</v>
       </c>
       <c r="I72" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L72" t="s">
         <v>184</v>
@@ -7115,7 +7663,7 @@
         <v>256</v>
       </c>
       <c r="I73" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -7139,7 +7687,7 @@
         <v>106</v>
       </c>
       <c r="I74" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K74" t="s">
         <v>184</v>
@@ -7165,7 +7713,7 @@
         <v>262</v>
       </c>
       <c r="I75" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -7189,7 +7737,7 @@
         <v>264</v>
       </c>
       <c r="I76" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K76" t="s">
         <v>184</v>
@@ -7216,7 +7764,7 @@
         <v>105</v>
       </c>
       <c r="I77" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -7240,7 +7788,7 @@
         <v>254</v>
       </c>
       <c r="I78" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -7270,7 +7818,7 @@
         <v>258</v>
       </c>
       <c r="I80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N80" t="s">
         <v>319</v>
@@ -7297,7 +7845,7 @@
         <v>257</v>
       </c>
       <c r="I81" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -7321,7 +7869,7 @@
         <v>265</v>
       </c>
       <c r="I82" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -7345,10 +7893,10 @@
         <v>266</v>
       </c>
       <c r="I83" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J83" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -7380,7 +7928,7 @@
         <v>267</v>
       </c>
       <c r="I85" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N85" t="s">
         <v>309</v>
@@ -7407,7 +7955,7 @@
         <v>255</v>
       </c>
       <c r="I86" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -7428,7 +7976,7 @@
         <v>259</v>
       </c>
       <c r="I87" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -7452,7 +8000,7 @@
         <v>268</v>
       </c>
       <c r="I88" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -7482,7 +8030,7 @@
         <v>269</v>
       </c>
       <c r="I90" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K90" t="s">
         <v>184</v>
@@ -7509,7 +8057,7 @@
         <v>260</v>
       </c>
       <c r="I91" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N91" t="s">
         <v>184</v>
@@ -7544,7 +8092,7 @@
         <v>279</v>
       </c>
       <c r="I94" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L94" t="s">
         <v>310</v>
@@ -7565,7 +8113,7 @@
         <v>281</v>
       </c>
       <c r="I95" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -7586,7 +8134,7 @@
         <v>282</v>
       </c>
       <c r="I96" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -7610,7 +8158,7 @@
         <v>283</v>
       </c>
       <c r="I97" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N97" t="s">
         <v>320</v>
@@ -7637,7 +8185,7 @@
         <v>284</v>
       </c>
       <c r="I98" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="O98" t="s">
         <v>321</v>
@@ -7664,7 +8212,7 @@
         <v>285</v>
       </c>
       <c r="I99" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="O99" t="s">
         <v>321</v>
@@ -7697,7 +8245,7 @@
         <v>286</v>
       </c>
       <c r="I101" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L101" t="s">
         <v>184</v>
@@ -7724,7 +8272,7 @@
         <v>288</v>
       </c>
       <c r="I102" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N102" t="s">
         <v>322</v>
@@ -7751,7 +8299,7 @@
         <v>288</v>
       </c>
       <c r="I103" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N103" t="s">
         <v>323</v>
@@ -7778,7 +8326,7 @@
         <v>289</v>
       </c>
       <c r="I104" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -7802,7 +8350,7 @@
         <v>287</v>
       </c>
       <c r="I105" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -7832,7 +8380,7 @@
         <v>271</v>
       </c>
       <c r="I107" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -7853,7 +8401,7 @@
         <v>290</v>
       </c>
       <c r="I108" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -7877,16 +8425,16 @@
         <v>192</v>
       </c>
       <c r="I110" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J110" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:15" ht="33">
+    <row r="112" spans="1:15" ht="32">
       <c r="A112" s="4"/>
       <c r="B112" t="s">
         <v>144</v>
@@ -7940,7 +8488,7 @@
         <v>270</v>
       </c>
       <c r="I114" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7964,7 +8512,7 @@
         <v>292</v>
       </c>
       <c r="I115" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K115" t="s">
         <v>184</v>
@@ -7985,7 +8533,7 @@
         <v>194</v>
       </c>
       <c r="I116" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8005,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -8022,7 +8570,7 @@
         <v>190</v>
       </c>
       <c r="I118" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="N118" t="s">
         <v>325</v>
@@ -8048,7 +8596,7 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" ht="33">
+    <row r="121" spans="1:16" s="7" customFormat="1" ht="32">
       <c r="A121" s="3"/>
       <c r="B121" s="8" t="s">
         <v>21</v>
@@ -8062,7 +8610,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="8"/>
     </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" ht="33">
+    <row r="122" spans="1:16" s="7" customFormat="1">
       <c r="A122" s="2"/>
       <c r="B122" s="8" t="s">
         <v>22</v>
@@ -8967,183 +9515,183 @@
       <c r="A286" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I154:I1048576 I1:I2 I56:I119 J83 J110">
-    <cfRule type="containsText" dxfId="120" priority="44" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="81" priority="44" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="45" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="80" priority="45" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 C124:F125 E17 D11:E11 E86 E88 E90 A1:A6 D136:G137 A136:C138 H136:XFD138 J142:XFD144 A142:I145 A147:A1048576 B150:I153 A146:C146 A139:XFD141 F146:XFD146 A10:A13 A8 A9:E9 A7:E7 G9 G7 J9:XFD9 K7:XFD7 D80:E84 A132:F135 A131 E131:F131 A129:F130 E126:F128 C126:C128 A124:A128 G120:XFD135 C147:C148 B149:C149 E147:I149 A15:A119">
-    <cfRule type="cellIs" dxfId="118" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125 A120:F123">
-    <cfRule type="cellIs" dxfId="117" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E3 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="116" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="115" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="114" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="113" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="112" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="111" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="110" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="109" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" dxfId="108" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="cellIs" dxfId="107" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="31" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="106" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="30" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D48">
-    <cfRule type="cellIs" dxfId="105" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D52">
-    <cfRule type="cellIs" dxfId="104" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="103" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="102" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="101" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="100" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="99" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="98" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="97" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="96" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="cellIs" dxfId="95" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128">
-    <cfRule type="cellIs" dxfId="94" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G138 D146:E146">
-    <cfRule type="cellIs" dxfId="93" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D138:E138">
-    <cfRule type="cellIs" dxfId="92" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F138">
-    <cfRule type="cellIs" dxfId="91" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="90" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 E14:E15">
-    <cfRule type="cellIs" dxfId="89" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I13 I15:I55 I3:I8 J32">
-    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I10:I13 I15:I55 I3:I8 J32 J50">
+    <cfRule type="containsText" dxfId="49" priority="4" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="5" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="86" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9193,29 +9741,32 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P287"/>
+  <dimension ref="A1:P289"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -9276,13 +9827,13 @@
         <v>37</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G2" s="29">
         <v>0.5</v>
@@ -9297,7 +9848,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>38</v>
@@ -9315,7 +9866,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -9333,7 +9884,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -9351,19 +9902,19 @@
     <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G7">
         <v>0.5</v>
@@ -9375,7 +9926,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>38</v>
@@ -9393,19 +9944,19 @@
     <row r="10" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -9417,13 +9968,13 @@
         <v>37</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -9435,7 +9986,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -9450,10 +10001,10 @@
     <row r="13" spans="1:16">
       <c r="A13" s="3"/>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E13" t="s">
         <v>57</v>
@@ -9472,13 +10023,13 @@
     <row r="15" spans="1:16">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E15" t="s">
         <v>57</v>
@@ -9499,7 +10050,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E16" t="s">
         <v>57</v>
@@ -9538,13 +10089,13 @@
         <v>37</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E18" t="s">
         <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G18">
         <v>0.5</v>
@@ -9556,13 +10107,13 @@
         <v>37</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="44" t="s">
-        <v>192</v>
+      <c r="F19" t="s">
+        <v>191</v>
       </c>
       <c r="G19">
         <v>0.5</v>
@@ -9574,13 +10125,13 @@
         <v>37</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E20" t="s">
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -9595,13 +10146,13 @@
         <v>37</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E21" t="s">
         <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -9662,7 +10213,7 @@
         <v>69</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>38</v>
@@ -9680,7 +10231,7 @@
         <v>69</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>38</v>
@@ -9705,7 +10256,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E28" t="s">
         <v>57</v>
@@ -9723,7 +10274,7 @@
         <v>37</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E29" t="s">
         <v>43</v>
@@ -9738,7 +10289,7 @@
         <v>37</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E30" t="s">
         <v>60</v>
@@ -9760,7 +10311,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E32" t="s">
         <v>53</v>
@@ -9772,16 +10323,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:7">
       <c r="A33" s="3"/>
       <c r="C33" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E33" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F33" t="s">
         <v>194</v>
@@ -9790,16 +10341,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:7">
       <c r="A34" s="3"/>
       <c r="C34" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E34" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F34" t="s">
         <v>190</v>
@@ -9808,13 +10359,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:7">
       <c r="A35" s="3"/>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E35" t="s">
         <v>52</v>
@@ -9826,16 +10377,16 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:7">
       <c r="A36" s="3"/>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E36" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F36" t="s">
         <v>191</v>
@@ -9844,13 +10395,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:7">
       <c r="A37" s="3"/>
       <c r="C37" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E37" t="s">
         <v>48</v>
@@ -9862,28 +10413,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:7">
       <c r="A38" s="3"/>
       <c r="C38" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F38" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:7">
       <c r="A39" s="3"/>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E39" t="s">
         <v>43</v>
@@ -9895,34 +10446,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:7">
       <c r="A40" s="3"/>
       <c r="C40" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E40" t="s">
         <v>193</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>481</v>
       </c>
       <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="C41" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E41" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F41" t="s">
         <v>194</v>
@@ -9931,40 +10482,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:7">
       <c r="A42" s="3"/>
       <c r="C42" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="E42" t="s">
         <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
-      </c>
-      <c r="G42" s="29">
+        <v>188</v>
+      </c>
+      <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
-        <v>242</v>
-      </c>
-      <c r="I42" t="s">
-        <v>431</v>
-      </c>
-      <c r="N42" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3"/>
       <c r="C43" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>368</v>
+      <c r="D43" s="41" t="s">
+        <v>365</v>
       </c>
       <c r="E43" t="s">
         <v>68</v>
@@ -9976,398 +10518,464 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:7">
       <c r="A44" s="3"/>
       <c r="C44" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="41" t="s">
-        <v>369</v>
+      <c r="D44" s="17" t="s">
+        <v>366</v>
       </c>
       <c r="E44" t="s">
         <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="E45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" t="s">
-        <v>194</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="3"/>
-      <c r="C46" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="3"/>
-      <c r="D47" s="38"/>
-    </row>
-    <row r="48" spans="1:14" ht="17.25">
-      <c r="A48" s="4" t="s">
+      <c r="D46" s="38"/>
+    </row>
+    <row r="47" spans="1:7" ht="17">
+      <c r="A47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B47" t="s">
         <v>78</v>
       </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17">
+      <c r="A48" s="4"/>
       <c r="C48" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.25">
+        <v>477</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17">
       <c r="A49" s="4"/>
       <c r="C49" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="E49" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17">
+      <c r="A50" s="5"/>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="E50" s="40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="17.25">
-      <c r="A50" s="4"/>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.25">
+      <c r="F50" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+    </row>
+    <row r="51" spans="1:8" ht="17">
       <c r="A51" s="5"/>
       <c r="C51" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
     </row>
-    <row r="52" spans="1:8" ht="17.25">
+    <row r="52" spans="1:8" ht="17">
       <c r="A52" s="5"/>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
     </row>
-    <row r="53" spans="1:8" ht="17.25">
-      <c r="A53" s="5"/>
+    <row r="53" spans="1:8" ht="17">
       <c r="C53" t="s">
-        <v>380</v>
+        <v>37</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>456</v>
+        <v>326</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-    </row>
-    <row r="54" spans="1:8" ht="17.25">
+        <v>331</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G53" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17">
       <c r="C54" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>333</v>
+        <v>331</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="G54" s="40">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17">
       <c r="C55" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>333</v>
+        <v>331</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="G55" s="40">
         <v>2</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17">
       <c r="C56" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>328</v>
+        <v>443</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>333</v>
+        <v>331</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="G56" s="40">
         <v>2</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17">
       <c r="C57" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="G57" s="40">
         <v>2</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17.25">
-      <c r="C58" t="s">
-        <v>37</v>
-      </c>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17">
+      <c r="A58" s="5"/>
       <c r="D58" s="17" t="s">
-        <v>329</v>
+        <v>389</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="G58" s="40">
-        <v>2</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17.25">
-      <c r="C59" t="s">
-        <v>37</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F58" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+    </row>
+    <row r="59" spans="1:8" ht="17">
       <c r="D59" s="17" t="s">
-        <v>330</v>
+        <v>465</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="G59" s="40">
-        <v>2</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="17.25">
+        <v>466</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+    </row>
+    <row r="60" spans="1:8" ht="17">
       <c r="A60" s="5"/>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
       <c r="D60" s="17" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
     </row>
-    <row r="61" spans="1:8" ht="17.25">
+    <row r="61" spans="1:8" ht="17">
       <c r="C61" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="G61" s="40">
         <v>1</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="17.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17">
       <c r="A62" s="4"/>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="G62" s="40">
         <v>1</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17">
       <c r="A63" s="5"/>
       <c r="C63" t="s">
         <v>37</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="G63" s="40">
         <v>1</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17">
       <c r="A64" s="5"/>
       <c r="C64" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="G64" s="40">
         <v>1</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="17.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17">
       <c r="A65" s="5"/>
       <c r="C65" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="G65" s="40">
         <v>0.5</v>
       </c>
       <c r="H65" s="40" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="17.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17">
       <c r="A66" s="5"/>
       <c r="C66" t="s">
         <v>37</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E66" s="40" t="s">
         <v>81</v>
       </c>
+      <c r="F66" s="17" t="s">
+        <v>191</v>
+      </c>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
     </row>
-    <row r="67" spans="1:8" ht="17.25">
+    <row r="67" spans="1:8" ht="17">
       <c r="A67" s="5"/>
+      <c r="C67" t="s">
+        <v>277</v>
+      </c>
       <c r="D67" s="17" t="s">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="E67" s="40" t="s">
         <v>81</v>
       </c>
+      <c r="F67" t="s">
+        <v>192</v>
+      </c>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
     </row>
-    <row r="68" spans="1:8" ht="17.25">
-      <c r="A68" s="5"/>
+    <row r="68" spans="1:8" ht="17">
+      <c r="C68" t="s">
+        <v>461</v>
+      </c>
       <c r="D68" s="17" t="s">
-        <v>348</v>
+        <v>462</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="G68" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="17.25">
+        <v>463</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17">
       <c r="A69" s="5"/>
       <c r="D69" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>79</v>
+        <v>459</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
     </row>
-    <row r="70" spans="1:8" ht="17.25">
+    <row r="70" spans="1:8" ht="17">
       <c r="A70" s="5"/>
-      <c r="E70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-    </row>
-    <row r="71" spans="1:8" ht="17.25">
+      <c r="D70" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G70" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17">
       <c r="A71" s="5"/>
       <c r="B71" t="s">
         <v>85</v>
@@ -10376,13 +10984,13 @@
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
     </row>
-    <row r="72" spans="1:8" ht="17.25">
+    <row r="72" spans="1:8" ht="17">
       <c r="A72" s="5"/>
       <c r="E72" s="40"/>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
     </row>
-    <row r="73" spans="1:8" ht="17.25">
+    <row r="73" spans="1:8" ht="17">
       <c r="A73" s="5"/>
       <c r="B73" t="s">
         <v>94</v>
@@ -10391,10 +10999,13 @@
         <v>37</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E73" s="40" t="s">
         <v>93</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
@@ -10405,10 +11016,13 @@
         <v>37</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E74" t="s">
         <v>93</v>
+      </c>
+      <c r="F74" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -10417,10 +11031,13 @@
         <v>37</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E75" t="s">
         <v>92</v>
+      </c>
+      <c r="F75" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -10429,10 +11046,13 @@
         <v>37</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="E76" t="s">
         <v>92</v>
+      </c>
+      <c r="F76" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -10441,89 +11061,98 @@
         <v>37</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E77" t="s">
         <v>92</v>
       </c>
+      <c r="F77" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="5"/>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="E78" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="5"/>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="E79" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>98</v>
       </c>
-      <c r="C80" t="s">
-        <v>37</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="E80" s="17" t="s">
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F80" s="17" t="s">
+      <c r="F81" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G80">
+      <c r="G81">
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="C81" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="E81" t="s">
-        <v>99</v>
-      </c>
-      <c r="F81" t="s">
-        <v>190</v>
-      </c>
-      <c r="G81">
-        <v>0.2</v>
-      </c>
-    </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="4"/>
       <c r="C82" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="35" t="s">
-        <v>402</v>
+      <c r="D82" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="E82" t="s">
         <v>99</v>
       </c>
       <c r="F82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G82">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="5"/>
+      <c r="A83" s="4"/>
       <c r="C83" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>403</v>
+      <c r="D83" s="35" t="s">
+        <v>398</v>
       </c>
       <c r="E83" t="s">
         <v>99</v>
       </c>
       <c r="F83" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G83">
         <v>0.5</v>
@@ -10534,74 +11163,74 @@
       <c r="C84" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>433</v>
+      <c r="D84" s="17" t="s">
+        <v>399</v>
       </c>
       <c r="E84" t="s">
         <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G84">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="5"/>
       <c r="C85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>399</v>
+        <v>37</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E85" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" t="s">
+        <v>188</v>
+      </c>
+      <c r="G85">
+        <v>0.2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="5"/>
+      <c r="C86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="5"/>
-      <c r="B87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" t="s">
-        <v>37</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" t="s">
-        <v>189</v>
-      </c>
-      <c r="G87" s="29">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="5"/>
+      <c r="B88" t="s">
+        <v>107</v>
+      </c>
       <c r="C88" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>404</v>
+      <c r="D88" s="9" t="s">
+        <v>402</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>189</v>
+        <v>96</v>
+      </c>
+      <c r="F88" t="s">
+        <v>191</v>
       </c>
       <c r="G88" s="29">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -10609,17 +11238,17 @@
       <c r="C89" t="s">
         <v>37</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>123</v>
+      <c r="D89" s="17" t="s">
+        <v>400</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>99</v>
+        <v>403</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G89">
-        <v>0.5</v>
+        <v>189</v>
+      </c>
+      <c r="G89" s="29">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -10627,198 +11256,195 @@
       <c r="C90" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D90" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" s="21" t="s">
         <v>99</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G90" s="29">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>266</v>
+        <v>188</v>
+      </c>
+      <c r="G90">
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="5"/>
+      <c r="C91" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E91" t="s">
+        <v>99</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G91" s="29">
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="5"/>
-      <c r="D92" s="9"/>
-      <c r="G92" s="29"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="5"/>
-      <c r="B93" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" t="s">
-        <v>37</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="E93" t="s">
-        <v>96</v>
-      </c>
-      <c r="G93" s="29">
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>259</v>
-      </c>
+      <c r="D93" s="9"/>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="5"/>
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
       <c r="C94" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>191</v>
+      <c r="D94" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E94" t="s">
+        <v>96</v>
+      </c>
+      <c r="F94" t="s">
+        <v>189</v>
       </c>
       <c r="G94" s="29">
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="4"/>
+      <c r="A95" s="5"/>
       <c r="C95" t="s">
         <v>37</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="E95" t="s">
+        <v>404</v>
+      </c>
+      <c r="E95" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F95" t="s">
-        <v>194</v>
+      <c r="F95" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="G95" s="29">
         <v>1</v>
       </c>
+      <c r="H95" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="4"/>
-      <c r="D96" s="9"/>
-      <c r="G96" s="29"/>
+      <c r="C96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96" t="s">
+        <v>194</v>
+      </c>
+      <c r="G96" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="4"/>
-      <c r="B97" t="s">
-        <v>41</v>
-      </c>
       <c r="C97" t="s">
-        <v>380</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>411</v>
+        <v>37</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>479</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="F97" t="s">
-        <v>191</v>
+        <v>471</v>
       </c>
       <c r="G97" s="29">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="4"/>
-      <c r="C98" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D98" s="9"/>
+      <c r="G98" s="29"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="4"/>
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" t="s">
+        <v>376</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E99" t="s">
         <v>99</v>
       </c>
-      <c r="F98" t="s">
-        <v>188</v>
-      </c>
-      <c r="G98" s="29">
+      <c r="F99" t="s">
+        <v>194</v>
+      </c>
+      <c r="G99" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="4"/>
+      <c r="C100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E100" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" t="s">
+        <v>194</v>
+      </c>
+      <c r="G100" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="4" t="s">
+    <row r="102" spans="1:8">
+      <c r="A102" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
         <v>126</v>
       </c>
-      <c r="C100" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="C102" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" t="s">
         <v>128</v>
       </c>
-      <c r="E100" t="s">
-        <v>460</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E102" t="s">
+        <v>454</v>
+      </c>
+      <c r="F102" t="s">
         <v>189</v>
       </c>
-      <c r="G100" s="29"/>
-      <c r="H100" t="s">
+      <c r="G102" s="29"/>
+      <c r="H102" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="4"/>
-      <c r="C101" t="s">
-        <v>37</v>
-      </c>
-      <c r="D101" t="s">
-        <v>131</v>
-      </c>
-      <c r="E101" t="s">
-        <v>133</v>
-      </c>
-      <c r="F101" t="s">
-        <v>188</v>
-      </c>
-      <c r="G101" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H101" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="4"/>
-      <c r="C102" t="s">
-        <v>37</v>
-      </c>
-      <c r="D102" t="s">
-        <v>130</v>
-      </c>
-      <c r="E102" t="s">
-        <v>133</v>
-      </c>
-      <c r="F102" t="s">
-        <v>188</v>
-      </c>
-      <c r="G102" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H102" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -10826,17 +11452,20 @@
       <c r="C103" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="17" t="s">
-        <v>440</v>
+      <c r="D103" t="s">
+        <v>131</v>
       </c>
       <c r="E103" t="s">
         <v>133</v>
       </c>
       <c r="F103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G103" s="29">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H103" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -10844,17 +11473,20 @@
       <c r="C104" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="17" t="s">
-        <v>424</v>
+      <c r="D104" t="s">
+        <v>130</v>
       </c>
       <c r="E104" t="s">
-        <v>426</v>
+        <v>133</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G104" s="29">
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="H104" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -10863,13 +11495,13 @@
         <v>37</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="E105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F105" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G105" s="29">
         <v>1</v>
@@ -10881,16 +11513,16 @@
         <v>37</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E106" t="s">
-        <v>133</v>
+        <v>422</v>
       </c>
       <c r="F106" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G106" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -10899,10 +11531,10 @@
         <v>37</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F107" t="s">
         <v>194</v>
@@ -10914,72 +11546,81 @@
     <row r="108" spans="1:8">
       <c r="A108" s="4"/>
       <c r="C108" t="s">
-        <v>69</v>
-      </c>
-      <c r="D108" s="42" t="s">
-        <v>429</v>
+        <v>37</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>423</v>
       </c>
       <c r="E108" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="F108" t="s">
+        <v>191</v>
       </c>
       <c r="G108" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="4"/>
-      <c r="D109" s="43"/>
-      <c r="G109" s="29"/>
+      <c r="C109" t="s">
+        <v>37</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E109" t="s">
+        <v>133</v>
+      </c>
+      <c r="F109" t="s">
+        <v>194</v>
+      </c>
+      <c r="G109" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="4"/>
-      <c r="B110" t="s">
-        <v>135</v>
-      </c>
       <c r="C110" t="s">
-        <v>37</v>
-      </c>
-      <c r="D110" t="s">
-        <v>140</v>
+        <v>69</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>425</v>
       </c>
       <c r="E110" t="s">
         <v>137</v>
       </c>
-      <c r="F110" t="s">
-        <v>192</v>
-      </c>
       <c r="G110" s="29">
-        <v>5</v>
-      </c>
-      <c r="H110" t="s">
-        <v>287</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="4"/>
-      <c r="D111"/>
+      <c r="D111" s="43"/>
       <c r="G111" s="29"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="4"/>
       <c r="B112" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
         <v>37</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E112" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F112" t="s">
-        <v>189</v>
-      </c>
-      <c r="G112" s="29"/>
+        <v>192</v>
+      </c>
+      <c r="G112" s="29">
+        <v>5</v>
+      </c>
       <c r="H112" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -10990,20 +11631,23 @@
     <row r="114" spans="1:16">
       <c r="A114" s="4"/>
       <c r="B114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s">
-        <v>430</v>
+        <v>147</v>
       </c>
       <c r="E114" t="s">
         <v>132</v>
       </c>
+      <c r="F114" t="s">
+        <v>189</v>
+      </c>
       <c r="G114" s="29"/>
-      <c r="J114" t="s">
-        <v>461</v>
+      <c r="H114" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -11014,105 +11658,107 @@
     <row r="116" spans="1:16">
       <c r="A116" s="4"/>
       <c r="B116" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" t="s">
+        <v>426</v>
+      </c>
+      <c r="E116" t="s">
+        <v>132</v>
+      </c>
+      <c r="G116" s="29"/>
+      <c r="J116" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="4"/>
+      <c r="D117"/>
+      <c r="G117" s="29"/>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="4"/>
+      <c r="B118" t="s">
         <v>41</v>
       </c>
-      <c r="C116" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" t="s">
         <v>141</v>
-      </c>
-      <c r="E116" t="s">
-        <v>133</v>
-      </c>
-      <c r="F116" t="s">
-        <v>188</v>
-      </c>
-      <c r="G116" s="29"/>
-      <c r="H116" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
-      <c r="C117" t="s">
-        <v>37</v>
-      </c>
-      <c r="D117" t="s">
-        <v>151</v>
-      </c>
-      <c r="E117" t="s">
-        <v>132</v>
-      </c>
-      <c r="F117" t="s">
-        <v>192</v>
-      </c>
-      <c r="G117" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="D118" s="42" t="s">
-        <v>428</v>
       </c>
       <c r="E118" t="s">
         <v>133</v>
       </c>
-      <c r="G118" s="29">
+      <c r="F118" t="s">
+        <v>188</v>
+      </c>
+      <c r="G118" s="29"/>
+      <c r="H118" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="C119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" t="s">
+        <v>132</v>
+      </c>
+      <c r="F119" t="s">
+        <v>192</v>
+      </c>
+      <c r="G119" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="C120" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="E120" t="s">
+        <v>470</v>
+      </c>
+      <c r="F120" t="s">
+        <v>471</v>
+      </c>
+      <c r="G120" s="29">
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="7" customFormat="1">
-      <c r="A120" s="6" t="s">
+    <row r="122" spans="1:16" s="7" customFormat="1">
+      <c r="A122" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-    </row>
-    <row r="121" spans="1:16" s="7" customFormat="1">
-      <c r="A121" s="3"/>
-      <c r="B121" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="8"/>
-    </row>
-    <row r="122" spans="1:16" s="7" customFormat="1">
-      <c r="A122" s="2"/>
-      <c r="B122" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="9"/>
+      <c r="I122"/>
       <c r="J122" s="8"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
     </row>
     <row r="123" spans="1:16" s="7" customFormat="1">
       <c r="A123" s="3"/>
       <c r="B123" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -11125,8 +11771,8 @@
     </row>
     <row r="124" spans="1:16" s="7" customFormat="1">
       <c r="A124" s="2"/>
-      <c r="B124" s="10" t="s">
-        <v>24</v>
+      <c r="B124" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -11138,14 +11784,12 @@
       <c r="J124" s="8"/>
     </row>
     <row r="125" spans="1:16" s="7" customFormat="1">
-      <c r="A125" s="2"/>
+      <c r="A125" s="3"/>
       <c r="B125" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C125" s="2"/>
-      <c r="D125" s="38" t="s">
-        <v>434</v>
-      </c>
+      <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="8"/>
@@ -11155,10 +11799,11 @@
     </row>
     <row r="126" spans="1:16" s="7" customFormat="1">
       <c r="A126" s="2"/>
+      <c r="B126" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C126" s="2"/>
-      <c r="D126" s="17" t="s">
-        <v>419</v>
-      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="8"/>
@@ -11168,12 +11813,16 @@
     </row>
     <row r="127" spans="1:16" s="7" customFormat="1">
       <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+      <c r="B127" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C127" s="2"/>
-      <c r="D127" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="E127" s="2"/>
+      <c r="D127" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
@@ -11182,12 +11831,13 @@
     </row>
     <row r="128" spans="1:16" s="7" customFormat="1">
       <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="E128" s="2"/>
+      <c r="D128" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="F128" s="2"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
@@ -11198,8 +11848,12 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="2"/>
+      <c r="D129" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>472</v>
+      </c>
       <c r="F129" s="2"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
@@ -11208,45 +11862,45 @@
     </row>
     <row r="130" spans="1:16" s="7" customFormat="1">
       <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E130" s="2"/>
+      <c r="D130" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="F130" s="2"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
+      <c r="J130" s="8"/>
     </row>
     <row r="131" spans="1:16" s="7" customFormat="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="2" t="s">
-        <v>446</v>
-      </c>
+      <c r="D131" s="17"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
+      <c r="J131" s="8"/>
     </row>
     <row r="132" spans="1:16" s="7" customFormat="1">
       <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
     </row>
@@ -11254,112 +11908,95 @@
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
     </row>
     <row r="134" spans="1:16" s="7" customFormat="1">
       <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" s="2"/>
     </row>
     <row r="135" spans="1:16" s="7" customFormat="1">
       <c r="A135" s="2"/>
-      <c r="B135" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F135" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I135" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J135" s="13"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
     </row>
     <row r="136" spans="1:16" s="7" customFormat="1">
       <c r="A136" s="2"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E136" s="23"/>
-      <c r="F136" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G136" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="H136" s="25"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="13"/>
+      <c r="B136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
     </row>
     <row r="137" spans="1:16" s="7" customFormat="1">
       <c r="A137" s="2"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
+      <c r="B137" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="D137" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G137" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="H137" s="25"/>
+        <v>30</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="I137" s="11" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="J137" s="13"/>
       <c r="K137" s="2"/>
@@ -11372,20 +12009,18 @@
       <c r="A138" s="2"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
-      <c r="D138" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="11" t="s">
+      <c r="D138" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23" t="s">
         <v>159</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="H138" s="25"/>
-      <c r="I138" s="24" t="s">
-        <v>164</v>
-      </c>
+      <c r="I138" s="11"/>
       <c r="J138" s="13"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
@@ -11394,145 +12029,157 @@
       <c r="O138" s="2"/>
     </row>
     <row r="139" spans="1:16" s="7" customFormat="1">
-      <c r="B139" s="24"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="24" t="s">
+      <c r="A139" s="2"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G139" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H139" s="25"/>
+      <c r="I139" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J139" s="13"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:16" s="7" customFormat="1">
+      <c r="A140" s="2"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E140" s="24"/>
+      <c r="F140" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G140" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H140" s="25"/>
+      <c r="I140" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J140" s="13"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+    </row>
+    <row r="141" spans="1:16" s="7" customFormat="1">
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="33" t="s">
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="33" t="s">
         <v>173</v>
-      </c>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="13"/>
-    </row>
-    <row r="140" spans="1:16" s="7" customFormat="1">
-      <c r="B140" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11"/>
-      <c r="J140" s="13"/>
-    </row>
-    <row r="141" spans="1:16" s="7" customFormat="1">
-      <c r="B141" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="C141" s="24"/>
-      <c r="D141" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="E141" s="24"/>
-      <c r="F141" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G141" s="33" t="s">
-        <v>421</v>
       </c>
       <c r="H141" s="24"/>
       <c r="I141" s="24"/>
       <c r="J141" s="13"/>
     </row>
-    <row r="142" spans="1:16">
-      <c r="B142" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="C142" s="24"/>
-      <c r="D142" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="E142" s="24"/>
-      <c r="F142" s="11" t="s">
+    <row r="142" spans="1:16" s="7" customFormat="1">
+      <c r="B142" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="13"/>
+    </row>
+    <row r="143" spans="1:16" s="7" customFormat="1">
+      <c r="B143" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C143" s="24"/>
+      <c r="D143" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E143" s="24"/>
+      <c r="F143" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="G142" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="H142" s="24"/>
-      <c r="I142" s="24"/>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="A143" s="7"/>
-      <c r="B143" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" s="24"/>
-      <c r="D143" t="s">
-        <v>278</v>
-      </c>
-      <c r="E143" s="24"/>
-      <c r="F143" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="G143" s="33" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H143" s="24"/>
       <c r="I143" s="24"/>
-    </row>
-    <row r="144" spans="1:16" s="7" customFormat="1">
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11" t="s">
+      <c r="J143" s="13"/>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="B144" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C144" s="24"/>
+      <c r="D144" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G144" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="H144" s="24"/>
+      <c r="I144" s="24"/>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="7"/>
+      <c r="B145" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C145" s="24"/>
+      <c r="D145" t="s">
+        <v>278</v>
+      </c>
+      <c r="E145" s="24"/>
+      <c r="F145" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G145" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="H145" s="24"/>
+      <c r="I145" s="24"/>
+    </row>
+    <row r="146" spans="1:10" s="7" customFormat="1">
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="32" t="s">
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="H144" s="11"/>
-      <c r="I144" s="11" t="s">
+      <c r="H146" s="11"/>
+      <c r="I146" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="J144" s="13"/>
-    </row>
-    <row r="145" spans="1:10" s="7" customFormat="1">
-      <c r="B145" s="24"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E145" s="24"/>
-      <c r="F145" s="26">
-        <v>42333</v>
-      </c>
-      <c r="G145" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="H145" s="24"/>
-      <c r="I145" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="J145" s="13"/>
-    </row>
-    <row r="146" spans="1:10" s="7" customFormat="1">
-      <c r="B146" s="24"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E146" s="24"/>
-      <c r="F146" s="26">
-        <v>42326</v>
-      </c>
-      <c r="G146" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="H146" s="24"/>
-      <c r="I146" s="24" t="s">
-        <v>179</v>
       </c>
       <c r="J146" s="13"/>
     </row>
@@ -11540,62 +12187,78 @@
       <c r="B147" s="24"/>
       <c r="C147" s="24"/>
       <c r="D147" s="24" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E147" s="24"/>
-      <c r="F147" s="26">
-        <v>42326</v>
-      </c>
+      <c r="F147" s="26"/>
       <c r="G147" s="33" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H147" s="24"/>
       <c r="I147" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J147" s="13"/>
+    </row>
+    <row r="148" spans="1:10" s="7" customFormat="1">
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E148" s="24"/>
+      <c r="F148" s="26">
+        <v>42326</v>
+      </c>
+      <c r="G148" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H148" s="24"/>
+      <c r="I148" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="J147" s="13"/>
-    </row>
-    <row r="148" spans="1:10" s="7" customFormat="1">
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E148" s="11"/>
-      <c r="F148" s="27">
-        <v>42347</v>
-      </c>
-      <c r="G148" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="J148" s="13"/>
     </row>
-    <row r="149" spans="1:10">
-      <c r="A149" s="7"/>
+    <row r="149" spans="1:10" s="7" customFormat="1">
       <c r="B149" s="24"/>
       <c r="C149" s="24"/>
-      <c r="D149" s="24"/>
+      <c r="D149" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="E149" s="24"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="33"/>
+      <c r="F149" s="26">
+        <v>42326</v>
+      </c>
+      <c r="G149" s="33" t="s">
+        <v>178</v>
+      </c>
       <c r="H149" s="24"/>
-      <c r="I149" s="24"/>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="B150" s="24"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="26"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
+      <c r="I149" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J149" s="13"/>
+    </row>
+    <row r="150" spans="1:10" s="7" customFormat="1">
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E150" s="11"/>
+      <c r="F150" s="27">
+        <v>42354</v>
+      </c>
+      <c r="G150" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J150" s="13"/>
     </row>
     <row r="151" spans="1:10">
+      <c r="A151" s="7"/>
       <c r="B151" s="24"/>
       <c r="C151" s="24"/>
       <c r="D151" s="24"/>
@@ -11605,11 +12268,25 @@
       <c r="H151" s="24"/>
       <c r="I151" s="24"/>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="7"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="7"/>
+    <row r="152" spans="1:10">
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="24"/>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="24"/>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="7"/>
@@ -11980,663 +12657,216 @@
     <row r="287" spans="1:1">
       <c r="A287" s="7"/>
     </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="7"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="7"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="I152:I1048576 I19:I27 I119 I1:I3 I5:I10 I91:I99 I32:I41 I13:I15 I43:I89">
-    <cfRule type="containsText" dxfId="83" priority="71" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="72" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124:A129 B124:F124 G120:XFD135 A1 D95:D98 C125:C129 E125:F129 J144:XFD148 J136:XFD141 A136:A1048576 A3 A5:A10 A18:A27 A55:A89 A130:F130 A134:F135 A131:C133 E131:F133 D131:D132 A32:A41 A13:A16 A43:A53 E88 D87 D89:E89 A91:A119">
-    <cfRule type="cellIs" dxfId="81" priority="70" stopIfTrue="1" operator="equal">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="B127 A122:F125">
+    <cfRule type="cellIs" dxfId="44" priority="71" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B125 A120:F123">
-    <cfRule type="cellIs" dxfId="80" priority="69" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13 D47">
-    <cfRule type="cellIs" dxfId="79" priority="67" operator="equal">
+  <conditionalFormatting sqref="D13 D46">
+    <cfRule type="cellIs" dxfId="43" priority="69" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="78" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="70" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="77" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="66" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="76" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="65" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="75" priority="59" operator="equal">
+  <conditionalFormatting sqref="D43">
+    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A31">
-    <cfRule type="cellIs" dxfId="74" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="60" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I31">
-    <cfRule type="containsText" dxfId="73" priority="56" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="57" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="71" priority="54" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="55" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="69" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="68" priority="51" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="cellIs" dxfId="67" priority="49" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="36" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="66" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="51" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D136:G137 B136:C138 H136:I138 B149:I151 B148:C148 B139:I140 F148:I148 C141:C142 B143:C143 E141:E143 G141:I143 B144:I147">
-    <cfRule type="cellIs" dxfId="65" priority="47" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D94">
+    <cfRule type="cellIs" dxfId="34" priority="50" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G138 D148:E148">
-    <cfRule type="cellIs" dxfId="64" priority="46" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G140 D150:E150">
+    <cfRule type="cellIs" dxfId="33" priority="48" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D138:E138">
-    <cfRule type="cellIs" dxfId="63" priority="44" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D140:E140">
+    <cfRule type="cellIs" dxfId="32" priority="46" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F138">
-    <cfRule type="cellIs" dxfId="62" priority="45" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F140">
+    <cfRule type="cellIs" dxfId="31" priority="47" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D125">
-    <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
+  <conditionalFormatting sqref="D127">
+    <cfRule type="cellIs" dxfId="30" priority="45" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F141:F142">
-    <cfRule type="cellIs" dxfId="60" priority="40" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F143:F144">
+    <cfRule type="cellIs" dxfId="29" priority="42" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F143">
-    <cfRule type="cellIs" dxfId="59" priority="39" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F145">
+    <cfRule type="cellIs" dxfId="28" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="cellIs" dxfId="58" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="57" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="56" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D128">
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
+  <conditionalFormatting sqref="D130">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="cellIs" dxfId="54" priority="26" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" dxfId="53" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A91">
+    <cfRule type="cellIs" dxfId="23" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8">
-    <cfRule type="cellIs" dxfId="52" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="51" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="50" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="49" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="48" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="8" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="45" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="42" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="41" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="40" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D85">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I152:I1048576 I1:I119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I154:I1048576 I69:I122 I1:I67">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F152:F1048576 F1:F8 F10:F119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F154:F1048576 F1:F8 F69:F121 F10:F67">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B25 B152:B1048576 B119 B19:B23 B96:B99 B91:B94 B32:B41 B1:B15 B43:B89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B25 B154:B1048576 B121 B19:B23 B98:B101 B92:B95 B1:B15 B69:B90 B32:B67">
       <formula1>"自主任务,提交QA,封文档,评审,策划验收,提交配置,三方前,美术需求,debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C152:C1048576 C1:C8 C10:C90 C92:C119">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C154:C1048576 C1:C8 C93:C121 C69:C91 C10:C67">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90 B28:B31 B42 B16:B18 B100:B118">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91 B28:B31 B16:B18 B102:B120">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="65" operator="containsText" text="阻碍" id="{D4AFA38E-6AA6-1C4C-8122-8F49FE7327D0}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I103)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="66" operator="containsText" text="未完成" id="{1F627757-5E94-0549-8E59-CCF4A9A4E680}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I103)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I113:I114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="61" operator="containsText" text="阻碍" id="{1C3708C1-2B04-A34C-9B36-87C4589993DD}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I96)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="62" operator="containsText" text="未完成" id="{668E041D-44B3-1348-939C-211296B50FC7}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I96)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I103</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="93" operator="containsText" text="阻碍" id="{D4AFA38E-6AA6-1C4C-8122-8F49FE7327D0}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I107)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="94" operator="containsText" text="未完成" id="{1F627757-5E94-0549-8E59-CCF4A9A4E680}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I107)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I115:I116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="109" operator="containsText" text="阻碍" id="{D4AFA38E-6AA6-1C4C-8122-8F49FE7327D0}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I95)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="110" operator="containsText" text="未完成" id="{1F627757-5E94-0549-8E59-CCF4A9A4E680}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I95)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I110</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="119" operator="containsText" text="阻碍" id="{D4AFA38E-6AA6-1C4C-8122-8F49FE7327D0}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I95)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="120" operator="containsText" text="未完成" id="{1F627757-5E94-0549-8E59-CCF4A9A4E680}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I95)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I109</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="125" operator="containsText" text="阻碍" id="{D4AFA38E-6AA6-1C4C-8122-8F49FE7327D0}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I90)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="126" operator="containsText" text="未完成" id="{1F627757-5E94-0549-8E59-CCF4A9A4E680}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I90)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I111:I112 I101:I102</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="196" operator="containsText" text="阻碍" id="{D4AFA38E-6AA6-1C4C-8122-8F49FE7327D0}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I16)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="197" operator="containsText" text="未完成" id="{1F627757-5E94-0549-8E59-CCF4A9A4E680}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I16)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="208" operator="containsText" text="阻碍" id="{1C3708C1-2B04-A34C-9B36-87C4589993DD}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I95)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="209" operator="containsText" text="未完成" id="{668E041D-44B3-1348-939C-211296B50FC7}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I95)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I108</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" text="阻碍" id="{A60B266A-8859-384F-AFC7-FB961414BAD3}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I15)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="18" operator="containsText" text="未完成" id="{FABF8537-5D8B-0B4A-879C-9DC86DB290E5}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I15)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I42 I18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="222" operator="containsText" text="阻碍" id="{A60B266A-8859-384F-AFC7-FB961414BAD3}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I15)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="223" operator="containsText" text="未完成" id="{FABF8537-5D8B-0B4A-879C-9DC86DB290E5}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I15)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="226" operator="containsText" text="阻碍" id="{D4AFA38E-6AA6-1C4C-8122-8F49FE7327D0}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I81)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="227" operator="containsText" text="未完成" id="{1F627757-5E94-0549-8E59-CCF4A9A4E680}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I81)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I90</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="232" operator="containsText" text="阻碍" id="{D4AFA38E-6AA6-1C4C-8122-8F49FE7327D0}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I88)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="233" operator="containsText" text="未完成" id="{1F627757-5E94-0549-8E59-CCF4A9A4E680}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I88)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I100 I104:I107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="238" operator="containsText" text="阻碍" id="{1C3708C1-2B04-A34C-9B36-87C4589993DD}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I111)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="239" operator="containsText" text="未完成" id="{668E041D-44B3-1348-939C-211296B50FC7}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I111)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I117</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="274" operator="containsText" text="阻碍" id="{1C3708C1-2B04-A34C-9B36-87C4589993DD}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20151202'!I113)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="275" operator="containsText" text="未完成" id="{668E041D-44B3-1348-939C-211296B50FC7}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20151202'!I113)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I118</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[2]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C145:C147 C141:C143 C149:C151</xm:sqref>
+          <xm:sqref>C147:C149 C143:C145 C151:C153</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C139</xm:sqref>
+          <xm:sqref>C141</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -12651,16 +12881,16 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -13583,22 +13813,22 @@
       <c r="A214" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I47 I74:I1048576">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
-    <cfRule type="cellIs" dxfId="11" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13618,6 +13848,11 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13630,16 +13865,16 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -14562,22 +14797,22 @@
       <c r="A214" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I47 I74:I1048576">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14597,6 +14832,11 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14609,16 +14849,16 @@
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -15541,22 +15781,22 @@
       <c r="A214" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I1:I47 I74:I1048576">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53 A48:F51">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15575,7 +15815,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑7/里程碑7-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑7/里程碑7-周版本.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/项目管理/进度计划/Demo-里程碑7/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="34560" windowHeight="20000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="38780" yWindow="460" windowWidth="37160" windowHeight="21080" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20151202" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,8 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -225,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="964">
   <si>
     <t>类别</t>
   </si>
@@ -5973,31 +5972,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>第一、二章副本音效设计</t>
-    <rPh sb="0" eb="1">
-      <t>di</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>er</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>f'b</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yin'xiao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>she'ji</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>后期剧情需求/副本分布</t>
     <rPh sb="0" eb="1">
       <t>hou'qi</t>
@@ -6125,9 +6099,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>第一二章的怪物数值调试 （1/2) 包括星级模拟</t>
-  </si>
-  <si>
     <t>小星</t>
     <rPh sb="0" eb="1">
       <t>xiao'xing</t>
@@ -6211,9 +6182,6 @@
     <t>扫荡配置（测试配置，不设等级需求）</t>
   </si>
   <si>
-    <t>模拟器使用学习</t>
-  </si>
-  <si>
     <t>任务系统</t>
     <rPh sb="0" eb="1">
       <t>ren'wu</t>
@@ -6245,16 +6213,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>热更新功能</t>
-    <rPh sb="0" eb="1">
-      <t>re'geng'x</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gong'neng</t>
-    </rPh>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>商店修改，换UI</t>
     <rPh sb="0" eb="1">
       <t>shang'dian</t>
@@ -6377,13 +6335,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>UI-任务</t>
-    <rPh sb="3" eb="4">
-      <t>ren'wu</t>
-    </rPh>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>UI-道具Icon-消耗品（除宝箱）*10</t>
     <rPh sb="3" eb="4">
       <t>dao'ju</t>
@@ -6420,28 +6371,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>第一二章怪物大招，boss技能特效</t>
-    <rPh sb="0" eb="1">
-      <t>di'yi'er</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>guai'wu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>da'zhao</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ji'neng</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>te'xiao</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>第2章Boss</t>
     <rPh sb="0" eb="1">
       <t>di</t>
@@ -6459,16 +6388,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>任务三方？</t>
-    <rPh sb="0" eb="1">
-      <t>ren'wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>san'fang</t>
-    </rPh>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>开发流程中有关美术工作的流程变更</t>
     <rPh sb="0" eb="1">
       <t>kai'fa</t>
@@ -6557,10 +6476,589 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>第一、二章副本（技能逻辑）</t>
+    <t>ts</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会bug复查</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠掉落</t>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1897</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落配置</t>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫芳</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>屋子粗模完成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>有修改</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了屋子</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>给铁马</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>还会有bug</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>没画完</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>没画完</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>没模型</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效刚开始</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘窗粗模</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫芳</t>
+    <rPh sb="0" eb="1">
+      <t>sun'fan</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪大招动作-独角兽 嫦娥 道成寺钟 温迪戈 伊芙利特 火鸟</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆 铁马</t>
+    <rPh sb="0" eb="1">
+      <t>dou'dou</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器ui</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器列表+联调</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常情况处理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源更新界面</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小飞、师叔</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器列表状态</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionkey验证</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定昵称</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'chengdaichai'fen</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>fun+推送功能集成</t>
+    <rPh sb="0" eb="1">
+      <t>tui'song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'cheng</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb头像信息获取</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1954</t>
+  </si>
+  <si>
+    <t>MG-1955</t>
+  </si>
+  <si>
+    <t>MG-1956</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1957</t>
+  </si>
+  <si>
+    <t>MG-1958</t>
+  </si>
+  <si>
+    <t>MG-1959</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1960</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1961</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1962</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小珍</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画-九尾狐-三视图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画-神殿怪（蓝法D）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-任务（待排期）</t>
+    <rPh sb="3" eb="4">
+      <t>ren'wu</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落原画修改（D1搭建场景，回复moxtra问题）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局掉落3D模型修改-金币</t>
+    <rPh sb="0" eb="1">
+      <t>dui'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>diao'luo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mo'xing</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一二章怪物大招，小怪boss技能特效（除火刺壳）</t>
+    <rPh sb="0" eb="1">
+      <t>di'yi'er</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>te'xiao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑8第一周</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物界面重做（宠物列表、装备），宠物功能回归测试</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chong'zuo</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'fen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gon'neng</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁马</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI动画设计方向确认</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI背景图规划（量）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-大冒险评审确认</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪大招动作-女妖-暗</t>
+    <rPh sb="0" eb="1">
+      <t>da'zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong'zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao'chou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>an</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1893</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1968</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1845</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1969</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1、2章副本配置 - 副本入口，阵容选择配置</t>
+    <rPh sb="12" eb="13">
+      <t>fu'b</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ru'kou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhen'rong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xuan'ze</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1、2章副本配置 - 怪物弱点配置</t>
+    <rPh sb="12" eb="13">
+      <t>guai'wu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ruo'dian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>pei'zhi</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>没提交</t>
+    <rPh sb="0" eb="1">
+      <t>mei'ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>没提交</t>
+    <rPh sb="0" eb="1">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ti'jiao</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1971 MG-1972</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1970</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1973</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一二章的怪物数值调试 （1/2) 包括星级模拟</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三到第4章小怪设计</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1974</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1975</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1976</t>
+  </si>
+  <si>
+    <t>游戏各个系统定位整理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1977</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体测试问题对局部分方案</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1978</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1979</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1980</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟器使用学习</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1981</t>
+  </si>
+  <si>
+    <t>MG-1982 MG-1983</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>热更新功能（安卓）</t>
+    <rPh sb="0" eb="1">
+      <t>re'geng'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>an'zhuo</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1984</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1985</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务补充内容（待拆分）</t>
+    <rPh sb="7" eb="8">
+      <t>dai'chai'fen</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1986</t>
+  </si>
+  <si>
+    <t>MG-1987</t>
+  </si>
+  <si>
+    <t>安卓推送研究</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1921</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1，2章副本用例走读</t>
     <rPh sb="0" eb="1">
       <t>di</t>
     </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>f'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong'li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zou'du</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1988</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1989</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1990</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1991</t>
+  </si>
+  <si>
+    <t>MG-1992</t>
+  </si>
+  <si>
+    <t>MG-1993</t>
+  </si>
+  <si>
+    <t>MG-1994</t>
+  </si>
+  <si>
+    <t>通用技能逻辑测试</t>
+    <rPh sb="6" eb="7">
+      <t>ce's</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一、二章副本测试（大招，小boss技能逻辑）</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
     <rPh sb="1" eb="2">
       <t>yi</t>
     </rPh>
@@ -6573,71 +7071,193 @@
     <rPh sb="5" eb="6">
       <t>fu'b</t>
     </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一、二章副本测试（副本入口，阵容选择等）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一、二章副本测试（小bossAI，弱点，状态机）</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>er</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'b</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一、二章副本测试（小怪，小boss动作、特效）</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>er</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu'b</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1995</t>
+  </si>
+  <si>
+    <t>MG-1996</t>
+  </si>
+  <si>
+    <t>MG-1997</t>
+  </si>
+  <si>
+    <t>MG-1998</t>
+  </si>
+  <si>
+    <t>MG-1999</t>
+  </si>
+  <si>
+    <t>MG-2000</t>
+  </si>
+  <si>
+    <t>MG-2001</t>
+  </si>
+  <si>
+    <t>MG-2002</t>
+  </si>
+  <si>
+    <t>MG-2003</t>
+  </si>
+  <si>
+    <t>UI-登录流程-服务器界面</t>
+    <rPh sb="3" eb="4">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu'cheng</t>
+    </rPh>
     <rPh sb="8" eb="9">
-      <t>bu'f</t>
+      <t>f'w'q</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-登录流程-登录界面更新界面</t>
+    <rPh sb="3" eb="4">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng'lu</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>nei'rong</t>
-    </rPh>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会bug复查</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>ts</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷神</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物界面重做（宠物装备），宠物功能回归测试</t>
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>geng'x</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-登录流程-公告界面</t>
+    <rPh sb="3" eb="4">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong'gao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-登录流程-动画演示</t>
+    <rPh sb="3" eb="4">
+      <t>deng'lu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liu'cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dong'hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yan'shi</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1963</t>
+  </si>
+  <si>
+    <t>MG-1964</t>
+  </si>
+  <si>
+    <t>MG-1965</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2004</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2006</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2005</t>
+  </si>
+  <si>
+    <t>MG-2007</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2008</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-1938</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MG-2009</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题回复D2</t>
     <rPh sb="0" eb="1">
-      <t>chong'wu</t>
+      <t>wen'ti</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>chong'zuo</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bu'fen</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gon'neng</t>
-    </rPh>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠掉落</t>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>集体测试问题对局部分方案</t>
-  </si>
-  <si>
-    <t>MG-1897</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏各个系统定位整理</t>
-  </si>
-  <si>
-    <t>掉落配置</t>
-  </si>
-  <si>
-    <t>第三到第4章小怪设计</t>
+      <t>hui'fu</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6749,14 +7369,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6778,7 +7398,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6791,7 +7411,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -6843,7 +7463,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -6889,8 +7509,32 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7014,55 +7658,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="61">
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="3"/>
     <cellStyle name="常规_2-4周版本输出" xfId="4"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="161">
+  <dxfs count="108">
     <dxf>
       <font>
         <color indexed="60"/>
@@ -7132,530 +7797,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="60"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="29"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8709,26 +8850,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -8789,27 +8910,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="20151202"/>
-      <sheetName val="20151209"/>
-      <sheetName val="20121216"/>
-      <sheetName val="20121223"/>
-      <sheetName val="20121230"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9282,7 +9382,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8" t="s">
         <v>37</v>
@@ -12501,181 +12601,181 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="I154:I1048576 I1:I2 I56:I119 J83 J110">
-    <cfRule type="containsText" dxfId="158" priority="44" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="107" priority="44" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="45" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="106" priority="45" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 C124:F125 E17 D11:E11 E86 E88 E90 A1:A6 D136:G137 A136:C138 H136:XFD138 J142:XFD144 A142:I145 A147:A1048576 B150:I153 A146:C146 A139:XFD141 F146:XFD146 A10:A13 A8 A9:E9 A7:E7 G9 G7 J9:XFD9 K7:XFD7 D80:E84 A132:F135 A131 E131:F131 A129:F130 E126:F128 C126:C128 A124:A128 G120:XFD135 C147:C148 B149:C149 E147:I149 A15:A119">
-    <cfRule type="cellIs" dxfId="156" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125 A120:F123">
-    <cfRule type="cellIs" dxfId="155" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E3 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="154" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="153" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="152" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="151" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="150" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="149" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="148" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="147" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" dxfId="146" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="cellIs" dxfId="145" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="31" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="144" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="30" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D48">
-    <cfRule type="cellIs" dxfId="143" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D52">
-    <cfRule type="cellIs" dxfId="142" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="141" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="140" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="139" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="138" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="137" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="136" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="135" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="134" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="cellIs" dxfId="133" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128">
-    <cfRule type="cellIs" dxfId="132" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G138 D146:E146">
-    <cfRule type="cellIs" dxfId="131" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D138:E138">
-    <cfRule type="cellIs" dxfId="130" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F138">
-    <cfRule type="cellIs" dxfId="129" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="128" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 E14:E15">
-    <cfRule type="cellIs" dxfId="127" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13 I15:I55 I3:I8 J32 J50">
-    <cfRule type="containsText" dxfId="126" priority="4" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="75" priority="4" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="5" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="74" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="124" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="123" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="71" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16619,170 +16719,170 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B140 A135:F138">
-    <cfRule type="cellIs" dxfId="121" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 D47">
-    <cfRule type="cellIs" dxfId="120" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="119" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="118" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="117" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="116" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A32">
-    <cfRule type="cellIs" dxfId="115" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="114" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="113" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="112" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="111" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153 D163:E163">
-    <cfRule type="cellIs" dxfId="110" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153:E153">
-    <cfRule type="cellIs" dxfId="109" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153">
-    <cfRule type="cellIs" dxfId="108" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140">
-    <cfRule type="cellIs" dxfId="107" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156:F157">
-    <cfRule type="cellIs" dxfId="106" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="45" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="105" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="cellIs" dxfId="104" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="103" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="102" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143">
-    <cfRule type="cellIs" dxfId="101" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="cellIs" dxfId="100" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8">
-    <cfRule type="cellIs" dxfId="99" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="98" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="97" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="96" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="95" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="94" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="93" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="92" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="91" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:I1048576 J100 J64 J73 J79 J85 I1:I128 J131">
-    <cfRule type="containsText" dxfId="90" priority="4" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="5" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="cellIs" dxfId="88" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16861,9 +16961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -16871,7 +16971,7 @@
     <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" style="17" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="17"/>
-    <col min="4" max="4" width="47.6640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="55.5" style="17" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="17" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="17"/>
@@ -17480,7 +17580,7 @@
         <v>421</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -17552,7 +17652,7 @@
         <v>689</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -17580,6 +17680,9 @@
       <c r="H33" s="17" t="s">
         <v>691</v>
       </c>
+      <c r="I33" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C34" s="17" t="s">
@@ -17597,6 +17700,9 @@
       <c r="H34" s="17" t="s">
         <v>690</v>
       </c>
+      <c r="I34" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C35" s="17" t="s">
@@ -17617,6 +17723,9 @@
       <c r="H35" s="17" t="s">
         <v>341</v>
       </c>
+      <c r="I35" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="K35" s="17" t="s">
         <v>749</v>
       </c>
@@ -17640,6 +17749,9 @@
       <c r="H36" s="17" t="s">
         <v>342</v>
       </c>
+      <c r="I36" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="L36" s="17" t="s">
         <v>749</v>
       </c>
@@ -17663,6 +17775,9 @@
       <c r="H37" s="17" t="s">
         <v>343</v>
       </c>
+      <c r="I37" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C38" s="17" t="s">
@@ -17674,6 +17789,9 @@
       <c r="E38" s="17" t="s">
         <v>76</v>
       </c>
+      <c r="I38" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
@@ -17694,6 +17812,9 @@
       <c r="H39" s="17" t="s">
         <v>595</v>
       </c>
+      <c r="I39" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
@@ -17711,6 +17832,9 @@
       <c r="H40" s="17" t="s">
         <v>692</v>
       </c>
+      <c r="I40" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="L40" s="17" t="s">
         <v>755</v>
       </c>
@@ -17731,6 +17855,9 @@
       <c r="H41" s="17" t="s">
         <v>693</v>
       </c>
+      <c r="I41" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
@@ -17748,6 +17875,9 @@
       <c r="H42" s="17" t="s">
         <v>694</v>
       </c>
+      <c r="I42" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="K42" s="17" t="s">
         <v>748</v>
       </c>
@@ -17771,6 +17901,9 @@
       <c r="H43" s="17" t="s">
         <v>581</v>
       </c>
+      <c r="I43" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="L43" s="17" t="s">
         <v>748</v>
       </c>
@@ -17794,6 +17927,9 @@
       <c r="H44" s="17" t="s">
         <v>582</v>
       </c>
+      <c r="I44" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="K44" s="17" t="s">
         <v>748</v>
       </c>
@@ -17816,6 +17952,9 @@
       </c>
       <c r="H45" s="17" t="s">
         <v>583</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -17837,6 +17976,9 @@
       </c>
       <c r="H46" s="17" t="s">
         <v>584</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -17919,6 +18061,9 @@
       <c r="E51" s="17" t="s">
         <v>332</v>
       </c>
+      <c r="I51" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
@@ -17939,6 +18084,9 @@
       </c>
       <c r="H52" s="17" t="s">
         <v>747</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -17964,6 +18112,9 @@
       <c r="H54" s="17" t="s">
         <v>510</v>
       </c>
+      <c r="I54" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
@@ -17979,6 +18130,9 @@
       <c r="F55" s="17" t="s">
         <v>194</v>
       </c>
+      <c r="I55" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
@@ -17997,6 +18151,12 @@
       <c r="H56" s="17" t="s">
         <v>514</v>
       </c>
+      <c r="I56" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
@@ -18018,6 +18178,9 @@
       <c r="H57" s="17" t="s">
         <v>746</v>
       </c>
+      <c r="I57" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="L57" s="17" t="s">
         <v>755</v>
       </c>
@@ -18039,6 +18202,9 @@
       <c r="H58" s="17" t="s">
         <v>698</v>
       </c>
+      <c r="I58" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="L58" s="17" t="s">
         <v>760</v>
       </c>
@@ -18060,6 +18226,9 @@
       <c r="H59" s="17" t="s">
         <v>697</v>
       </c>
+      <c r="I59" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="K59" s="17" t="s">
         <v>748</v>
       </c>
@@ -18084,6 +18253,9 @@
       <c r="H60" s="17" t="s">
         <v>757</v>
       </c>
+      <c r="I60" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="L60" s="17" t="s">
         <v>758</v>
       </c>
@@ -18104,6 +18276,9 @@
       </c>
       <c r="H61" s="17" t="s">
         <v>754</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>364</v>
       </c>
       <c r="N61" s="17" t="s">
         <v>748</v>
@@ -18387,7 +18562,7 @@
         <v>421</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -18530,6 +18705,9 @@
       <c r="H84" s="17" t="s">
         <v>717</v>
       </c>
+      <c r="I84" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
@@ -18548,6 +18726,12 @@
       <c r="H85" s="17" t="s">
         <v>718</v>
       </c>
+      <c r="I85" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
@@ -18566,6 +18750,12 @@
       <c r="H86" s="17" t="s">
         <v>721</v>
       </c>
+      <c r="I86" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>837</v>
+      </c>
       <c r="L86" s="17" t="s">
         <v>749</v>
       </c>
@@ -18589,6 +18779,12 @@
       </c>
       <c r="H87" s="17" t="s">
         <v>722</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J87" s="17" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -18636,6 +18832,9 @@
       <c r="H90" s="17" t="s">
         <v>723</v>
       </c>
+      <c r="I90" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="K90" s="17" t="s">
         <v>751</v>
       </c>
@@ -18656,6 +18855,12 @@
       </c>
       <c r="G91" s="43">
         <v>3</v>
+      </c>
+      <c r="I91" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J91" s="17" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -18685,6 +18890,12 @@
       <c r="H93" s="17" t="s">
         <v>725</v>
       </c>
+      <c r="I93" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J93" s="17" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
@@ -18705,6 +18916,9 @@
       </c>
       <c r="H94" s="17" t="s">
         <v>726</v>
+      </c>
+      <c r="I94" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -18727,6 +18941,12 @@
       <c r="H95" s="17" t="s">
         <v>727</v>
       </c>
+      <c r="I95" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
@@ -18743,10 +18963,13 @@
         <v>194</v>
       </c>
       <c r="G96" s="43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" s="17" t="s">
         <v>730</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -18771,6 +18994,12 @@
         <v>189</v>
       </c>
       <c r="G98" s="43"/>
+      <c r="I98" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
@@ -18790,6 +19019,9 @@
       <c r="H99" s="17" t="s">
         <v>731</v>
       </c>
+      <c r="I99" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
@@ -18806,6 +19038,9 @@
         <v>189</v>
       </c>
       <c r="G100" s="43"/>
+      <c r="I100" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
@@ -18829,6 +19064,9 @@
         <v>189</v>
       </c>
       <c r="G102" s="43"/>
+      <c r="I102" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
@@ -18845,6 +19083,9 @@
         <v>189</v>
       </c>
       <c r="G103" s="43"/>
+      <c r="I103" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
@@ -18858,6 +19099,12 @@
         <v>194</v>
       </c>
       <c r="G104" s="43"/>
+      <c r="I104" t="s">
+        <v>421</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
@@ -18882,6 +19129,12 @@
       </c>
       <c r="G106" s="43"/>
       <c r="H106" s="44"/>
+      <c r="I106" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J106" s="17" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
@@ -18900,6 +19153,9 @@
       <c r="G107" s="43"/>
       <c r="H107" s="44" t="s">
         <v>732</v>
+      </c>
+      <c r="I107" s="17" t="s">
+        <v>364</v>
       </c>
       <c r="K107" s="17" t="s">
         <v>752</v>
@@ -18933,6 +19189,9 @@
       <c r="H109" s="17" t="s">
         <v>735</v>
       </c>
+      <c r="I109" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="K109" s="17" t="s">
         <v>753</v>
       </c>
@@ -18959,6 +19218,9 @@
       <c r="H110" s="17" t="s">
         <v>737</v>
       </c>
+      <c r="I110" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="K110" s="17" t="s">
         <v>758</v>
       </c>
@@ -18978,6 +19240,9 @@
       </c>
       <c r="G111" s="43">
         <v>1</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -18990,6 +19255,9 @@
       <c r="E112" s="17" t="s">
         <v>623</v>
       </c>
+      <c r="I112" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
@@ -19007,6 +19275,9 @@
       </c>
       <c r="H113" s="17" t="s">
         <v>741</v>
+      </c>
+      <c r="I113" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -19025,6 +19296,9 @@
       </c>
       <c r="H114" s="17" t="s">
         <v>745</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -19996,120 +20270,128 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="E6 A125 C125:F125 B126 E12:E17 A1:A20 A27:A30 A33:A64 A67:A83 A115:A116">
-    <cfRule type="cellIs" dxfId="85" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A124 B121 C121:F124 G117:H130 A131:A1048576 A127:F130 A126 C126:F126 J117:XFD143">
-    <cfRule type="cellIs" dxfId="84" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 A117:F120">
-    <cfRule type="cellIs" dxfId="83" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D7:D9">
-    <cfRule type="cellIs" dxfId="82" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="56" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="81" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="80" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="79" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="48" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17">
-    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="77" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134 D144:E144">
-    <cfRule type="cellIs" dxfId="76" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:E134">
-    <cfRule type="cellIs" dxfId="75" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="74" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F138">
-    <cfRule type="cellIs" dxfId="73" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F139">
-    <cfRule type="cellIs" dxfId="72" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J15">
-    <cfRule type="cellIs" dxfId="71" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1 I115:I1048576 I32:I83 J75">
-    <cfRule type="containsText" dxfId="70" priority="10" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I1 I115:I1048576 I32:I83 J75 J56">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A114 A84:A89">
-    <cfRule type="cellIs" dxfId="68" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A107">
-    <cfRule type="cellIs" dxfId="67" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:I114">
-    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I84)))</formula>
+  <conditionalFormatting sqref="I85:I114 J98 J91 J85:J87 J93 J95 J106">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I84)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H144">
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",H132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",H132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31 J28">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -20151,18 +20433,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P270"/>
+  <dimension ref="A1:P283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" customWidth="1"/>
   </cols>
@@ -20225,166 +20507,201 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>794</v>
-      </c>
-      <c r="E2" t="s">
-        <v>795</v>
+        <v>37</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>787</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>785</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>893</v>
+      </c>
+      <c r="K2" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>789</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>787</v>
-      </c>
-      <c r="F3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D3" s="51"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="50"/>
-    </row>
-    <row r="5" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="G5" s="17">
-        <v>2</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="I5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>784</v>
+      </c>
+      <c r="E6" t="s">
+        <v>783</v>
+      </c>
+      <c r="F6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
-        <v>785</v>
-      </c>
-      <c r="E7" t="s">
-        <v>784</v>
+      <c r="D7" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="49" t="s">
+      <c r="H7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>776</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+      <c r="E9" t="s">
+        <v>783</v>
+      </c>
+      <c r="F9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>907</v>
+      </c>
+      <c r="K9" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="D10" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="E10" t="s">
-        <v>784</v>
+        <v>783</v>
+      </c>
+      <c r="F10" t="s">
+        <v>194</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="C11" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" t="s">
-        <v>783</v>
-      </c>
-      <c r="E11" t="s">
-        <v>784</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
+      <c r="B12" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="17">
+        <v>2</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="17" t="s">
-        <v>353</v>
-      </c>
       <c r="C13" s="17" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>642</v>
+        <v>774</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G13" s="17">
         <v>2</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I13"/>
       <c r="J13" s="2"/>
@@ -20394,8 +20711,8 @@
       <c r="C14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>775</v>
+      <c r="D14" s="17" t="s">
+        <v>897</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>57</v>
@@ -20404,10 +20721,10 @@
         <v>194</v>
       </c>
       <c r="G14" s="17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>680</v>
+        <v>896</v>
       </c>
       <c r="I14"/>
       <c r="J14" s="2"/>
@@ -20417,17 +20734,20 @@
       <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>788</v>
+      <c r="D15" s="17" t="s">
+        <v>898</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>787</v>
+        <v>57</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G15" s="17">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>902</v>
       </c>
       <c r="I15"/>
       <c r="J15" s="2"/>
@@ -20435,89 +20755,104 @@
     <row r="16" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="C16" s="17" t="s">
-        <v>613</v>
+        <v>37</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G16" s="17">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>903</v>
       </c>
       <c r="I16"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>647</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="17">
+        <v>3</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" t="s">
+      <c r="C18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="17">
+        <v>3</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="C19" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>788</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="D20" s="38" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>774</v>
-      </c>
-      <c r="E18" t="s">
-        <v>837</v>
-      </c>
-      <c r="F18" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>838</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="C20" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>675</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
       <c r="C21" t="s">
         <v>37</v>
       </c>
@@ -20525,220 +20860,282 @@
         <v>773</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>194</v>
+        <v>828</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
       </c>
       <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s">
-        <v>840</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="38" t="s">
+        <v>911</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="C23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>772</v>
+      </c>
+      <c r="E24" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>909</v>
+      </c>
+      <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>194</v>
       </c>
-      <c r="G22">
+      <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>786</v>
-      </c>
-      <c r="E23" t="s">
-        <v>787</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="H25" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>904</v>
+      </c>
+      <c r="E26" t="s">
+        <v>785</v>
+      </c>
+      <c r="F26" t="s">
         <v>194</v>
       </c>
-      <c r="G23">
+      <c r="G26">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="C24" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="C25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="17">
-        <v>2</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="C26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" s="17">
-        <v>2</v>
-      </c>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="C27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="53" t="s">
-        <v>792</v>
+      <c r="D27" s="17" t="s">
+        <v>905</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>649</v>
+        <v>193</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G27" s="17">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>689</v>
       </c>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="C28" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="53" t="s">
-        <v>793</v>
+      <c r="D28" s="17" t="s">
+        <v>648</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>649</v>
       </c>
       <c r="F28" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="17">
+        <v>2</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="17">
+        <v>2</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="C30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>790</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="C31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G31" s="17">
         <v>1</v>
       </c>
-      <c r="I28"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="H31" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="C33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>589</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>591</v>
+      </c>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>578</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17">
-        <v>2</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17">
-        <v>1</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="C34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>579</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>81</v>
       </c>
+      <c r="F34" s="17" t="s">
+        <v>191</v>
+      </c>
       <c r="G34" s="17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="C35" s="17" t="s">
         <v>37</v>
@@ -20749,6 +21146,9 @@
       <c r="E35" s="17" t="s">
         <v>81</v>
       </c>
+      <c r="F35" s="17" t="s">
+        <v>194</v>
+      </c>
       <c r="G35" s="17">
         <v>1.5</v>
       </c>
@@ -20757,688 +21157,925 @@
       </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C36" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="E36" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="F36"/>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36" s="46" t="s">
-        <v>591</v>
-      </c>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="C37" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="F37"/>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>592</v>
+      <c r="D37" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>587</v>
       </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="C38" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38" s="17">
+        <v>69</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>590</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>823</v>
+      <c r="H38" s="46" t="s">
+        <v>592</v>
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="C39" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>76</v>
       </c>
+      <c r="F39" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="G39" s="17">
         <v>1</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C40" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>76</v>
       </c>
+      <c r="F40" s="17" t="s">
+        <v>191</v>
+      </c>
       <c r="G40" s="17">
         <v>2.5</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>76</v>
       </c>
+      <c r="F41" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="G41" s="17">
         <v>1</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C42" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>76</v>
       </c>
+      <c r="F42" s="17" t="s">
+        <v>194</v>
+      </c>
       <c r="G42" s="17">
         <v>1</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="48"/>
       <c r="C43" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>797</v>
-      </c>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
       <c r="D44" s="17" t="s">
-        <v>599</v>
+        <v>793</v>
       </c>
       <c r="E44" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="48"/>
+      <c r="C45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="I44"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" t="s">
-        <v>798</v>
-      </c>
-      <c r="E46" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="F45" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="I45"/>
+      <c r="K45" s="17" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="48"/>
+      <c r="C46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G46" s="17">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="48"/>
+      <c r="C47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="48"/>
+      <c r="C48" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>386</v>
+        <v>854</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>93</v>
+        <v>332</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G48" s="17"/>
+        <v>192</v>
+      </c>
+      <c r="G48" s="17">
+        <v>2</v>
+      </c>
       <c r="H48" s="17" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="C49" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>599</v>
+        <v>855</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>600</v>
+        <v>856</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>194</v>
       </c>
+      <c r="G49" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>870</v>
+      </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="C50" s="17" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>428</v>
+        <v>857</v>
       </c>
       <c r="E50" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="I50"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>918</v>
+      </c>
+      <c r="E52" t="s">
+        <v>797</v>
+      </c>
+      <c r="F52" t="s">
+        <v>194</v>
+      </c>
+      <c r="H52" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="17">
+        <v>1</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="K55" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G56" s="17">
+        <v>1</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="48"/>
+      <c r="C57" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G57" s="17">
+        <v>1</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="48"/>
+      <c r="C58" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="E58" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="F58" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
+      <c r="H58" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="I50"/>
-    </row>
-    <row r="51" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="C51" s="17" t="s">
+      <c r="I58"/>
+      <c r="K58" s="17" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="48"/>
+      <c r="C59" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="48"/>
+      <c r="C60" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="48"/>
+      <c r="C61" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="48"/>
+      <c r="C62" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D62" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B64" t="s">
         <v>98</v>
       </c>
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" t="s">
-        <v>772</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>787</v>
+      </c>
+      <c r="E64" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>789</v>
-      </c>
-      <c r="E54" t="s">
-        <v>608</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="F64" t="s">
         <v>190</v>
       </c>
-      <c r="G54">
+      <c r="G64">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" t="s">
-        <v>785</v>
-      </c>
-      <c r="E55" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>776</v>
-      </c>
-      <c r="E56" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" t="s">
-        <v>605</v>
-      </c>
-      <c r="E58" t="s">
-        <v>803</v>
-      </c>
-      <c r="F58" t="s">
-        <v>192</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="C59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" t="s">
-        <v>804</v>
-      </c>
-      <c r="E59" t="s">
-        <v>608</v>
-      </c>
-      <c r="F59" t="s">
-        <v>189</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="C60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" t="s">
-        <v>802</v>
-      </c>
-      <c r="E60" t="s">
-        <v>608</v>
-      </c>
-      <c r="F60" t="s">
-        <v>191</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" t="s">
-        <v>835</v>
-      </c>
-      <c r="E62" t="s">
-        <v>834</v>
-      </c>
-      <c r="F62" t="s">
-        <v>188</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="C63" t="s">
-        <v>613</v>
-      </c>
-      <c r="D63" t="s">
-        <v>830</v>
-      </c>
-      <c r="E63" t="s">
-        <v>608</v>
-      </c>
-      <c r="F63" t="s">
-        <v>194</v>
-      </c>
-      <c r="G63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="C64" t="s">
-        <v>613</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="E64" t="s">
-        <v>603</v>
-      </c>
-      <c r="F64" t="s">
-        <v>188</v>
-      </c>
-      <c r="G64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>928</v>
+      </c>
+      <c r="K64" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="C65" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>829</v>
+      <c r="D65" s="49" t="s">
+        <v>775</v>
       </c>
       <c r="E65" t="s">
-        <v>603</v>
+        <v>823</v>
       </c>
       <c r="F65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G65">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>832</v>
+        <v>69</v>
+      </c>
+      <c r="D66" t="s">
+        <v>784</v>
       </c>
       <c r="E66" t="s">
-        <v>833</v>
+        <v>608</v>
       </c>
       <c r="F66" t="s">
         <v>194</v>
       </c>
-      <c r="G66">
+      <c r="H66" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" t="s">
+        <v>605</v>
+      </c>
+      <c r="E68" t="s">
+        <v>799</v>
+      </c>
+      <c r="F68" t="s">
+        <v>192</v>
+      </c>
+      <c r="G68">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" t="s">
-        <v>806</v>
-      </c>
-      <c r="E68" t="s">
-        <v>603</v>
-      </c>
-      <c r="F68" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
       <c r="C69" t="s">
         <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E69" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="F69" t="s">
+        <v>188</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" t="s">
+        <v>798</v>
+      </c>
+      <c r="E70" t="s">
+        <v>608</v>
+      </c>
+      <c r="F70" t="s">
+        <v>190</v>
+      </c>
+      <c r="G70">
+        <v>0.5</v>
+      </c>
+      <c r="H70" t="s">
+        <v>933</v>
+      </c>
+      <c r="K70" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" t="s">
+        <v>886</v>
+      </c>
+      <c r="E72" t="s">
+        <v>826</v>
+      </c>
+      <c r="F72" t="s">
+        <v>189</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" t="s">
+        <v>935</v>
+      </c>
+      <c r="E73" t="s">
+        <v>608</v>
+      </c>
+      <c r="F73" t="s">
+        <v>192</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="C74" t="s">
+        <v>613</v>
+      </c>
+      <c r="D74" t="s">
+        <v>936</v>
+      </c>
+      <c r="E74" t="s">
+        <v>608</v>
+      </c>
+      <c r="F74" t="s">
+        <v>194</v>
+      </c>
+      <c r="G74">
+        <v>1.5</v>
+      </c>
+      <c r="H74" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="C75" t="s">
+        <v>613</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="E75" t="s">
+        <v>603</v>
+      </c>
+      <c r="F75" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="E76" t="s">
+        <v>603</v>
+      </c>
+      <c r="F76" t="s">
+        <v>191</v>
+      </c>
+      <c r="G76">
+        <v>1.5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="E77" t="s">
+        <v>825</v>
+      </c>
+      <c r="F77" t="s">
+        <v>194</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="E79" t="s">
+        <v>603</v>
+      </c>
+      <c r="F79" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79">
+        <v>0.5</v>
+      </c>
+      <c r="H79" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>738</v>
+      </c>
+      <c r="D80" t="s">
+        <v>801</v>
+      </c>
+      <c r="E80" t="s">
+        <v>608</v>
+      </c>
+      <c r="H80" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>613</v>
+      </c>
+      <c r="D81" t="s">
+        <v>926</v>
+      </c>
+      <c r="E81" t="s">
+        <v>927</v>
+      </c>
+      <c r="H81" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B83" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" s="17" t="s">
+      <c r="C83" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="E71" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="H71" s="17" t="s">
+      <c r="E83" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H83" s="17" t="s">
         <v>718</v>
-      </c>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="C72" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>719</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>807</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>721</v>
-      </c>
-      <c r="I72"/>
-    </row>
-    <row r="73" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="C73" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="47" t="s">
-        <v>624</v>
-      </c>
-      <c r="E73" s="47" t="s">
-        <v>807</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="I73"/>
-    </row>
-    <row r="74" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="C74" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="47" t="s">
-        <v>810</v>
-      </c>
-      <c r="E74" s="47" t="s">
-        <v>807</v>
-      </c>
-      <c r="I74"/>
-    </row>
-    <row r="75" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="C75" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G75" s="43">
-        <v>3</v>
-      </c>
-      <c r="I75"/>
-    </row>
-    <row r="76" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="D76" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="G76" s="43"/>
-      <c r="I76"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="D77" s="17" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="D78" s="54"/>
-    </row>
-    <row r="79" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G79" s="43"/>
-      <c r="I79"/>
-    </row>
-    <row r="80" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="G80" s="43"/>
-      <c r="I80"/>
-    </row>
-    <row r="81" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G81" s="43">
-        <v>5</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="I81"/>
-    </row>
-    <row r="82" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="C82" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>619</v>
-      </c>
-      <c r="G82" s="43">
-        <v>1</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>727</v>
-      </c>
-      <c r="I82"/>
-    </row>
-    <row r="83" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="C83" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="G83" s="43">
-        <v>2</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>730</v>
       </c>
       <c r="I83"/>
     </row>
     <row r="84" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="G84" s="43"/>
+      <c r="C84" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G84" s="17">
+        <v>2</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>721</v>
+      </c>
       <c r="I84"/>
     </row>
     <row r="85" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="17" t="s">
-        <v>148</v>
-      </c>
       <c r="C85" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G85" s="43"/>
+      <c r="D85" s="47" t="s">
+        <v>949</v>
+      </c>
+      <c r="E85" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G85" s="17">
+        <v>1</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>722</v>
+      </c>
       <c r="I85"/>
     </row>
     <row r="86" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -21446,15 +22083,20 @@
       <c r="C86" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>629</v>
+      <c r="D86" s="47" t="s">
+        <v>950</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="G86" s="43"/>
+        <v>803</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G86" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H86" s="17" t="s">
-        <v>731</v>
+        <v>953</v>
       </c>
       <c r="I86"/>
     </row>
@@ -21463,13 +22105,21 @@
       <c r="C87" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="G87" s="43"/>
+      <c r="D87" s="47" t="s">
+        <v>951</v>
+      </c>
+      <c r="E87" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G87" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>954</v>
+      </c>
       <c r="I87"/>
     </row>
     <row r="88" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -21477,802 +22127,1038 @@
       <c r="C88" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>816</v>
+      <c r="D88" s="47" t="s">
+        <v>952</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="G88" s="43"/>
+        <v>803</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G88" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>955</v>
+      </c>
       <c r="I88"/>
     </row>
     <row r="89" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="G89" s="43"/>
+      <c r="C89" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>890</v>
+      </c>
+      <c r="E89" s="47" t="s">
+        <v>887</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G89" s="17">
+        <v>1</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>956</v>
+      </c>
       <c r="I89"/>
     </row>
     <row r="90" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="17" t="s">
-        <v>630</v>
-      </c>
       <c r="C90" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="G90" s="43"/>
+        <v>69</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>879</v>
+      </c>
+      <c r="E90" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>194</v>
+      </c>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="C91" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="G91" s="43"/>
-      <c r="I91"/>
+      <c r="D91" s="53"/>
     </row>
     <row r="92" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
+      <c r="B92" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="C92" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>633</v>
+        <v>876</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="G92" s="43"/>
+        <v>137</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="G92" s="43">
+        <v>4</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>958</v>
+      </c>
       <c r="I92"/>
     </row>
     <row r="93" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="G93" s="43"/>
+      <c r="C93" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="G93" s="43">
+        <v>4</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>957</v>
+      </c>
       <c r="I93"/>
     </row>
     <row r="94" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>808</v>
-      </c>
       <c r="G94" s="43"/>
-      <c r="H94" s="44"/>
       <c r="I94"/>
     </row>
     <row r="95" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
+      <c r="B95" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="C95" s="17" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>809</v>
+        <v>625</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="G95" s="43"/>
-      <c r="H95" s="44"/>
+        <v>132</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G95" s="43">
+        <v>5</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>725</v>
+      </c>
       <c r="I95"/>
     </row>
     <row r="96" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="44"/>
+      <c r="C96" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G96" s="43">
+        <v>4</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>727</v>
+      </c>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="17" t="s">
-        <v>813</v>
-      </c>
       <c r="C97" s="17" t="s">
         <v>37</v>
       </c>
+      <c r="D97" s="17" t="s">
+        <v>880</v>
+      </c>
       <c r="E97" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="G97" s="43"/>
+        <v>843</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G97" s="43">
+        <v>2</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>730</v>
+      </c>
       <c r="I97"/>
-    </row>
-    <row r="98" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K97" s="17" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="G98" s="43"/>
       <c r="I98"/>
     </row>
-    <row r="99" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="17" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>817</v>
+        <v>420</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>623</v>
+        <v>132</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="G99" s="43"/>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
+    <row r="100" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
       <c r="C100" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="E100" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G100" s="43">
+        <v>5</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>962</v>
+      </c>
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="G101" s="43"/>
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="E102" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G102" s="43"/>
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="C103" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G103" s="43"/>
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="C104" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G104" s="43"/>
+      <c r="I104"/>
+    </row>
+    <row r="105" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="G105" s="43"/>
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G106" s="43">
+        <v>6</v>
+      </c>
+      <c r="H106" s="44" t="s">
+        <v>959</v>
+      </c>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="C107" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="G107" s="43"/>
+      <c r="H107" s="44"/>
+      <c r="I107"/>
+    </row>
+    <row r="108" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="44"/>
+      <c r="I108"/>
+    </row>
+    <row r="109" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="E109" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="F109" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G109" s="43"/>
+      <c r="H109" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="I109"/>
+      <c r="K109" s="17" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="C110" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G110" s="43"/>
+      <c r="H110" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="I110"/>
+      <c r="K110" s="17" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="G111" s="43"/>
+      <c r="I111"/>
+    </row>
+    <row r="112" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G112" s="43"/>
+      <c r="H112" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="I112"/>
+    </row>
+    <row r="113" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="C113" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D113" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E113" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="I100"/>
-    </row>
-    <row r="101" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="C101" s="17" t="s">
+      <c r="I113"/>
+    </row>
+    <row r="114" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="C114" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D114" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E114" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="I101"/>
-    </row>
-    <row r="102" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="I102"/>
-    </row>
-    <row r="104" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+      <c r="I114"/>
+    </row>
+    <row r="117" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-    </row>
-    <row r="105" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="8"/>
-    </row>
-    <row r="107" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="8"/>
-    </row>
-    <row r="108" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-    </row>
-    <row r="113" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-    </row>
-    <row r="114" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-    </row>
-    <row r="115" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-    </row>
-    <row r="116" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-    </row>
-    <row r="117" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I117" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J117" s="13"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="8"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
-    </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="23" t="s">
+      <c r="P117" s="2"/>
+    </row>
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="8"/>
+    </row>
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="8"/>
+    </row>
+    <row r="120" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="8"/>
+    </row>
+    <row r="121" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+    </row>
+    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+    </row>
+    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+    </row>
+    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+    </row>
+    <row r="129" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+    </row>
+    <row r="130" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H130" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J130" s="13"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+    </row>
+    <row r="131" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23" t="s">
+      <c r="E131" s="23"/>
+      <c r="F131" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="G131" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="H118" s="25"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-    </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11" t="s">
+      <c r="H131" s="25"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+    </row>
+    <row r="132" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11" t="s">
+      <c r="E132" s="11"/>
+      <c r="F132" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G119" s="32" t="s">
+      <c r="G132" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="H119" s="25"/>
-      <c r="I119" s="11" t="s">
+      <c r="H132" s="25"/>
+      <c r="I132" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="J119" s="13"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-    </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="24" t="s">
+      <c r="J132" s="13"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+    </row>
+    <row r="133" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="11" t="s">
+      <c r="E133" s="24"/>
+      <c r="F133" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G120" s="33" t="s">
+      <c r="G133" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H120" s="25"/>
-      <c r="I120" s="24" t="s">
+      <c r="H133" s="25"/>
+      <c r="I133" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="J120" s="13"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="H121" s="24"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="13"/>
-    </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="13"/>
-    </row>
-    <row r="123" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="C123" s="24"/>
-      <c r="D123" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G123" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="H123" s="24"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="13"/>
-    </row>
-    <row r="124" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="C124" s="24"/>
-      <c r="D124" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G124" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="13"/>
-    </row>
-    <row r="125" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="C125" s="24"/>
-      <c r="D125" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G125" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="H125" s="24"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="13"/>
-    </row>
-    <row r="126" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J126" s="13"/>
-    </row>
-    <row r="127" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="J127" s="13"/>
-    </row>
-    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="26">
-        <v>42326</v>
-      </c>
-      <c r="G128" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="J128" s="13"/>
-    </row>
-    <row r="129" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="26">
-        <v>42326</v>
-      </c>
-      <c r="G129" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="J129" s="13"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E130" s="11"/>
-      <c r="F130" s="27">
-        <v>42354</v>
-      </c>
-      <c r="G130" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="26" t="s">
-        <v>822</v>
-      </c>
-      <c r="G131" s="33" t="s">
-        <v>560</v>
-      </c>
-      <c r="H131" s="24"/>
-      <c r="I131" s="11"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24" t="s">
-        <v>761</v>
-      </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="33" t="s">
-        <v>763</v>
-      </c>
-      <c r="H132" s="24"/>
-      <c r="I132" s="11"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="24"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24" t="s">
-        <v>764</v>
-      </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="33" t="s">
-        <v>762</v>
-      </c>
-      <c r="H133" s="24"/>
-      <c r="I133" s="11"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J133" s="13"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="24"/>
       <c r="C134" s="24"/>
       <c r="D134" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="13"/>
+    </row>
+    <row r="135" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="13"/>
+    </row>
+    <row r="136" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" s="24"/>
+      <c r="D136" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G136" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="H136" s="24"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="13"/>
+    </row>
+    <row r="137" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" s="24"/>
+      <c r="D137" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G137" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="H137" s="24"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C138" s="24"/>
+      <c r="D138" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G138" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="24"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E140" s="24"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="H140" s="24"/>
+      <c r="I140" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J140" s="13"/>
+    </row>
+    <row r="141" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E141" s="24"/>
+      <c r="F141" s="26">
+        <v>42326</v>
+      </c>
+      <c r="G141" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H141" s="24"/>
+      <c r="I141" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J141" s="13"/>
+    </row>
+    <row r="142" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E142" s="24"/>
+      <c r="F142" s="26">
+        <v>42326</v>
+      </c>
+      <c r="G142" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H142" s="24"/>
+      <c r="I142" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J142" s="13"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E143" s="11"/>
+      <c r="F143" s="27">
+        <v>42354</v>
+      </c>
+      <c r="G143" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="7"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="G144" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="H144" s="24"/>
+      <c r="I144" s="11"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="7"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="E145" s="24"/>
+      <c r="F145" s="26" t="s">
+        <v>883</v>
+      </c>
+      <c r="G145" s="33" t="s">
+        <v>763</v>
+      </c>
+      <c r="H145" s="24"/>
+      <c r="I145" s="11"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="24"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24" t="s">
+        <v>764</v>
+      </c>
+      <c r="E146" s="24"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="33" t="s">
+        <v>762</v>
+      </c>
+      <c r="H146" s="24"/>
+      <c r="I146" s="11"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="33" t="s">
+      <c r="E147" s="24"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="33" t="s">
         <v>766</v>
       </c>
-      <c r="H134" s="24"/>
-      <c r="I134" s="11"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24" t="s">
+      <c r="H147" s="24"/>
+      <c r="I147" s="11"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24" t="s">
         <v>771</v>
       </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="33" t="s">
+      <c r="E148" s="24"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="33" t="s">
         <v>770</v>
       </c>
-      <c r="H135" s="24"/>
-      <c r="I135" s="11"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="24"/>
-      <c r="I136" s="11"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="24"/>
-      <c r="I137" s="11"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="11"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="7"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="H148" s="24"/>
+      <c r="I148" s="11"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="24"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="11"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="11"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="24"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="11"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -22605,193 +23491,80 @@
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
     </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="7"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="7"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="7"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="7"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="7"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="I139:I1048576 I40:I43 I1:I2 I30:I33 I45:I48 I77:I78 I103 I52:I70">
-    <cfRule type="containsText" dxfId="60" priority="75" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="76" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A108:A111 B108 C108:F111 G104:XFD117 A112:F117 A118:A1048576 J118:XFD129 I131:I138 A1:A2 A77:A78 A103 A52:A70 A30:A48 A26:A28">
-    <cfRule type="cellIs" dxfId="58" priority="74" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E17:E18 A17:A18">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B109 A104:F107">
-    <cfRule type="cellIs" dxfId="57" priority="73" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G120 D130:E130">
-    <cfRule type="cellIs" dxfId="56" priority="72" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D120:E120">
-    <cfRule type="cellIs" dxfId="55" priority="70" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="54" priority="71" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123:F124">
-    <cfRule type="cellIs" dxfId="53" priority="69" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F125">
-    <cfRule type="cellIs" dxfId="52" priority="68" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56 D54">
-    <cfRule type="cellIs" dxfId="51" priority="67" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="47" priority="42" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" dxfId="46" priority="39" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:A76">
-    <cfRule type="cellIs" dxfId="45" priority="35" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71:I76">
-    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="42" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:A96">
-    <cfRule type="cellIs" dxfId="41" priority="30" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I118:I130">
-    <cfRule type="containsText" dxfId="40" priority="26" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I4">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A4">
-    <cfRule type="cellIs" dxfId="24" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I19 I21:I23 I6:I8 I10:I12">
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="阻碍">
-      <formula>NOT(ISERROR(SEARCH("阻碍",I6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="9" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",I6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A19 A21:A23 A25 A6:A8 A10:A12">
-    <cfRule type="cellIs" dxfId="20" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5 D8">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E16 A13:A16 E19">
-    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D16 D19">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J16">
-    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I139:I1048576 I1:I8 I10:I28 I30:I103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I152:I1048576 I1:I7 I9:I114">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F139:F1048576 F32:F101 F103 F1:F2 F5:F7 F10:F28 F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F152:F1048576 F9:F31 F4:F6 F1 F33:F99 F100:F114">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C139:C1048576 C32:C88 C90:C92 C94:C101 C103 C1:C8 C10:C28 C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C152:C1048576 C102:C104 C1:C7 C9:C31 C33:C100 C106:C114">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B8 B10:B28 B30:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B7 B35:B114 B117:B1048576 B9:B33">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="136" operator="containsText" text="阻碍" id="{1ECCE0D5-922B-BA45-AB77-98F0DBE94B24}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20121216'!I33)))</xm:f>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" text="阻碍" id="{6FFC97F1-90BF-6A41-A949-2CE718522E11}">
+            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20121216'!I17)))</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -22803,8 +23576,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="137" operator="containsText" text="未完成" id="{903FFE1B-0EC2-5940-AA9D-B81DF07B95C9}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20121216'!I33)))</xm:f>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" text="未完成" id="{DA84DDAD-AF36-8E40-9E5C-4136B4E88A1E}">
+            <xm:f>NOT(ISERROR(SEARCH("未完成",'20121216'!I17)))</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -22816,297 +23589,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I39 I99:I102</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="144" operator="containsText" text="阻碍" id="{DF0B45E5-5729-6645-852F-E7FB833C0F4C}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20121216'!I33)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="145" operator="containsText" text="未完成" id="{AE2B56A3-A04A-294B-8C58-867448D8AD0C}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20121216'!I33)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I44</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="148" operator="containsText" text="阻碍" id="{DF0B45E5-5729-6645-852F-E7FB833C0F4C}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20121216'!I29)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="149" operator="containsText" text="未完成" id="{AE2B56A3-A04A-294B-8C58-867448D8AD0C}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20121216'!I29)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I79 I34:I37 I97:I98</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="265" operator="containsText" text="阻碍" id="{FA4CCBCD-FCC7-D34C-83DE-DA539965AD06}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20121216'!I79)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="266" operator="containsText" text="未完成" id="{886DC312-3B8A-0749-860B-A18845A2D6AA}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20121216'!I79)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I82:I88</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="291" operator="containsText" text="阻碍" id="{FA4CCBCD-FCC7-D34C-83DE-DA539965AD06}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20121216'!I51)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="292" operator="containsText" text="未完成" id="{886DC312-3B8A-0749-860B-A18845A2D6AA}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20121216'!I51)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I50:I51</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="313" operator="containsText" text="阻碍" id="{DF0B45E5-5729-6645-852F-E7FB833C0F4C}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20121216'!I34)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="314" operator="containsText" text="未完成" id="{AE2B56A3-A04A-294B-8C58-867448D8AD0C}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20121216'!I34)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I80:I81 I38 I89:I96</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" text="阻碍" id="{BB739EED-1279-AC49-9416-62F44DC9C7B8}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'/Users/MichaelTong/Desktop/[里程碑7-周版本- MT.xlsx]20121216'!#REF!)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="11" operator="containsText" text="未完成" id="{E0F8449C-46B3-DE4E-BBDF-01CBA24AE0C8}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'/Users/MichaelTong/Desktop/[里程碑7-周版本- MT.xlsx]20121216'!#REF!)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I25:I28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" text="阻碍" id="{4F622D12-1758-1544-8B3A-C03B3578BDC9}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'/Users/MichaelTong/Desktop/[里程碑7-周版本- MT.xlsx]20121216'!#REF!)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="13" operator="containsText" text="未完成" id="{5A8E11B0-7A84-E54A-AEE6-E7DE306725A3}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'/Users/MichaelTong/Desktop/[里程碑7-周版本- MT.xlsx]20121216'!#REF!)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="16" operator="containsText" text="阻碍" id="{5AD5042E-D22C-8247-8267-F63178DE4D9F}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'/Users/MichaelTong/Desktop/[里程碑7-周版本- MT.xlsx]20121216'!#REF!)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="17" operator="containsText" text="未完成" id="{631D9FB7-FB29-E444-98B3-5ED2320E6FCC}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'/Users/MichaelTong/Desktop/[里程碑7-周版本- MT.xlsx]20121216'!#REF!)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I13:I16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="18" operator="containsText" text="阻碍" id="{2253C0AF-0BB4-3341-8DAF-CF36FCB69E9B}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'/Users/MichaelTong/Desktop/[里程碑7-周版本- MT.xlsx]20121216'!#REF!)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="19" operator="containsText" text="未完成" id="{7DA5934C-13A3-3541-B1C1-67F88038D6C8}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'/Users/MichaelTong/Desktop/[里程碑7-周版本- MT.xlsx]20121216'!#REF!)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I20</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="20" operator="containsText" text="阻碍" id="{7C0504FF-0E56-FC46-ABD3-A2055907F1CA}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'/Users/MichaelTong/Desktop/[里程碑7-周版本- MT.xlsx]20121216'!#REF!)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="21" operator="containsText" text="未完成" id="{A9A1E9CB-9657-0F4A-BA1F-604939BEEBB1}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'/Users/MichaelTong/Desktop/[里程碑7-周版本- MT.xlsx]20121216'!#REF!)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I5</xm:sqref>
+          <xm:sqref>I17:I18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -23116,13 +23599,13 @@
           <x14:formula1>
             <xm:f>[2]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C127:C129 C123:C125 C131:C138</xm:sqref>
+          <xm:sqref>C140:C142 C136:C138 C144:C151</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C121</xm:sqref>
+          <xm:sqref>C134</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23132,11 +23615,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P214"/>
+  <dimension ref="A1:P223"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -23202,6 +23685,15 @@
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -23255,8 +23747,8 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>799</v>
+      <c r="D17" s="52" t="s">
+        <v>795</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
@@ -23269,8 +23761,8 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="53" t="s">
-        <v>800</v>
+      <c r="D18" s="52" t="s">
+        <v>796</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
@@ -23305,387 +23797,404 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>937</v>
+      </c>
+      <c r="E35" t="s">
+        <v>608</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>938</v>
+      </c>
+      <c r="E36" t="s">
+        <v>608</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>939</v>
+      </c>
+      <c r="E37" t="s">
+        <v>608</v>
+      </c>
+      <c r="G37">
+        <v>1.5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-    </row>
-    <row r="48" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="C47" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="D48" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="D49" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="G51" s="43"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="C53" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C54" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="57" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-    </row>
-    <row r="59" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>27</v>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="B61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="B62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="13"/>
-    </row>
-    <row r="66" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="13"/>
-    </row>
-    <row r="68" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="13"/>
-    </row>
-    <row r="69" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+    </row>
+    <row r="70" spans="1:16" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -23695,8 +24204,14 @@
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -23706,8 +24221,14 @@
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -23717,39 +24238,116 @@
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="13"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="13"/>
+    </row>
+    <row r="75" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="13"/>
+    </row>
+    <row r="76" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="13"/>
+    </row>
+    <row r="77" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="13"/>
+    </row>
+    <row r="78" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="13"/>
+    </row>
+    <row r="79" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="13"/>
+    </row>
+    <row r="80" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="13"/>
+    </row>
+    <row r="81" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="13"/>
+    </row>
+    <row r="82" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="13"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
@@ -24099,9 +24697,36 @@
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
     </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="7"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="7"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="7"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I47 I74:I1048576">
+  <conditionalFormatting sqref="I1:I34 I83:I1048576 I38:I46 I50 I52 I55:I56">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
@@ -24109,24 +24734,24 @@
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A47 A74:A1048576 A52:A55 B52 C52:F55 G48:XFD73 A56:F73">
+  <conditionalFormatting sqref="A1:A34 A83:A1048576 A61:A64 B61 C61:F64 G57:XFD82 A65:F82 A38:A46 A50 A52 A55:A56">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53 A48:F51">
+  <conditionalFormatting sqref="B62 A57:F60">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I47 I74:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I83:I1048576 I1:I53 I55:I56">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F47 F74:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F83:F1048576 F1:F52 F54:F56">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C47 C74:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C83:C1048576 C1:C56">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
@@ -24134,7 +24759,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑7/里程碑7-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑7/里程碑7-周版本.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目管理\进度计划\Demo-里程碑7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="1935" windowWidth="25875" windowHeight="16605" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19500" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20151202" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +35,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +73,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +111,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +187,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="1094">
   <si>
     <t>类别</t>
   </si>
@@ -8595,19 +8590,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>UI-大冒险（待排期）</t>
-    <rPh sb="3" eb="4">
-      <t>da'mao'xian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>pai'qi</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>铁马</t>
     <rPh sb="0" eb="1">
       <t>tie'ma</t>
@@ -8625,28 +8607,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>UI-公会任务、其他公会界面调整</t>
-    <rPh sb="3" eb="4">
-      <t>gong'hui</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>rne'wu</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qi't</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>gong'hui</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jie'mian</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>tiao'zheng</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>村落-大树</t>
     <rPh sb="0" eb="1">
       <t>cun'luo</t>
@@ -8673,31 +8633,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>huo'ci'ke</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用技能特效-（估算本周完成量）</t>
-    <rPh sb="0" eb="1">
-      <t>tong'yong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'neng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>te'xiao</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>gu'suan</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ben'zhou</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>wan'cheng</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>liang</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8863,16 +8798,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>大冒险三方</t>
-    <rPh sb="0" eb="1">
-      <t>da'mao'xian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>san'fang</t>
-    </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>里程碑7完成有风险，延期一周的话冲刺完成（公会，宠物界面，登录，副本测试），若不延期的话冲刺完成（公会，宠物界面），需要大家评估</t>
     <rPh sb="0" eb="1">
       <t>li'cheng'be</t>
@@ -9135,14 +9060,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>雷神、ts</t>
-    <rPh sb="0" eb="1">
-      <t>lei'shen</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一、二章副本测试（小bossAI，弱点）</t>
+    <t>第一、二章副本测试（技能特效—除通用技能特效）</t>
     <rPh sb="0" eb="1">
       <t>di</t>
     </rPh>
@@ -9161,7 +9079,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>第一、二章副本测试（技能特效—除通用技能特效）</t>
+    <t>第一、二章副本测试（小怪，小boss动作、状态机）</t>
     <rPh sb="0" eb="1">
       <t>di</t>
     </rPh>
@@ -9180,7 +9098,271 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>第一、二章副本测试（小怪，小boss动作、状态机）</t>
+    <t>取消</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录流程</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅帅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序本周输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会任务                                                                    界面调整</t>
+    <rPh sb="3" eb="4">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rne'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong'hui</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie'mian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tiao'zheng</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会科技                                                                    界面调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会申请                                                                    界面调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会商店？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会祈福                                                                    界面调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-大冒险（待排期）配合策划</t>
+    <rPh sb="3" eb="4">
+      <t>da'mao'xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pai'qi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会创建                                                                    界面调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会相关                                                                    界面调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁马</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落-窗台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落-书 花盆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落-茶几 通天塔*3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻中斩 5 黄色修改</t>
+    <rPh sb="0" eb="1">
+      <t>tong'yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>te'xiao</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gu'suan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ben'zhouwan'chengliang</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻弱斩 5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻强砸 5</t>
+  </si>
+  <si>
+    <t>物攻中刺 超额</t>
+  </si>
+  <si>
+    <t>孙帆 铁马 罗阳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗阳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画-神殿怪（蓝法D）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画-通天塔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙帆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>差整理 发moxtra</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>稍微有些修改</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成 差倒出 待机稍微得改下</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个位置等程序上传铁马调完后 再开启测试</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术图完了 还没在客户端调整完ui</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑8计划：</t>
+    <rPh sb="0" eb="1">
+      <t>li'cheng'bei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hua</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>木木</t>
+    <rPh sb="0" eb="1">
+      <t>mu'mu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <rPh sb="0" eb="1">
+      <t>ce'hua</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'xu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <rPh sb="0" eb="1">
+      <t>mei'shu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论</t>
+    <rPh sb="0" eb="1">
+      <t>tao'lun</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局修改方案需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-公会成员列表       成员交互                                          界面调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一二章副本特效debug</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>云祥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>超额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一、二章副本测试（小bossAI，弱点-7只小boss）</t>
     <rPh sb="0" eb="1">
       <t>di</t>
     </rPh>
@@ -9199,27 +9381,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>取消</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录流程</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>帅帅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序本周输出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器列表debug</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>小飞</t>
+    <t>ts</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -9227,7 +9389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9407,6 +9569,11 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9440,7 +9607,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -9512,8 +9679,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9648,9 +9821,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="63">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="69">
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="3"/>
@@ -9684,37 +9857,44 @@
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="108">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9744,16 +9924,6 @@
         <patternFill>
           <fgColor indexed="10"/>
           <bgColor indexed="29"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10861,7 +11031,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -10874,7 +11044,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -10887,7 +11057,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -10900,7 +11070,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -11167,7 +11337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11182,18 +11352,18 @@
       <selection pane="bottomLeft" activeCell="D41" sqref="D41:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -12201,7 +12371,7 @@
     <row r="45" spans="1:14">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="33">
+    <row r="46" spans="1:14" ht="32">
       <c r="A46" s="4" t="s">
         <v>16</v>
       </c>
@@ -13512,7 +13682,7 @@
     <row r="111" spans="1:15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:15" ht="33">
+    <row r="112" spans="1:15" ht="32">
       <c r="A112" s="4"/>
       <c r="B112" t="s">
         <v>144</v>
@@ -13677,7 +13847,7 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" ht="33">
+    <row r="121" spans="1:16" s="7" customFormat="1" ht="32">
       <c r="A121" s="3"/>
       <c r="B121" s="8" t="s">
         <v>21</v>
@@ -13691,7 +13861,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="8"/>
     </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" ht="33">
+    <row r="122" spans="1:16" s="7" customFormat="1">
       <c r="A122" s="2"/>
       <c r="B122" s="8" t="s">
         <v>22</v>
@@ -14598,181 +14768,181 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="I154:I1048576 I1:I2 I56:I119 J83 J110">
-    <cfRule type="containsText" dxfId="108" priority="44" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="107" priority="44" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="45" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="106" priority="45" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 C124:F125 E17 D11:E11 E86 E88 E90 A1:A6 D136:G137 A136:C138 H136:XFD138 J142:XFD144 A142:I145 A147:A1048576 B150:I153 A146:C146 A139:XFD141 F146:XFD146 A10:A13 A8 A9:E9 A7:E7 G9 G7 J9:XFD9 K7:XFD7 D80:E84 A132:F135 A131 E131:F131 A129:F130 E126:F128 C126:C128 A124:A128 G120:XFD135 C147:C148 B149:C149 E147:I149 A15:A119">
-    <cfRule type="cellIs" dxfId="106" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125 A120:F123">
-    <cfRule type="cellIs" dxfId="105" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E3 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="104" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="103" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="102" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="101" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="100" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="99" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="98" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="97" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" dxfId="96" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="cellIs" dxfId="95" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="31" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="94" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="30" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D48">
-    <cfRule type="cellIs" dxfId="93" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D52">
-    <cfRule type="cellIs" dxfId="92" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="91" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="90" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="89" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="88" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="87" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="86" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="85" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="84" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="cellIs" dxfId="83" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128">
-    <cfRule type="cellIs" dxfId="82" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G138 D146:E146">
-    <cfRule type="cellIs" dxfId="81" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D138:E138">
-    <cfRule type="cellIs" dxfId="80" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F138">
-    <cfRule type="cellIs" dxfId="79" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="78" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 E14:E15">
-    <cfRule type="cellIs" dxfId="77" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13 I15:I55 I3:I8 J32 J50">
-    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="75" priority="4" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="74" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="74" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="71" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14822,6 +14992,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -14835,18 +15008,18 @@
       <selection pane="bottomLeft" activeCell="I151" sqref="I151:I163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="17"/>
-    <col min="4" max="4" width="50.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="17"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="17"/>
+    <col min="4" max="4" width="50.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -17672,7 +17845,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="33">
+    <row r="129" spans="1:16" ht="32">
       <c r="A129" s="4"/>
       <c r="B129" s="17" t="s">
         <v>144</v>
@@ -18716,170 +18889,170 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B140 A135:F138">
-    <cfRule type="cellIs" dxfId="71" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 D47">
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="68" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A32">
-    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="64" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="63" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="62" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="61" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153 D163:E163">
-    <cfRule type="cellIs" dxfId="60" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153:E153">
-    <cfRule type="cellIs" dxfId="59" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153">
-    <cfRule type="cellIs" dxfId="58" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140">
-    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156:F157">
-    <cfRule type="cellIs" dxfId="56" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="45" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="cellIs" dxfId="54" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="53" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="52" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143">
-    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="cellIs" dxfId="50" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8">
-    <cfRule type="cellIs" dxfId="49" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="48" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="47" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="46" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="45" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="44" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="41" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:I1048576 J100 J64 J73 J79 J85 I1:I128 J131">
-    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18950,6 +19123,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -18963,19 +19139,19 @@
       <selection pane="bottomLeft" activeCell="D43" sqref="D43:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="17"/>
-    <col min="4" max="4" width="55.44140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" style="17"/>
-    <col min="10" max="16384" width="10.77734375" style="17"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="17"/>
+    <col min="4" max="4" width="55.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="17" customWidth="1"/>
+    <col min="7" max="8" width="10.85546875" style="17"/>
+    <col min="10" max="16384" width="10.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -21321,7 +21497,7 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" ht="33">
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="32">
       <c r="A118" s="3"/>
       <c r="B118" s="8" t="s">
         <v>21</v>
@@ -21335,7 +21511,7 @@
       <c r="I118"/>
       <c r="J118" s="8"/>
     </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" ht="33">
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="32">
       <c r="A119" s="2"/>
       <c r="B119" s="8" t="s">
         <v>22</v>
@@ -22267,127 +22443,127 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="E6 A125 C125:F125 B126 E12:E17 A1:A20 A27:A30 A33:A64 A67:A83 A115:A116">
-    <cfRule type="cellIs" dxfId="35" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A124 B121 C121:F124 G117:H130 A131:A1048576 A127:F130 A126 C126:F126 J117:XFD143">
-    <cfRule type="cellIs" dxfId="34" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 A117:F120">
-    <cfRule type="cellIs" dxfId="33" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D7:D9">
-    <cfRule type="cellIs" dxfId="32" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="56" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="31" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="30" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="29" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="48" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17">
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134 D144:E144">
-    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:E134">
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F138">
-    <cfRule type="cellIs" dxfId="23" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F139">
-    <cfRule type="cellIs" dxfId="22" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J15">
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 I115:I1048576 I32:I83 J75 J56">
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A114 A84:A89">
-    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A107">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:I114 J98 J91 J85:J87 J93 J95 J106">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H144">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",H132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",H132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31 J28">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I84)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22424,6 +22600,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -22432,21 +22611,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P283"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -22520,6 +22699,9 @@
       </c>
       <c r="H2" t="s">
         <v>893</v>
+      </c>
+      <c r="I2" t="s">
+        <v>364</v>
       </c>
       <c r="K2" t="s">
         <v>748</v>
@@ -22553,7 +22735,9 @@
       <c r="H4" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="3"/>
@@ -22581,6 +22765,9 @@
       <c r="H6" t="s">
         <v>892</v>
       </c>
+      <c r="I6" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3"/>
@@ -22601,6 +22788,9 @@
       </c>
       <c r="H7" t="s">
         <v>895</v>
+      </c>
+      <c r="I7" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -22626,6 +22816,9 @@
       <c r="H9" t="s">
         <v>907</v>
       </c>
+      <c r="I9" t="s">
+        <v>364</v>
+      </c>
       <c r="K9" t="s">
         <v>748</v>
       </c>
@@ -22650,6 +22843,9 @@
       <c r="H10" t="s">
         <v>908</v>
       </c>
+      <c r="I10" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3"/>
@@ -22677,7 +22873,9 @@
       <c r="H12" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="I12"/>
+      <c r="I12" s="17" t="s">
+        <v>421</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:16" s="17" customFormat="1">
@@ -22700,7 +22898,9 @@
       <c r="H13" s="17" t="s">
         <v>680</v>
       </c>
-      <c r="I13"/>
+      <c r="I13" s="17" t="s">
+        <v>421</v>
+      </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:16" s="17" customFormat="1">
@@ -22723,7 +22923,9 @@
       <c r="H14" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="I14"/>
+      <c r="I14" s="17" t="s">
+        <v>421</v>
+      </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:16" s="17" customFormat="1">
@@ -22746,7 +22948,9 @@
       <c r="H15" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="I15"/>
+      <c r="I15" s="17" t="s">
+        <v>421</v>
+      </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:16" s="17" customFormat="1">
@@ -22769,7 +22973,9 @@
       <c r="H16" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="I16"/>
+      <c r="I16" s="17" t="s">
+        <v>1081</v>
+      </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" s="17" customFormat="1">
@@ -22790,6 +22996,9 @@
       <c r="H17" s="17" t="s">
         <v>685</v>
       </c>
+      <c r="I17" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="J17" s="17" t="s">
         <v>899</v>
       </c>
@@ -22811,6 +23020,9 @@
       </c>
       <c r="H18" s="17" t="s">
         <v>684</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>364</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>900</v>
@@ -22836,7 +23048,9 @@
       <c r="H19" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="I19"/>
+      <c r="I19" s="17" t="s">
+        <v>421</v>
+      </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
@@ -22886,6 +23100,9 @@
       <c r="H22" t="s">
         <v>912</v>
       </c>
+      <c r="I22" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="23" spans="1:10" s="17" customFormat="1">
       <c r="A23" s="3"/>
@@ -22907,7 +23124,9 @@
       <c r="H23" s="17" t="s">
         <v>829</v>
       </c>
-      <c r="I23"/>
+      <c r="I23" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3"/>
@@ -22929,6 +23148,9 @@
       <c r="H24" s="17" t="s">
         <v>913</v>
       </c>
+      <c r="I24" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3"/>
@@ -22950,6 +23172,9 @@
       <c r="H25" t="s">
         <v>910</v>
       </c>
+      <c r="I25" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3"/>
@@ -22971,6 +23196,9 @@
       <c r="H26" t="s">
         <v>906</v>
       </c>
+      <c r="I26" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="27" spans="1:10" s="17" customFormat="1">
       <c r="A27" s="3"/>
@@ -22992,7 +23220,9 @@
       <c r="H27" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="I27"/>
+      <c r="I27" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="28" spans="1:10" s="17" customFormat="1">
       <c r="A28" s="3"/>
@@ -23014,7 +23244,9 @@
       <c r="H28" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="I28"/>
+      <c r="I28" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="29" spans="1:10" s="17" customFormat="1">
       <c r="A29" s="3"/>
@@ -23036,7 +23268,9 @@
       <c r="H29" s="17" t="s">
         <v>914</v>
       </c>
-      <c r="I29"/>
+      <c r="I29" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="30" spans="1:10" s="17" customFormat="1">
       <c r="A30" s="3"/>
@@ -23058,7 +23292,9 @@
       <c r="H30" s="17" t="s">
         <v>914</v>
       </c>
-      <c r="I30"/>
+      <c r="I30" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="31" spans="1:10" s="17" customFormat="1">
       <c r="A31" s="3"/>
@@ -23080,7 +23316,9 @@
       <c r="H31" s="17" t="s">
         <v>916</v>
       </c>
-      <c r="I31"/>
+      <c r="I31" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3"/>
@@ -23416,7 +23654,7 @@
         <v>421</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="17" customFormat="1">
@@ -23732,7 +23970,7 @@
         <v>923</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="17" customFormat="1">
@@ -23853,7 +24091,7 @@
         <v>421</v>
       </c>
       <c r="J68" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -24121,7 +24359,7 @@
         <v>421</v>
       </c>
       <c r="J81" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="17" customFormat="1">
@@ -24146,7 +24384,12 @@
       <c r="H83" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="I83"/>
+      <c r="I83" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="84" spans="1:10" s="17" customFormat="1">
       <c r="A84" s="4"/>
@@ -24168,7 +24411,9 @@
       <c r="H84" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="I84"/>
+      <c r="I84" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="85" spans="1:10" s="17" customFormat="1">
       <c r="A85" s="4"/>
@@ -24190,7 +24435,12 @@
       <c r="H85" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="I85"/>
+      <c r="I85" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="J85" s="17" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="86" spans="1:10" s="17" customFormat="1">
       <c r="A86" s="4"/>
@@ -24212,7 +24462,9 @@
       <c r="H86" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="I86"/>
+      <c r="I86" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="87" spans="1:10" s="17" customFormat="1">
       <c r="A87" s="4"/>
@@ -24234,7 +24486,9 @@
       <c r="H87" s="17" t="s">
         <v>952</v>
       </c>
-      <c r="I87"/>
+      <c r="I87" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="88" spans="1:10" s="17" customFormat="1">
       <c r="A88" s="4"/>
@@ -24256,7 +24510,9 @@
       <c r="H88" s="17" t="s">
         <v>953</v>
       </c>
-      <c r="I88"/>
+      <c r="I88" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="89" spans="1:10" s="17" customFormat="1">
       <c r="A89" s="4"/>
@@ -24278,7 +24534,9 @@
       <c r="H89" s="17" t="s">
         <v>954</v>
       </c>
-      <c r="I89"/>
+      <c r="I89" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="90" spans="1:10" s="17" customFormat="1">
       <c r="A90" s="4"/>
@@ -24294,9 +24552,11 @@
       <c r="F90" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="I90"/>
-    </row>
-    <row r="91" spans="1:10" ht="17.25">
+      <c r="I90" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="4"/>
       <c r="D91" s="53"/>
     </row>
@@ -24323,7 +24583,9 @@
       <c r="H92" s="17" t="s">
         <v>956</v>
       </c>
-      <c r="I92"/>
+      <c r="I92" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="93" spans="1:10" s="17" customFormat="1">
       <c r="A93" s="4"/>
@@ -24342,7 +24604,9 @@
       <c r="H93" s="17" t="s">
         <v>955</v>
       </c>
-      <c r="I93"/>
+      <c r="I93" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="94" spans="1:10" s="17" customFormat="1">
       <c r="A94" s="4"/>
@@ -24372,7 +24636,12 @@
       <c r="H95" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="I95"/>
+      <c r="I95" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="96" spans="1:10" s="17" customFormat="1">
       <c r="A96" s="4"/>
@@ -24394,7 +24663,12 @@
       <c r="H96" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="I96"/>
+      <c r="I96" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J96" s="17" t="s">
+        <v>1068</v>
+      </c>
     </row>
     <row r="97" spans="1:11" s="17" customFormat="1">
       <c r="A97" s="4"/>
@@ -24416,7 +24690,9 @@
       <c r="H97" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="I97"/>
+      <c r="I97" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="K97" s="17" t="s">
         <v>961</v>
       </c>
@@ -24444,7 +24720,9 @@
         <v>189</v>
       </c>
       <c r="G99" s="43"/>
-      <c r="I99"/>
+      <c r="I99" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="100" spans="1:11" s="17" customFormat="1">
       <c r="A100" s="4"/>
@@ -24466,7 +24744,12 @@
       <c r="H100" s="17" t="s">
         <v>960</v>
       </c>
-      <c r="I100"/>
+      <c r="I100" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J100" s="17" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="101" spans="1:11" s="17" customFormat="1">
       <c r="A101" s="4"/>
@@ -24491,7 +24774,9 @@
         <v>191</v>
       </c>
       <c r="G102" s="43"/>
-      <c r="I102"/>
+      <c r="I102" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="103" spans="1:11" s="17" customFormat="1">
       <c r="A103" s="4"/>
@@ -24508,7 +24793,9 @@
         <v>194</v>
       </c>
       <c r="G103" s="43"/>
-      <c r="I103"/>
+      <c r="I103" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="104" spans="1:11" s="17" customFormat="1">
       <c r="A104" s="4"/>
@@ -24525,7 +24812,12 @@
         <v>194</v>
       </c>
       <c r="G104" s="43"/>
-      <c r="I104"/>
+      <c r="I104" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="J104" s="17" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="105" spans="1:11" s="17" customFormat="1">
       <c r="A105" s="4"/>
@@ -24555,7 +24847,9 @@
       <c r="H106" s="44" t="s">
         <v>957</v>
       </c>
-      <c r="I106"/>
+      <c r="I106" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="107" spans="1:11" s="17" customFormat="1">
       <c r="A107" s="4"/>
@@ -24599,7 +24893,9 @@
       <c r="H109" s="17" t="s">
         <v>958</v>
       </c>
-      <c r="I109"/>
+      <c r="I109" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="K109" s="17" t="s">
         <v>748</v>
       </c>
@@ -24622,7 +24918,9 @@
       <c r="H110" s="17" t="s">
         <v>958</v>
       </c>
-      <c r="I110"/>
+      <c r="I110" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="K110" s="17" t="s">
         <v>748</v>
       </c>
@@ -24653,7 +24951,9 @@
       <c r="H112" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="I112"/>
+      <c r="I112" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="113" spans="1:16" s="17" customFormat="1">
       <c r="A113" s="2"/>
@@ -24701,7 +25001,7 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" ht="33">
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="32">
       <c r="A118" s="3"/>
       <c r="B118" s="8" t="s">
         <v>21</v>
@@ -24715,7 +25015,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="8"/>
     </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" ht="33">
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="32">
       <c r="A119" s="2"/>
       <c r="B119" s="8" t="s">
         <v>22</v>
@@ -24729,7 +25029,7 @@
       <c r="I119" s="9"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" ht="33">
+    <row r="120" spans="1:16" s="7" customFormat="1" ht="32">
       <c r="A120" s="3"/>
       <c r="B120" s="8" t="s">
         <v>23</v>
@@ -25647,12 +25947,17 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="E17:E18 A17:A18">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25674,39 +25979,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" text="阻碍" id="{6FFC97F1-90BF-6A41-A949-2CE718522E11}">
-            <xm:f>NOT(ISERROR(SEARCH("阻碍",'20121216'!I17)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" text="未完成" id="{DA84DDAD-AF36-8E40-9E5C-4136B4E88A1E}">
-            <xm:f>NOT(ISERROR(SEARCH("未完成",'20121216'!I17)))</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I17:I18</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
@@ -25723,29 +25995,32 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P273"/>
+  <dimension ref="A1:P295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="50.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:16" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -25810,6 +26085,9 @@
       </c>
       <c r="E2" t="s">
         <v>792</v>
+      </c>
+      <c r="F2" t="s">
+        <v>189</v>
       </c>
       <c r="G2">
         <v>0.5</v>
@@ -25821,10 +26099,13 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>194</v>
       </c>
       <c r="G3">
         <v>0.5</v>
@@ -25881,13 +26162,16 @@
     <row r="8" spans="1:16">
       <c r="A8" s="3"/>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D8" s="55" t="s">
         <v>990</v>
       </c>
       <c r="E8" t="s">
         <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>194</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -25899,59 +26183,53 @@
         <v>37</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E9" t="s">
         <v>649</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="3"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="58" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F10" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>373</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E11" t="s">
-        <v>783</v>
-      </c>
-      <c r="F11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>908</v>
-      </c>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="D12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>783</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -25960,62 +26238,64 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E13" t="s">
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3"/>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="3"/>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="3"/>
-      <c r="B16" t="s">
-        <v>353</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>996</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="17">
-        <v>2</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>680</v>
-      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>353</v>
+      </c>
       <c r="C17" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>57</v>
@@ -26025,31 +26305,27 @@
         <v>2</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="17" customFormat="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3"/>
-      <c r="C18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>897</v>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>997</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>194</v>
-      </c>
+      <c r="F18" s="42"/>
       <c r="G18" s="17">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>896</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18" s="2"/>
+        <v>681</v>
+      </c>
     </row>
     <row r="19" spans="1:10" s="17" customFormat="1">
       <c r="A19" s="3"/>
@@ -26057,7 +26333,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>57</v>
@@ -26066,32 +26342,36 @@
         <v>194</v>
       </c>
       <c r="G19" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="I19"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" s="17" customFormat="1">
       <c r="A20" s="3"/>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>992</v>
+      <c r="C20" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>898</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F20" s="42" t="s">
         <v>194</v>
       </c>
       <c r="G20" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3"/>
@@ -26099,7 +26379,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>60</v>
@@ -26118,65 +26398,63 @@
         <v>37</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>995</v>
+        <v>60</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="42"/>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>994</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>194</v>
+      </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3"/>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>773</v>
-      </c>
-      <c r="E24" t="s">
-        <v>828</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24">
-        <v>0.5</v>
-      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>911</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>52</v>
+      <c r="D25" t="s">
+        <v>773</v>
+      </c>
+      <c r="E25" t="s">
+        <v>828</v>
       </c>
       <c r="F25" s="42" t="s">
         <v>188</v>
       </c>
       <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>912</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -26184,150 +26462,149 @@
       <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>909</v>
+      <c r="D26" s="38" t="s">
+        <v>911</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" s="17" customFormat="1">
+      <c r="H26" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="3"/>
       <c r="C27" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="56" t="s">
-        <v>991</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>53</v>
+      <c r="D27" t="s">
+        <v>909</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:10">
+        <v>192</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="17" customFormat="1">
       <c r="A28" s="3"/>
       <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>909</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>991</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28">
+        <v>191</v>
+      </c>
+      <c r="G28" s="17">
         <v>0.5</v>
       </c>
-      <c r="H28" t="s">
-        <v>910</v>
-      </c>
+      <c r="I28"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3"/>
       <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>909</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29">
+        <v>0.5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3"/>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="37" t="s">
         <v>904</v>
-      </c>
-      <c r="E29" t="s">
-        <v>785</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="17" customFormat="1">
-      <c r="A30" s="3"/>
-      <c r="C30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>1031</v>
       </c>
       <c r="E30" t="s">
         <v>785</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="I30"/>
+        <v>191</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="31" spans="1:10" s="17" customFormat="1">
       <c r="A31" s="3"/>
       <c r="C31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>1040</v>
+      <c r="D31" s="57" t="s">
+        <v>1028</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>785</v>
       </c>
       <c r="F31" s="42" t="s">
         <v>194</v>
       </c>
       <c r="G31" s="17">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I31"/>
     </row>
     <row r="32" spans="1:10" s="17" customFormat="1">
       <c r="A32" s="3"/>
       <c r="C32" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>1032</v>
+        <v>37</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>1036</v>
       </c>
       <c r="E32" t="s">
-        <v>785</v>
+        <v>193</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0.5</v>
       </c>
       <c r="I32"/>
     </row>
     <row r="33" spans="1:9" s="17" customFormat="1">
       <c r="A33" s="3"/>
       <c r="C33" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>915</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="G33" s="17">
-        <v>1</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>916</v>
+        <v>69</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E33" t="s">
+        <v>785</v>
       </c>
       <c r="I33"/>
     </row>
@@ -26336,128 +26613,128 @@
       <c r="C34" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="57" t="s">
-        <v>1033</v>
+      <c r="D34" s="17" t="s">
+        <v>915</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>649</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G34" s="17">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>916</v>
       </c>
       <c r="I34"/>
     </row>
     <row r="35" spans="1:9" s="17" customFormat="1">
       <c r="A35" s="3"/>
-      <c r="D35" s="56"/>
+      <c r="C35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="17">
+        <v>3</v>
+      </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="36" spans="1:9" s="17" customFormat="1">
+      <c r="A36" s="3"/>
+      <c r="D36" s="56"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B37" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="17" t="s">
+      <c r="C37" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E37" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F37" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G37" s="17">
         <v>1.5</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H37" s="17" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="17" customFormat="1">
-      <c r="A37" s="48"/>
-      <c r="C37" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>592</v>
-      </c>
-      <c r="I37"/>
     </row>
     <row r="38" spans="1:9" s="17" customFormat="1">
       <c r="A38" s="48"/>
       <c r="C38" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>998</v>
+      <c r="D38" s="46" t="s">
+        <v>590</v>
       </c>
       <c r="E38" s="46" t="s">
         <v>593</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>592</v>
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" s="17" customFormat="1">
+      <c r="A39" s="48"/>
       <c r="C39" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>794</v>
+        <v>998</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>593</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17" t="s">
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="C40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="17" customFormat="1">
-      <c r="A40" s="48"/>
-      <c r="C40" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>855</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>856</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="G40" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>870</v>
-      </c>
-      <c r="I40"/>
     </row>
     <row r="41" spans="1:9" s="17" customFormat="1">
       <c r="A41" s="48"/>
@@ -26465,19 +26742,19 @@
         <v>37</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G41" s="17">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="I41"/>
     </row>
@@ -26487,13 +26764,19 @@
         <v>37</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>1052</v>
+        <v>857</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>1053</v>
+        <v>858</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="G42" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>869</v>
       </c>
       <c r="I42"/>
     </row>
@@ -26514,7 +26797,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -26534,7 +26817,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -26598,10 +26881,10 @@
         <v>37</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>188</v>
@@ -26650,7 +26933,7 @@
     <row r="53" spans="1:9" s="17" customFormat="1">
       <c r="A53" s="48"/>
       <c r="D53" s="17" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="I53"/>
     </row>
@@ -26683,6 +26966,9 @@
       <c r="E56" t="s">
         <v>96</v>
       </c>
+      <c r="F56" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="C57" t="s">
@@ -26693,6 +26979,9 @@
       </c>
       <c r="E57" t="s">
         <v>99</v>
+      </c>
+      <c r="F57" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -26737,7 +27026,7 @@
         <v>1011</v>
       </c>
       <c r="E61" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F61" t="s">
         <v>191</v>
@@ -26755,7 +27044,7 @@
         <v>1012</v>
       </c>
       <c r="E62" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F62" t="s">
         <v>194</v>
@@ -26809,7 +27098,7 @@
         <v>937</v>
       </c>
       <c r="E65" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F65" t="s">
         <v>194</v>
@@ -26827,7 +27116,7 @@
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="E66" t="s">
         <v>608</v>
@@ -26848,7 +27137,7 @@
         <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="E67" t="s">
         <v>608</v>
@@ -26863,13 +27152,13 @@
     <row r="68" spans="1:8">
       <c r="A68" s="5"/>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>1091</v>
       </c>
       <c r="D68" t="s">
-        <v>1045</v>
+        <v>1092</v>
       </c>
       <c r="E68" t="s">
-        <v>1044</v>
+        <v>608</v>
       </c>
       <c r="F68" t="s">
         <v>194</v>
@@ -26883,64 +27172,81 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="5"/>
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F69" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="4"/>
-      <c r="B70" t="s">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="4"/>
+      <c r="B71" t="s">
         <v>41</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>738</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>801</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>608</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H71" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="C71" t="s">
+    <row r="72" spans="1:8">
+      <c r="C72" t="s">
         <v>69</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>926</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>603</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H72" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:8">
+      <c r="A74" s="4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="4"/>
-      <c r="B74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="4"/>
-      <c r="C75" s="17"/>
+      <c r="B75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="D75" t="s">
-        <v>1023</v>
+        <v>1046</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -26948,16 +27254,17 @@
       <c r="C76" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>803</v>
-      </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17" t="s">
-        <v>718</v>
+      <c r="D76" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G76">
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -26965,1061 +27272,1414 @@
       <c r="C77" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
+      <c r="D77" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G77">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="4"/>
       <c r="C78" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="47" t="s">
-        <v>879</v>
-      </c>
-      <c r="E78" s="47" t="s">
-        <v>803</v>
-      </c>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
+      <c r="D78" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="4"/>
       <c r="C79" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="D79" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E79" t="s">
         <v>1013</v>
       </c>
-      <c r="E79" s="17" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
+      <c r="F79" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G79">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="4"/>
-      <c r="C80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+      <c r="C80" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-    </row>
-    <row r="82" spans="1:9" s="17" customFormat="1">
+      <c r="C81" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="4"/>
       <c r="C82" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>849</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="G82" s="43"/>
-      <c r="I82"/>
-    </row>
-    <row r="83" spans="1:9" s="17" customFormat="1">
+        <v>37</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="4"/>
-      <c r="D83" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="G83" s="43"/>
-      <c r="I83"/>
+      <c r="C83" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4"/>
+      <c r="C84" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="D84" s="17" t="s">
-        <v>807</v>
+        <v>620</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="4"/>
-      <c r="D85" s="17"/>
+      <c r="C85" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="4"/>
-      <c r="B86" t="s">
-        <v>135</v>
-      </c>
       <c r="C86" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>877</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="43">
-        <v>4</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>955</v>
-      </c>
+      <c r="D86" s="47" t="s">
+        <v>879</v>
+      </c>
+      <c r="E86" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G86" s="17">
+        <v>2</v>
+      </c>
+      <c r="H86" s="17"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="4"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="C87" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>1013</v>
+      </c>
       <c r="F87" s="17"/>
-      <c r="G87" s="43"/>
+      <c r="G87" s="17"/>
       <c r="H87" s="17"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="4"/>
-      <c r="B88" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>133</v>
-      </c>
+      <c r="C88" s="17"/>
       <c r="F88" s="17"/>
-      <c r="G88" s="43"/>
+      <c r="G88" s="17"/>
       <c r="H88" s="17"/>
     </row>
-    <row r="89" spans="1:9" s="17" customFormat="1">
+    <row r="89" spans="1:9">
       <c r="A89" s="4"/>
       <c r="C89" s="17" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>881</v>
+        <v>1019</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="G89" s="43"/>
-      <c r="I89"/>
+        <v>132</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="17">
+        <v>3</v>
+      </c>
+      <c r="H89" s="17"/>
     </row>
     <row r="90" spans="1:9" s="17" customFormat="1">
       <c r="A90" s="4"/>
-      <c r="G90" s="43"/>
+      <c r="C90" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>849</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G90" s="43">
+        <v>2</v>
+      </c>
       <c r="I90"/>
     </row>
     <row r="91" spans="1:9" s="17" customFormat="1">
       <c r="A91" s="4"/>
-      <c r="B91" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="D91" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>623</v>
+        <v>806</v>
       </c>
       <c r="G91" s="43"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:9" s="17" customFormat="1">
+    <row r="92" spans="1:9">
       <c r="A92" s="4"/>
-      <c r="C92" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="D92" s="17" t="s">
-        <v>848</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="G92" s="43"/>
-      <c r="I92"/>
-    </row>
-    <row r="93" spans="1:9" s="17" customFormat="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="4"/>
-      <c r="G93" s="43"/>
-      <c r="I93"/>
-    </row>
-    <row r="94" spans="1:9" s="17" customFormat="1">
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="4"/>
-      <c r="B94" s="17" t="s">
-        <v>144</v>
+      <c r="B94" t="s">
+        <v>135</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>1019</v>
+        <v>1065</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>804</v>
-      </c>
-      <c r="G94" s="43"/>
-      <c r="I94"/>
-    </row>
-    <row r="95" spans="1:9" s="17" customFormat="1">
+        <v>878</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94" s="43">
+        <v>4</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="4"/>
-      <c r="C95" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>804</v>
-      </c>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
       <c r="G95" s="43"/>
-      <c r="I95"/>
-    </row>
-    <row r="96" spans="1:9" s="17" customFormat="1">
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="4"/>
-      <c r="G96" s="43"/>
-      <c r="I96"/>
-    </row>
-    <row r="97" spans="1:16" s="17" customFormat="1">
+      <c r="B96" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G96" s="43">
+        <v>2</v>
+      </c>
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="4"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
       <c r="G97" s="43"/>
-      <c r="I97"/>
-    </row>
-    <row r="98" spans="1:16" s="17" customFormat="1">
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="4"/>
       <c r="B98" s="17" t="s">
-        <v>808</v>
+        <v>148</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G98" s="43"/>
-      <c r="I98"/>
-    </row>
-    <row r="99" spans="1:16" s="17" customFormat="1">
+        <v>133</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G98" s="43">
+        <v>1</v>
+      </c>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="1:9" s="17" customFormat="1">
       <c r="A99" s="4"/>
-      <c r="G99" s="43"/>
+      <c r="C99" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="G99" s="43">
+        <v>0.5</v>
+      </c>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:16" s="17" customFormat="1">
+    <row r="100" spans="1:9" s="17" customFormat="1">
       <c r="A100" s="4"/>
-      <c r="B100" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>132</v>
-      </c>
       <c r="G100" s="43"/>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:16" s="17" customFormat="1">
-      <c r="A101" s="2"/>
+    <row r="101" spans="1:9" s="17" customFormat="1">
+      <c r="A101" s="4"/>
+      <c r="B101" s="17" t="s">
+        <v>630</v>
+      </c>
       <c r="C101" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G101" s="43"/>
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="1:9" s="17" customFormat="1">
+      <c r="A102" s="4"/>
+      <c r="G102" s="43"/>
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="1:9" s="17" customFormat="1">
+      <c r="A103" s="4"/>
+      <c r="B103" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E103" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G103" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="1:9" s="17" customFormat="1">
+      <c r="A104" s="4"/>
+      <c r="C104" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G104" s="43">
+        <v>2</v>
+      </c>
+      <c r="I104"/>
+    </row>
+    <row r="105" spans="1:9" s="17" customFormat="1">
+      <c r="A105" s="4"/>
+      <c r="C105" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E105" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="G105" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="1:9" s="17" customFormat="1">
+      <c r="A106" s="4"/>
+      <c r="C106" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="F106" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="G106" s="43">
+        <v>2</v>
+      </c>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="1:9" s="17" customFormat="1">
+      <c r="A107" s="4"/>
+      <c r="C107" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="G107" s="43"/>
+      <c r="I107"/>
+    </row>
+    <row r="108" spans="1:9" s="17" customFormat="1">
+      <c r="A108" s="4"/>
+      <c r="C108" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G108" s="43"/>
+      <c r="I108"/>
+    </row>
+    <row r="109" spans="1:9" s="17" customFormat="1">
+      <c r="A109" s="4"/>
+      <c r="G109" s="43"/>
+      <c r="I109"/>
+    </row>
+    <row r="110" spans="1:9" s="17" customFormat="1">
+      <c r="A110" s="4"/>
+      <c r="B110" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E110" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G110" s="43">
+        <v>1</v>
+      </c>
+      <c r="I110"/>
+    </row>
+    <row r="111" spans="1:9" s="17" customFormat="1">
+      <c r="A111" s="4"/>
+      <c r="C111" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G111" s="43">
+        <v>2</v>
+      </c>
+      <c r="I111"/>
+    </row>
+    <row r="112" spans="1:9" s="17" customFormat="1">
+      <c r="A112" s="4"/>
+      <c r="C112" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G112" s="43">
+        <v>2</v>
+      </c>
+      <c r="I112"/>
+    </row>
+    <row r="113" spans="1:16" s="17" customFormat="1">
+      <c r="A113" s="4"/>
+      <c r="C113" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G113" s="43">
+        <v>3</v>
+      </c>
+      <c r="I113"/>
+    </row>
+    <row r="114" spans="1:16" s="17" customFormat="1">
+      <c r="A114" s="4"/>
+      <c r="G114" s="43"/>
+      <c r="I114"/>
+    </row>
+    <row r="115" spans="1:16" s="17" customFormat="1">
+      <c r="A115" s="4"/>
+      <c r="B115" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G115" s="43">
+        <v>1</v>
+      </c>
+      <c r="I115"/>
+    </row>
+    <row r="116" spans="1:16" s="17" customFormat="1">
+      <c r="A116" s="2"/>
+      <c r="C116" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D116" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E116" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="I101"/>
-    </row>
-    <row r="102" spans="1:16" s="17" customFormat="1">
-      <c r="A102" s="2"/>
-      <c r="C102" s="17" t="s">
+      <c r="I116"/>
+    </row>
+    <row r="117" spans="1:16" s="17" customFormat="1">
+      <c r="A117" s="2"/>
+      <c r="C117" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="D102" s="17" t="s">
+      <c r="D117" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E117" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="I102"/>
-    </row>
-    <row r="103" spans="1:16" s="17" customFormat="1">
-      <c r="A103" s="2"/>
-      <c r="C103" s="17" t="s">
+      <c r="I117"/>
+    </row>
+    <row r="118" spans="1:16" s="17" customFormat="1">
+      <c r="A118" s="2"/>
+      <c r="C118" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D118" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E118" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="I103"/>
-    </row>
-    <row r="104" spans="1:16">
-      <c r="C104" s="17" t="s">
+      <c r="I118"/>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="C119" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D119" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="E104" s="17" t="s">
+      <c r="E119" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="I104" s="17"/>
-    </row>
-    <row r="105" spans="1:16">
-      <c r="A105" s="4"/>
-    </row>
-    <row r="107" spans="1:16" s="7" customFormat="1">
-      <c r="A107" s="6" t="s">
+      <c r="I119" s="17"/>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="122" spans="1:16" s="7" customFormat="1">
+      <c r="A122" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-    </row>
-    <row r="108" spans="1:16" s="7" customFormat="1" ht="33">
-      <c r="A108" s="3"/>
-      <c r="B108" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="8"/>
-    </row>
-    <row r="109" spans="1:16" s="7" customFormat="1" ht="33">
-      <c r="A109" s="2"/>
-      <c r="B109" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="8"/>
-    </row>
-    <row r="110" spans="1:16" s="7" customFormat="1">
-      <c r="A110" s="3"/>
-      <c r="B110" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="8"/>
-    </row>
-    <row r="111" spans="1:16" s="7" customFormat="1">
-      <c r="A111" s="2"/>
-      <c r="B111" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="8"/>
-    </row>
-    <row r="112" spans="1:16" s="7" customFormat="1">
-      <c r="A112" s="2"/>
-      <c r="B112" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="8"/>
-    </row>
-    <row r="113" spans="1:16" s="7" customFormat="1">
-      <c r="A113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="1:16" s="7" customFormat="1">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="8"/>
-    </row>
-    <row r="115" spans="1:16" s="7" customFormat="1">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="7" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-    </row>
-    <row r="116" spans="1:16" s="7" customFormat="1">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-    </row>
-    <row r="117" spans="1:16" s="7" customFormat="1">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-    </row>
-    <row r="118" spans="1:16" s="7" customFormat="1">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-    </row>
-    <row r="119" spans="1:16" s="7" customFormat="1">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-    </row>
-    <row r="120" spans="1:16" s="7" customFormat="1">
-      <c r="A120" s="2"/>
-      <c r="B120" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J120" s="13"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="1:16" s="7" customFormat="1">
-      <c r="A121" s="2"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G121" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="H121" s="25"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-    </row>
-    <row r="122" spans="1:16" s="7" customFormat="1">
-      <c r="A122" s="2"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G122" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="H122" s="25"/>
-      <c r="I122" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="J122" s="13"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="8"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
-    </row>
-    <row r="123" spans="1:16" s="7" customFormat="1">
-      <c r="A123" s="2"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="24" t="s">
+      <c r="P122" s="2"/>
+    </row>
+    <row r="123" spans="1:16" s="7" customFormat="1" ht="32">
+      <c r="A123" s="3"/>
+      <c r="B123" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="1:16" s="7" customFormat="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="1:16" s="7" customFormat="1">
+      <c r="A125" s="3"/>
+      <c r="B125" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" spans="1:16" s="7" customFormat="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" spans="1:16" s="7" customFormat="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="8"/>
+    </row>
+    <row r="128" spans="1:16" s="7" customFormat="1">
+      <c r="A128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="8"/>
+    </row>
+    <row r="129" spans="1:16" s="7" customFormat="1">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="8"/>
+    </row>
+    <row r="130" spans="1:16" s="7" customFormat="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+    </row>
+    <row r="131" spans="1:16" s="7" customFormat="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+    </row>
+    <row r="132" spans="1:16" s="7" customFormat="1">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+    </row>
+    <row r="133" spans="1:16" s="7" customFormat="1">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+    </row>
+    <row r="134" spans="1:16" s="7" customFormat="1">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+    </row>
+    <row r="135" spans="1:16" s="7" customFormat="1">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+    </row>
+    <row r="136" spans="1:16" s="7" customFormat="1">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+    </row>
+    <row r="137" spans="1:16" s="7" customFormat="1">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+    </row>
+    <row r="138" spans="1:16" s="7" customFormat="1">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+    </row>
+    <row r="139" spans="1:16" s="7" customFormat="1">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+    </row>
+    <row r="140" spans="1:16" s="7" customFormat="1">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+    </row>
+    <row r="141" spans="1:16" s="7" customFormat="1">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+    </row>
+    <row r="142" spans="1:16" s="7" customFormat="1">
+      <c r="A142" s="2"/>
+      <c r="B142" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J142" s="13"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+    </row>
+    <row r="143" spans="1:16" s="7" customFormat="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G143" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H143" s="25"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="1:16" s="7" customFormat="1">
+      <c r="A144" s="2"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G144" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H144" s="25"/>
+      <c r="I144" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J144" s="13"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="1:15" s="7" customFormat="1">
+      <c r="A145" s="2"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="11" t="s">
+      <c r="E145" s="24"/>
+      <c r="F145" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G123" s="33" t="s">
+      <c r="G145" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="H123" s="25"/>
-      <c r="I123" s="24" t="s">
+      <c r="H145" s="25"/>
+      <c r="I145" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="J123" s="13"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-    </row>
-    <row r="124" spans="1:16" s="7" customFormat="1">
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24" t="s">
+      <c r="J145" s="13"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="1:15" s="7" customFormat="1">
+      <c r="B146" s="24"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="33" t="s">
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="H124" s="24"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="13"/>
-    </row>
-    <row r="125" spans="1:16" s="7" customFormat="1">
-      <c r="B125" s="11" t="s">
+      <c r="H146" s="24"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="13"/>
+    </row>
+    <row r="147" spans="1:15" s="7" customFormat="1">
+      <c r="B147" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11" t="s">
+      <c r="C147" s="11"/>
+      <c r="D147" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="32" t="s">
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="13"/>
-    </row>
-    <row r="126" spans="1:16" s="7" customFormat="1">
-      <c r="B126" s="45" t="s">
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="13"/>
+    </row>
+    <row r="148" spans="1:15" s="7" customFormat="1">
+      <c r="B148" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="C126" s="24"/>
-      <c r="D126" s="45" t="s">
+      <c r="C148" s="24"/>
+      <c r="D148" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="E126" s="24"/>
-      <c r="F126" s="23" t="s">
+      <c r="E148" s="24"/>
+      <c r="F148" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="G126" s="33" t="s">
+      <c r="G148" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="H126" s="24"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="13"/>
-    </row>
-    <row r="127" spans="1:16" s="7" customFormat="1">
-      <c r="B127" s="45" t="s">
+      <c r="H148" s="24"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="13"/>
+    </row>
+    <row r="149" spans="1:15" s="7" customFormat="1">
+      <c r="B149" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="C127" s="24"/>
-      <c r="D127" s="45" t="s">
+      <c r="C149" s="24"/>
+      <c r="D149" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="11" t="s">
+      <c r="E149" s="24"/>
+      <c r="F149" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G127" s="33" t="s">
+      <c r="G149" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="13"/>
-    </row>
-    <row r="128" spans="1:16" s="7" customFormat="1">
-      <c r="B128" s="24" t="s">
+      <c r="H149" s="24"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="13"/>
+    </row>
+    <row r="150" spans="1:15" s="7" customFormat="1">
+      <c r="B150" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="17" t="s">
+      <c r="C150" s="24"/>
+      <c r="D150" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="11" t="s">
+      <c r="E150" s="24"/>
+      <c r="F150" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G128" s="33" t="s">
+      <c r="G150" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="13"/>
-    </row>
-    <row r="129" spans="1:10" s="7" customFormat="1">
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11" t="s">
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="13"/>
+    </row>
+    <row r="151" spans="1:15" s="7" customFormat="1">
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="32" t="s">
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11" t="s">
+      <c r="H151" s="11"/>
+      <c r="I151" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J129" s="13"/>
-    </row>
-    <row r="130" spans="1:10" s="7" customFormat="1">
-      <c r="B130" s="24"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="24" t="s">
+      <c r="J151" s="13"/>
+    </row>
+    <row r="152" spans="1:15" s="7" customFormat="1">
+      <c r="B152" s="24"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="33" t="s">
+      <c r="E152" s="24"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24" t="s">
+      <c r="H152" s="24"/>
+      <c r="I152" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="J130" s="13"/>
-    </row>
-    <row r="131" spans="1:10" s="7" customFormat="1">
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="24" t="s">
+      <c r="J152" s="13"/>
+    </row>
+    <row r="153" spans="1:15" s="7" customFormat="1">
+      <c r="B153" s="24"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="26">
+      <c r="E153" s="24"/>
+      <c r="F153" s="26">
         <v>42326</v>
       </c>
-      <c r="G131" s="33" t="s">
+      <c r="G153" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24" t="s">
+      <c r="H153" s="24"/>
+      <c r="I153" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="J131" s="13"/>
-    </row>
-    <row r="132" spans="1:10" s="7" customFormat="1">
-      <c r="B132" s="24"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24" t="s">
+      <c r="J153" s="13"/>
+    </row>
+    <row r="154" spans="1:15" s="7" customFormat="1">
+      <c r="B154" s="24"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="26">
+      <c r="E154" s="24"/>
+      <c r="F154" s="26">
         <v>42326</v>
       </c>
-      <c r="G132" s="33" t="s">
+      <c r="G154" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H132" s="24"/>
-      <c r="I132" s="24" t="s">
+      <c r="H154" s="24"/>
+      <c r="I154" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="J132" s="13"/>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11" t="s">
+      <c r="J154" s="13"/>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E133" s="11"/>
-      <c r="F133" s="27">
+      <c r="E155" s="11"/>
+      <c r="F155" s="27">
         <v>42354</v>
       </c>
-      <c r="G133" s="32" t="s">
+      <c r="G155" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="H133" s="11" t="s">
+      <c r="H155" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="I133" s="11" t="s">
+      <c r="I155" s="11" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="7"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24"/>
-      <c r="D134" s="24" t="s">
+    <row r="156" spans="1:15">
+      <c r="A156" s="7"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="26" t="s">
+      <c r="E156" s="24"/>
+      <c r="F156" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="G156" s="33" t="s">
         <v>560</v>
       </c>
-      <c r="H134" s="24"/>
-      <c r="I134" s="11"/>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="7"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="24" t="s">
+      <c r="H156" s="24"/>
+      <c r="I156" s="11"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="7"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24" t="s">
         <v>761</v>
       </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="26" t="s">
+      <c r="E157" s="24"/>
+      <c r="F157" s="26" t="s">
         <v>883</v>
       </c>
-      <c r="G135" s="33" t="s">
+      <c r="G157" s="33" t="s">
         <v>763</v>
       </c>
-      <c r="H135" s="24"/>
-      <c r="I135" s="11"/>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="B136" s="24"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="24" t="s">
+      <c r="H157" s="24"/>
+      <c r="I157" s="11"/>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="B158" s="24"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24" t="s">
         <v>764</v>
       </c>
-      <c r="E136" s="24"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="33" t="s">
+      <c r="E158" s="24"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="33" t="s">
         <v>762</v>
       </c>
-      <c r="H136" s="24"/>
-      <c r="I136" s="11"/>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="B137" s="24"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="24" t="s">
+      <c r="H158" s="24"/>
+      <c r="I158" s="11"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="B159" s="24"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="E137" s="24"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="33" t="s">
+      <c r="E159" s="24"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="33" t="s">
         <v>766</v>
       </c>
-      <c r="H137" s="24"/>
-      <c r="I137" s="11"/>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24" t="s">
+      <c r="H159" s="24"/>
+      <c r="I159" s="11"/>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="B160" s="24"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24" t="s">
         <v>771</v>
       </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="33" t="s">
+      <c r="E160" s="24"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="33" t="s">
         <v>766</v>
       </c>
-      <c r="H138" s="24"/>
-      <c r="I138" s="11"/>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
-      <c r="F139" s="39"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="39"/>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
-      <c r="F140" s="39"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="39"/>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="B141" s="39"/>
-      <c r="C141" s="39"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
-      <c r="F141" s="39"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="39"/>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="39"/>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
-      <c r="F143" s="39"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="39"/>
-      <c r="I143" s="39"/>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="39"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="39"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="B146" s="39"/>
-      <c r="C146" s="39"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
-      <c r="F146" s="39"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="39"/>
-      <c r="I146" s="39"/>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="7"/>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="7"/>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="7"/>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="7"/>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="7"/>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="7"/>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="7"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="7"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="7"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="7"/>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="7"/>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="7"/>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="7"/>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="7"/>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="7"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="7"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="7"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="7"/>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="7"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="7"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="7"/>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="7"/>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="H160" s="24"/>
+      <c r="I160" s="11"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="B161" s="39"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="39"/>
+      <c r="G161" s="39"/>
+      <c r="H161" s="39"/>
+      <c r="I161" s="39"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="B162" s="39"/>
+      <c r="C162" s="39"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="39"/>
+      <c r="F162" s="39"/>
+      <c r="G162" s="39"/>
+      <c r="H162" s="39"/>
+      <c r="I162" s="39"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="B163" s="39"/>
+      <c r="C163" s="39"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="39"/>
+      <c r="F163" s="39"/>
+      <c r="G163" s="39"/>
+      <c r="H163" s="39"/>
+      <c r="I163" s="39"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="B164" s="39"/>
+      <c r="C164" s="39"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="39"/>
+      <c r="I164" s="39"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="B165" s="39"/>
+      <c r="C165" s="39"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="39"/>
+      <c r="F165" s="39"/>
+      <c r="G165" s="39"/>
+      <c r="H165" s="39"/>
+      <c r="I165" s="39"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="B166" s="39"/>
+      <c r="C166" s="39"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="39"/>
+      <c r="I166" s="39"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="B167" s="39"/>
+      <c r="C167" s="39"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="39"/>
+      <c r="I167" s="39"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="B168" s="39"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="39"/>
+      <c r="G168" s="39"/>
+      <c r="H168" s="39"/>
+      <c r="I168" s="39"/>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="7"/>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:9">
       <c r="A172" s="7"/>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:9">
       <c r="A173" s="7"/>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:9">
       <c r="A174" s="7"/>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:9">
       <c r="A175" s="7"/>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:9">
       <c r="A176" s="7"/>
     </row>
     <row r="177" spans="1:1">
@@ -28313,9 +28973,75 @@
     <row r="273" spans="1:1">
       <c r="A273" s="7"/>
     </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="7"/>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="7"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="7"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="7"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="7"/>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="7"/>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="7"/>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="7"/>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="7"/>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="7"/>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="7"/>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="7"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="7"/>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="7"/>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="7"/>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="7"/>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="7"/>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="7"/>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="I139:I1048576 I86:I88 I105:I106 I1:I17 I20:I23 I43:I46 I72:I81 I55:I69 I36">
+  <conditionalFormatting sqref="I161:I1048576 I94:I98 I120:I121 I1:I18 I21:I24 I43:I46 I55:I70 I37 I73:I89">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
@@ -28323,32 +29049,32 @@
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111:A114 B111 C111:F114 G107:XFD120 A86:A88 A105:A106 A1:A17 A20:A23 A43:A46 A55:A60 A72:A81 A121:A1048576 J121:XFD132 A115:C115 E115:F115 A116:F120 A63:A69 A36">
+  <conditionalFormatting sqref="A126:A129 B126 C126:F129 G122:XFD142 A94:A98 A120:A121 A1:A18 A21:A24 A43:A46 A55:A60 A143:A1048576 J143:XFD154 A130:C130 E130:F130 A131:F142 A63:A70 A37 A73:A89">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112 A107:F110">
+  <conditionalFormatting sqref="B127 A122:F125">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 D27">
+  <conditionalFormatting sqref="D36 D28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I139:I1048576 I105:I106 I1:I103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I161:I1048576 I120:I121 I1:I118">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F76:F102 F104:F106 F139:F1048576 F1:F73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F119:F121 F161:F1048576 F84:F117 F83 F1:F81">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C139:C1048576 C1:C106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C161:C1048576 C1:C121">
       <formula1>"必须,超额,长期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90:B100 B102:B1048576 B1:B88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117:B1048576 B100:B115 B1:B98">
       <formula1>"自主任务,提交文档,封文档,评审,策划验收,提交配置,三方前,美术需求,Debug,客户端新功能,服务器新功能,客户端自主任务,服务器自主任务,文档分析,测试用例,功能测试,内容测试,UI,角色原画,场景原画,角色3D,场景3D,动作,特效"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28362,15 +29088,18 @@
           <x14:formula1>
             <xm:f>[1]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C124</xm:sqref>
+          <xm:sqref>C146</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[2]附录!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C130:C132 C126:C128 C134:C138</xm:sqref>
+          <xm:sqref>C152:C154 C148:C150 C156:C160</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -28381,10 +29110,10 @@
   <dimension ref="A3:C38"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C38" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -28442,12 +29171,12 @@
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="54" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" s="54" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -28505,7 +29234,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="C30" s="54" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -28542,6 +29271,11 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/项目管理/进度计划/Demo-里程碑7/里程碑7-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑7/里程碑7-周版本.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\项目管理\进度计划\Demo-里程碑7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19500" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="38745" yWindow="465" windowWidth="27300" windowHeight="16515" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20151202" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +40,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +78,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +154,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +192,7 @@
     <author>Kathy</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3460" uniqueCount="1096">
   <si>
     <t>类别</t>
   </si>
@@ -9384,12 +9389,20 @@
     <t>ts</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>测公会</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测宠物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9573,6 +9586,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9824,6 +9839,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="69">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="2"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 25" xfId="3"/>
@@ -9860,41 +9876,460 @@
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="150">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11031,7 +11466,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -11044,7 +11479,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -11057,7 +11492,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -11070,7 +11505,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -11337,7 +11772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11352,18 +11787,18 @@
       <selection pane="bottomLeft" activeCell="D41" sqref="D41:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -12371,7 +12806,7 @@
     <row r="45" spans="1:14">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="32">
+    <row r="46" spans="1:14" ht="33">
       <c r="A46" s="4" t="s">
         <v>16</v>
       </c>
@@ -13682,7 +14117,7 @@
     <row r="111" spans="1:15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:15" ht="32">
+    <row r="112" spans="1:15" ht="33">
       <c r="A112" s="4"/>
       <c r="B112" t="s">
         <v>144</v>
@@ -13847,7 +14282,7 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" ht="32">
+    <row r="121" spans="1:16" s="7" customFormat="1" ht="33">
       <c r="A121" s="3"/>
       <c r="B121" s="8" t="s">
         <v>21</v>
@@ -13861,7 +14296,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="8"/>
     </row>
-    <row r="122" spans="1:16" s="7" customFormat="1">
+    <row r="122" spans="1:16" s="7" customFormat="1" ht="33">
       <c r="A122" s="2"/>
       <c r="B122" s="8" t="s">
         <v>22</v>
@@ -14768,181 +15203,181 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="I154:I1048576 I1:I2 I56:I119 J83 J110">
-    <cfRule type="containsText" dxfId="107" priority="44" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="149" priority="44" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="45" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="148" priority="45" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124 C124:F125 E17 D11:E11 E86 E88 E90 A1:A6 D136:G137 A136:C138 H136:XFD138 J142:XFD144 A142:I145 A147:A1048576 B150:I153 A146:C146 A139:XFD141 F146:XFD146 A10:A13 A8 A9:E9 A7:E7 G9 G7 J9:XFD9 K7:XFD7 D80:E84 A132:F135 A131 E131:F131 A129:F130 E126:F128 C126:C128 A124:A128 G120:XFD135 C147:C148 B149:C149 E147:I149 A15:A119">
-    <cfRule type="cellIs" dxfId="105" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="43" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125 A120:F123">
-    <cfRule type="cellIs" dxfId="104" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="41" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E3 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="103" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="40" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="cellIs" dxfId="102" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="cellIs" dxfId="101" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="100" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="99" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="36" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="98" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="97" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="96" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" dxfId="95" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="32" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D13">
-    <cfRule type="cellIs" dxfId="94" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="31" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="93" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="30" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D48">
-    <cfRule type="cellIs" dxfId="92" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D52">
-    <cfRule type="cellIs" dxfId="91" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75">
-    <cfRule type="cellIs" dxfId="90" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="cellIs" dxfId="89" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D78">
-    <cfRule type="cellIs" dxfId="88" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="24" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" dxfId="87" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="23" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="86" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="85" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="cellIs" dxfId="84" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91">
-    <cfRule type="cellIs" dxfId="83" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D127">
-    <cfRule type="cellIs" dxfId="82" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="15" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D128">
-    <cfRule type="cellIs" dxfId="81" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="16" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G138 D146:E146">
-    <cfRule type="cellIs" dxfId="80" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D138:E138">
-    <cfRule type="cellIs" dxfId="79" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="12" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F138">
-    <cfRule type="cellIs" dxfId="78" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="77" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14 E14:E15">
-    <cfRule type="cellIs" dxfId="76" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I13 I15:I55 I3:I8 J32 J50">
-    <cfRule type="containsText" dxfId="75" priority="4" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="117" priority="4" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="5" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="116" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="73" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="3" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="114" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="113" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14992,9 +15427,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -15008,18 +15440,18 @@
       <selection pane="bottomLeft" activeCell="I151" sqref="I151:I163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="17"/>
-    <col min="4" max="4" width="50.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="17"/>
+    <col min="4" max="4" width="50.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -17845,7 +18277,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="32">
+    <row r="129" spans="1:16" ht="33">
       <c r="A129" s="4"/>
       <c r="B129" s="17" t="s">
         <v>144</v>
@@ -18889,170 +19321,170 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B140 A135:F138">
-    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="74" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13 D47">
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="72" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="73" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="69" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="68" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="64" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A32">
-    <cfRule type="cellIs" dxfId="64" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="63" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="63" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="62" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="56" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="61" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103">
-    <cfRule type="cellIs" dxfId="60" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="53" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153 D163:E163">
-    <cfRule type="cellIs" dxfId="59" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="51" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153:E153">
-    <cfRule type="cellIs" dxfId="58" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="49" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F153">
-    <cfRule type="cellIs" dxfId="57" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="50" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D140">
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="48" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156:F157">
-    <cfRule type="cellIs" dxfId="55" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="45" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="54" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="44" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="cellIs" dxfId="53" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="39" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="38" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="35" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143">
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="cellIs" dxfId="49" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="31" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8">
-    <cfRule type="cellIs" dxfId="48" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="21" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="47" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="20" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="46" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="19" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="45" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="18" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="44" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="17" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="43" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="11" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="42" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="8" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="41" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="7" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="cellIs" dxfId="40" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="6" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130:I1048576 J100 J64 J73 J79 J85 I1:I128 J131">
-    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="81" priority="4" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19123,9 +19555,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -19139,19 +19568,19 @@
       <selection pane="bottomLeft" activeCell="D43" sqref="D43:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="17"/>
-    <col min="4" max="4" width="55.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.85546875" style="17"/>
-    <col min="10" max="16384" width="10.85546875" style="17"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="17"/>
+    <col min="4" max="4" width="55.44140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="17" customWidth="1"/>
+    <col min="7" max="8" width="10.77734375" style="17"/>
+    <col min="10" max="16384" width="10.77734375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -21497,7 +21926,7 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" ht="32">
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="33">
       <c r="A118" s="3"/>
       <c r="B118" s="8" t="s">
         <v>21</v>
@@ -21511,7 +21940,7 @@
       <c r="I118"/>
       <c r="J118" s="8"/>
     </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" ht="32">
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="33">
       <c r="A119" s="2"/>
       <c r="B119" s="8" t="s">
         <v>22</v>
@@ -22443,127 +22872,127 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="E6 A125 C125:F125 B126 E12:E17 A1:A20 A27:A30 A33:A64 A67:A83 A115:A116">
-    <cfRule type="cellIs" dxfId="34" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="54" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121:A124 B121 C121:F124 G117:H130 A131:A1048576 A127:F130 A126 C126:F126 J117:XFD143">
-    <cfRule type="cellIs" dxfId="33" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="58" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122 A117:F120">
-    <cfRule type="cellIs" dxfId="32" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="57" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D7:D9">
-    <cfRule type="cellIs" dxfId="31" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="56" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="30" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="55" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="49" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" dxfId="28" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="48" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17">
-    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="42" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="41" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134 D144:E144">
-    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="29" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:E134">
-    <cfRule type="cellIs" dxfId="24" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="27" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F134">
-    <cfRule type="cellIs" dxfId="23" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="28" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F138">
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="26" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F139">
-    <cfRule type="cellIs" dxfId="21" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="25" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J15">
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="22" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 I115:I1048576 I32:I83 J75 J56">
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="61" priority="12" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:A114 A84:A89">
-    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="10" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:A107">
-    <cfRule type="cellIs" dxfId="16" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="9" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:I114 J98 J91 J85:J87 J93 J95 J106">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="56" priority="8" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H144">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",H132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="54" priority="6" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",H132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31 J28">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="阻碍">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="50" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I84)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22600,9 +23029,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -22616,16 +23042,16 @@
       <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -24556,7 +24982,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" ht="17.25">
       <c r="A91" s="4"/>
       <c r="D91" s="53"/>
     </row>
@@ -25001,7 +25427,7 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" ht="32">
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="33">
       <c r="A118" s="3"/>
       <c r="B118" s="8" t="s">
         <v>21</v>
@@ -25015,7 +25441,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="8"/>
     </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" ht="32">
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="33">
       <c r="A119" s="2"/>
       <c r="B119" s="8" t="s">
         <v>22</v>
@@ -25029,7 +25455,7 @@
       <c r="I119" s="9"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" ht="32">
+    <row r="120" spans="1:16" s="7" customFormat="1" ht="33">
       <c r="A120" s="3"/>
       <c r="B120" s="8" t="s">
         <v>23</v>
@@ -25947,17 +26373,17 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="E17:E18 A17:A18">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D18">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25995,9 +26421,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -26006,21 +26429,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -26091,6 +26514,9 @@
       </c>
       <c r="G2">
         <v>0.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -26110,6 +26536,9 @@
       <c r="G3">
         <v>0.5</v>
       </c>
+      <c r="I3" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="3"/>
@@ -26131,6 +26560,9 @@
       <c r="F5" t="s">
         <v>190</v>
       </c>
+      <c r="I5" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="3"/>
@@ -26158,6 +26590,9 @@
       <c r="H7" t="s">
         <v>892</v>
       </c>
+      <c r="I7" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="3"/>
@@ -26176,6 +26611,9 @@
       <c r="G8">
         <v>2</v>
       </c>
+      <c r="I8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="3"/>
@@ -26231,6 +26669,9 @@
       <c r="H12" t="s">
         <v>908</v>
       </c>
+      <c r="I12" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="3"/>
@@ -26249,6 +26690,9 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3"/>
@@ -26266,6 +26710,9 @@
       </c>
       <c r="G14">
         <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -26307,6 +26754,9 @@
       <c r="H17" s="17" t="s">
         <v>680</v>
       </c>
+      <c r="I17" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3"/>
@@ -26326,6 +26776,9 @@
       <c r="H18" s="17" t="s">
         <v>681</v>
       </c>
+      <c r="I18" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="19" spans="1:10" s="17" customFormat="1">
       <c r="A19" s="3"/>
@@ -26347,7 +26800,9 @@
       <c r="H19" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="I19"/>
+      <c r="I19" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" s="17" customFormat="1">
@@ -26370,7 +26825,9 @@
       <c r="H20" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="I20"/>
+      <c r="I20" s="17" t="s">
+        <v>364</v>
+      </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
@@ -26391,6 +26848,9 @@
         <v>0.5</v>
       </c>
       <c r="H21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3"/>
@@ -26410,6 +26870,9 @@
         <v>0.5</v>
       </c>
       <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3"/>
@@ -26427,6 +26890,9 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
+      <c r="I23" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3"/>
@@ -26477,6 +26943,9 @@
       <c r="H26" t="s">
         <v>912</v>
       </c>
+      <c r="I26" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3"/>
@@ -26495,6 +26964,9 @@
       <c r="G27">
         <v>2</v>
       </c>
+      <c r="I27" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="28" spans="1:10" s="17" customFormat="1">
       <c r="A28" s="3"/>
@@ -26513,7 +26985,9 @@
       <c r="G28" s="17">
         <v>0.5</v>
       </c>
-      <c r="I28"/>
+      <c r="I28" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3"/>
@@ -26535,6 +27009,9 @@
       <c r="H29" t="s">
         <v>910</v>
       </c>
+      <c r="I29" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3"/>
@@ -26556,6 +27033,9 @@
       <c r="H30" t="s">
         <v>906</v>
       </c>
+      <c r="I30" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="31" spans="1:10" s="17" customFormat="1">
       <c r="A31" s="3"/>
@@ -26574,7 +27054,9 @@
       <c r="G31" s="17">
         <v>1.5</v>
       </c>
-      <c r="I31"/>
+      <c r="I31" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="32" spans="1:10" s="17" customFormat="1">
       <c r="A32" s="3"/>
@@ -26593,7 +27075,9 @@
       <c r="G32" s="17">
         <v>0.5</v>
       </c>
-      <c r="I32"/>
+      <c r="I32" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="33" spans="1:9" s="17" customFormat="1">
       <c r="A33" s="3"/>
@@ -26606,7 +27090,9 @@
       <c r="E33" t="s">
         <v>785</v>
       </c>
-      <c r="I33"/>
+      <c r="I33" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="34" spans="1:9" s="17" customFormat="1">
       <c r="A34" s="3"/>
@@ -26628,7 +27114,9 @@
       <c r="H34" s="17" t="s">
         <v>916</v>
       </c>
-      <c r="I34"/>
+      <c r="I34" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="35" spans="1:9" s="17" customFormat="1">
       <c r="A35" s="3"/>
@@ -26647,7 +27135,9 @@
       <c r="G35" s="17">
         <v>3</v>
       </c>
-      <c r="I35"/>
+      <c r="I35" s="17" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="36" spans="1:9" s="17" customFormat="1">
       <c r="A36" s="3"/>
@@ -26969,6 +27459,9 @@
       <c r="F56" t="s">
         <v>189</v>
       </c>
+      <c r="I56" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="C57" t="s">
@@ -26982,6 +27475,9 @@
       </c>
       <c r="F57" t="s">
         <v>194</v>
+      </c>
+      <c r="I57" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -27010,6 +27506,9 @@
       <c r="H59" t="s">
         <v>931</v>
       </c>
+      <c r="I59" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="5"/>
@@ -27034,6 +27533,9 @@
       <c r="G61">
         <v>4</v>
       </c>
+      <c r="I61" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="5"/>
@@ -27052,6 +27554,9 @@
       <c r="G62">
         <v>1</v>
       </c>
+      <c r="I62" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="5"/>
@@ -27070,6 +27575,9 @@
       <c r="G63">
         <v>3</v>
       </c>
+      <c r="I63" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="5"/>
@@ -27088,8 +27596,11 @@
       <c r="G64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="5"/>
       <c r="C65" t="s">
         <v>37</v>
@@ -27109,8 +27620,14 @@
       <c r="H65" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>421</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="4"/>
       <c r="C66" t="s">
         <v>69</v>
@@ -27130,8 +27647,14 @@
       <c r="H66" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>421</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="4"/>
       <c r="C67" t="s">
         <v>69</v>
@@ -27148,8 +27671,14 @@
       <c r="G67">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>421</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="5"/>
       <c r="C68" t="s">
         <v>1091</v>
@@ -27169,8 +27698,14 @@
       <c r="H68" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>421</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="5"/>
       <c r="C69" t="s">
         <v>69</v>
@@ -27187,11 +27722,17 @@
       <c r="G69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>421</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:10">
       <c r="A71" s="4"/>
       <c r="B71" t="s">
         <v>41</v>
@@ -27209,7 +27750,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="C72" t="s">
         <v>69</v>
       </c>
@@ -27222,13 +27763,19 @@
       <c r="H72" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I72" t="s">
+        <v>421</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:10">
       <c r="A75" s="4"/>
       <c r="B75" t="s">
         <v>126</v>
@@ -27249,7 +27796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:10">
       <c r="A76" s="4"/>
       <c r="C76" s="17" t="s">
         <v>37</v>
@@ -27267,7 +27814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:10">
       <c r="A77" s="4"/>
       <c r="C77" s="17" t="s">
         <v>37</v>
@@ -27285,7 +27832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:10">
       <c r="A78" s="4"/>
       <c r="C78" s="17" t="s">
         <v>37</v>
@@ -27303,7 +27850,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:10">
       <c r="A79" s="4"/>
       <c r="C79" s="17" t="s">
         <v>37</v>
@@ -27321,7 +27868,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:10">
       <c r="A80" s="4"/>
       <c r="C80" s="17" t="s">
         <v>37</v>
@@ -27934,7 +28481,7 @@
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="1:16" s="7" customFormat="1" ht="32">
+    <row r="123" spans="1:16" s="7" customFormat="1" ht="33">
       <c r="A123" s="3"/>
       <c r="B123" s="8" t="s">
         <v>21</v>
@@ -27948,7 +28495,7 @@
       <c r="I123" s="9"/>
       <c r="J123" s="8"/>
     </row>
-    <row r="124" spans="1:16" s="7" customFormat="1">
+    <row r="124" spans="1:16" s="7" customFormat="1" ht="33">
       <c r="A124" s="2"/>
       <c r="B124" s="8" t="s">
         <v>22</v>
@@ -29041,34 +29588,74 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="I161:I1048576 I94:I98 I120:I121 I1:I18 I21:I24 I43:I46 I55:I70 I37 I73:I89">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="阻碍">
+  <conditionalFormatting sqref="I161:I1048576 I94:I98 I120:I121 I43:I46 I37 I73:I89 I1:I24 I26:I35 I55:I70 J66">
+    <cfRule type="containsText" dxfId="46" priority="15" operator="containsText" text="阻碍">
       <formula>NOT(ISERROR(SEARCH("阻碍",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A126:A129 B126 C126:F129 G122:XFD142 A94:A98 A120:A121 A1:A18 A21:A24 A43:A46 A55:A60 A143:A1048576 J143:XFD154 A130:C130 E130:F130 A131:F142 A63:A70 A37 A73:A89">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="14" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127 A122:F125">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="13" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36 D28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:J72">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",I72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",I72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J65">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",J65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",J65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",J69)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",J69)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",J67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",J67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="阻碍">
+      <formula>NOT(ISERROR(SEARCH("阻碍",J68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",J68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I161:I1048576 I120:I121 I1:I118">
       <formula1>"完成,未完成,阻碍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F119:F121 F161:F1048576 F84:F117 F83 F1:F81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F119:F121 F161:F1048576 F83:F117 F1:F81">
       <formula1>"D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C161:C1048576 C1:C121">
@@ -29098,9 +29685,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -29113,7 +29697,7 @@
       <selection activeCell="C38" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -29272,10 +29856,5 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>